--- a/Оборудование на расчет ЦПХ-1.xlsx
+++ b/Оборудование на расчет ЦПХ-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\ENPZ_del\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3565EA-4546-4341-91AF-8B7D204396A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52EF558-6BE7-4BD9-9D92-441A7E2B6510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="284">
   <si>
     <t>Колонна Т-101</t>
   </si>
@@ -1009,6 +1009,27 @@
   </si>
   <si>
     <t>Емкость Е-21/2</t>
+  </si>
+  <si>
+    <t>Автоцистерна</t>
+  </si>
+  <si>
+    <t>С91</t>
+  </si>
+  <si>
+    <t>С92</t>
+  </si>
+  <si>
+    <t>С93</t>
+  </si>
+  <si>
+    <t>С94</t>
+  </si>
+  <si>
+    <t>С95</t>
+  </si>
+  <si>
+    <t>С96</t>
   </si>
 </sst>
 </file>
@@ -1798,18 +1819,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1835,11 +1844,23 @@
     <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1867,16 +1888,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2835,7 +2846,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I3:I18 I20:I35">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3391,7 +3402,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I3:I18 I20:I35">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3999,7 +4010,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J3:J18 J20:J35">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6221,11 +6232,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M60:M125">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M2:M125">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>0</formula>
@@ -9543,43 +9549,45 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AO76"/>
+  <dimension ref="A1:AT80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AT9" sqref="AT9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" style="33" customWidth="1"/>
     <col min="2" max="2" width="28.88671875" style="33" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" style="34" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="34" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="34" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="33" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="33" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="33" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" style="33" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="33" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="35.5546875" customWidth="1"/>
-    <col min="14" max="14" width="31" customWidth="1"/>
-    <col min="15" max="28" width="8.88671875" customWidth="1"/>
-    <col min="29" max="29" width="17" customWidth="1"/>
-    <col min="30" max="30" width="17.88671875" customWidth="1"/>
-    <col min="31" max="31" width="13.33203125" customWidth="1"/>
-    <col min="32" max="34" width="8.88671875" customWidth="1"/>
-    <col min="35" max="35" width="12.33203125" customWidth="1"/>
-    <col min="36" max="36" width="11.88671875" customWidth="1"/>
-    <col min="37" max="37" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="33" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="33" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="35.5546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="31" hidden="1" customWidth="1"/>
+    <col min="15" max="26" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="27" max="28" width="8.88671875" customWidth="1"/>
+    <col min="29" max="29" width="17" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="17.88671875" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="32" max="34" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="10.44140625" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="11.44140625" customWidth="1"/>
     <col min="39" max="39" width="12" customWidth="1"/>
     <col min="41" max="41" width="13.6640625" customWidth="1"/>
+    <col min="46" max="46" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="54" customHeight="1">
+    <row r="1" spans="1:46" ht="54" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>70</v>
       </c>
@@ -9698,7 +9706,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:46">
       <c r="A2" s="91" t="s">
         <v>78</v>
       </c>
@@ -9732,7 +9740,7 @@
         <f>I2</f>
         <v>2.72</v>
       </c>
-      <c r="K2" s="176">
+      <c r="K2" s="172">
         <f>5*K4</f>
         <v>20</v>
       </c>
@@ -9805,7 +9813,7 @@
         <f>AD2*I2+AC2</f>
         <v>0.2908</v>
       </c>
-      <c r="AI2" s="197">
+      <c r="AI2" s="193">
         <f>AH2*0.1</f>
         <v>2.9080000000000002E-2</v>
       </c>
@@ -9833,8 +9841,15 @@
         <f t="shared" ref="AO2:AO19" si="5">H2*AM2</f>
         <v>9.8945310080000022E-6</v>
       </c>
-    </row>
-    <row r="3" spans="1:41">
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="165">
+        <f>SUMIF(AA2:AA80,1,AN2:AN80)</f>
+        <v>5.9760277023814011E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
       <c r="A3" s="91" t="s">
         <v>80</v>
       </c>
@@ -9868,7 +9883,7 @@
         <f>0.1*K3</f>
         <v>2.16E-3</v>
       </c>
-      <c r="K3" s="176">
+      <c r="K3" s="172">
         <f>POWER(10,-6)*SQRT(100)*30*3600*K2/1000</f>
         <v>2.1599999999999998E-2</v>
       </c>
@@ -9941,7 +9956,7 @@
         <f>AD3*I3+AC3</f>
         <v>0.2908</v>
       </c>
-      <c r="AI3" s="197">
+      <c r="AI3" s="193">
         <f t="shared" ref="AI3:AI4" si="7">AH3*0.1</f>
         <v>2.9080000000000002E-2</v>
       </c>
@@ -9969,8 +9984,15 @@
         <f t="shared" si="5"/>
         <v>9.3481851989280021E-6</v>
       </c>
-    </row>
-    <row r="4" spans="1:41">
+      <c r="AS3">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="165">
+        <f>SUMIF(AA2:AA80,2,AN2:AN80)</f>
+        <v>4.6484879400000007E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
       <c r="A4" s="91" t="s">
         <v>81</v>
       </c>
@@ -10003,7 +10025,7 @@
       <c r="J4" s="126">
         <v>0</v>
       </c>
-      <c r="K4" s="176">
+      <c r="K4" s="172">
         <f>4</f>
         <v>4</v>
       </c>
@@ -10076,7 +10098,7 @@
         <f>AD4*J4+AC4</f>
         <v>0.25</v>
       </c>
-      <c r="AI4" s="197">
+      <c r="AI4" s="193">
         <f t="shared" si="7"/>
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10104,8 +10126,15 @@
         <f t="shared" si="5"/>
         <v>6.4078539420080007E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:41">
+      <c r="AS4">
+        <v>3</v>
+      </c>
+      <c r="AT4" s="165">
+        <f>SUMIF(AA2:AA80,3,AN2:AN80)</f>
+        <v>1.3773297600000002E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
       <c r="A5" s="91" t="s">
         <v>82</v>
       </c>
@@ -10139,7 +10168,7 @@
         <f>I5</f>
         <v>0.27200000000000002</v>
       </c>
-      <c r="K5" s="176">
+      <c r="K5" s="172">
         <f>ROUNDUP(I5*20,0)</f>
         <v>6</v>
       </c>
@@ -10213,7 +10242,7 @@
         <f>AD5*I5+AC5</f>
         <v>2.9080000000000002E-2</v>
       </c>
-      <c r="AI5" s="197">
+      <c r="AI5" s="193">
         <f>AH5*0.1</f>
         <v>2.9080000000000004E-3</v>
       </c>
@@ -10242,7 +10271,7 @@
         <v>3.8294531008000005E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:46">
       <c r="A6" s="91" t="s">
         <v>83</v>
       </c>
@@ -10276,7 +10305,7 @@
         <f>K6</f>
         <v>6.4799999999999988E-3</v>
       </c>
-      <c r="K6" s="176">
+      <c r="K6" s="172">
         <f>POWER(10,-6)*SQRT(100)*30*3600*K5/1000</f>
         <v>6.4799999999999988E-3</v>
       </c>
@@ -10350,7 +10379,7 @@
         <f>AD6*I6+AC6</f>
         <v>2.9080000000000002E-2</v>
       </c>
-      <c r="AI6" s="197">
+      <c r="AI6" s="193">
         <f>AH6*0.1</f>
         <v>2.9080000000000004E-3</v>
       </c>
@@ -10379,7 +10408,7 @@
         <v>3.6329011596784003E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:46">
       <c r="A7" s="91" t="s">
         <v>84</v>
       </c>
@@ -10412,7 +10441,7 @@
       <c r="J7" s="126">
         <v>0</v>
       </c>
-      <c r="K7" s="176">
+      <c r="K7" s="172">
         <v>0</v>
       </c>
       <c r="L7" t="str">
@@ -10485,7 +10514,7 @@
         <f>AD7*I7+AC7</f>
         <v>2.9080000000000002E-2</v>
       </c>
-      <c r="AI7" s="197">
+      <c r="AI7" s="193">
         <f>AH7*0.1</f>
         <v>2.9080000000000004E-3</v>
       </c>
@@ -10514,7 +10543,7 @@
         <v>1.9205078626024003E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:46">
       <c r="A8" s="91" t="s">
         <v>85</v>
       </c>
@@ -10621,7 +10650,7 @@
         <f>AD8*I8+AC8</f>
         <v>0.34426000000000001</v>
       </c>
-      <c r="AI8" s="198">
+      <c r="AI8" s="194">
         <f>AH8*0.1</f>
         <v>3.4426000000000005E-2</v>
       </c>
@@ -10650,7 +10679,7 @@
         <v>1.5065454506400004E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:46">
       <c r="A9" s="91" t="s">
         <v>86</v>
       </c>
@@ -10684,7 +10713,7 @@
         <f>0.1*K9</f>
         <v>3.4019999999999996E-3</v>
       </c>
-      <c r="K9" s="177">
+      <c r="K9" s="173">
         <f>POWER(10,-6)*SQRT(100)*30*3600*K8/1000</f>
         <v>3.4019999999999995E-2</v>
       </c>
@@ -10757,7 +10786,7 @@
         <f>AD9*I9+AC9</f>
         <v>0.34426000000000001</v>
       </c>
-      <c r="AI9" s="198">
+      <c r="AI9" s="194">
         <f t="shared" ref="AI9:AI10" si="11">AH9*0.1</f>
         <v>3.4426000000000005E-2</v>
       </c>
@@ -10786,7 +10815,7 @@
         <v>1.4190231282467402E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:46">
       <c r="A10" s="91" t="s">
         <v>87</v>
       </c>
@@ -10819,7 +10848,7 @@
       <c r="J10" s="124">
         <v>0</v>
       </c>
-      <c r="K10" s="177">
+      <c r="K10" s="173">
         <v>6.3</v>
       </c>
       <c r="L10" t="str">
@@ -10891,7 +10920,7 @@
         <f>AD10*J10+AC10</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="AI10" s="198">
+      <c r="AI10" s="194">
         <f t="shared" si="11"/>
         <v>2.8000000000000004E-2</v>
       </c>
@@ -10920,7 +10949,7 @@
         <v>9.7905655629939016E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:46">
       <c r="A11" s="91" t="s">
         <v>88</v>
       </c>
@@ -10954,7 +10983,7 @@
         <f>I11</f>
         <v>0.4284</v>
       </c>
-      <c r="K11" s="177">
+      <c r="K11" s="173">
         <f>ROUNDUP(I11*20,0)</f>
         <v>9</v>
       </c>
@@ -11028,7 +11057,7 @@
         <f>AD11*I11+AC11</f>
         <v>3.4426000000000005E-2</v>
       </c>
-      <c r="AI11" s="198">
+      <c r="AI11" s="194">
         <f>AH11*0.1</f>
         <v>3.4426000000000005E-3</v>
       </c>
@@ -11057,7 +11086,7 @@
         <v>5.7665454506400016E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:46">
       <c r="A12" s="91" t="s">
         <v>89</v>
       </c>
@@ -11091,7 +11120,7 @@
         <f>K12</f>
         <v>9.7199999999999995E-3</v>
       </c>
-      <c r="K12" s="177">
+      <c r="K12" s="173">
         <f>POWER(10,-6)*SQRT(100)*30*3600*K11/1000</f>
         <v>9.7199999999999995E-3</v>
       </c>
@@ -11165,7 +11194,7 @@
         <f>AD12*I12+AC12</f>
         <v>3.4426000000000005E-2</v>
       </c>
-      <c r="AI12" s="198">
+      <c r="AI12" s="194">
         <f>AH12*0.1</f>
         <v>3.4426000000000005E-3</v>
       </c>
@@ -11194,7 +11223,7 @@
         <v>5.4662044192764011E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:46">
       <c r="A13" s="91" t="s">
         <v>90</v>
       </c>
@@ -11227,7 +11256,7 @@
       <c r="J13" s="124">
         <v>0</v>
       </c>
-      <c r="K13" s="177">
+      <c r="K13" s="173">
         <v>0</v>
       </c>
       <c r="L13" t="str">
@@ -11300,7 +11329,7 @@
         <f>AD13*I13+AC13</f>
         <v>3.4426000000000005E-2</v>
       </c>
-      <c r="AI13" s="198">
+      <c r="AI13" s="194">
         <f>AH13*0.1</f>
         <v>3.4426000000000005E-3</v>
       </c>
@@ -11329,7 +11358,7 @@
         <v>2.9126286298553994E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:46">
       <c r="A14" s="91" t="s">
         <v>91</v>
       </c>
@@ -11434,7 +11463,7 @@
         <f>AD14*I14+AC14</f>
         <v>1.4516499999999999</v>
       </c>
-      <c r="AI14" s="199">
+      <c r="AI14" s="195">
         <f>AH14*0.1</f>
         <v>0.14516499999999999</v>
       </c>
@@ -11463,7 +11492,7 @@
         <v>1.0293635553000001E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:46">
       <c r="A15" s="91" t="s">
         <v>92</v>
       </c>
@@ -11497,7 +11526,7 @@
         <f>0.1*K15</f>
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="K15" s="178">
+      <c r="K15" s="174">
         <f>POWER(10,-6)*SQRT(100)*10*3600*K14/1000</f>
         <v>0.108</v>
       </c>
@@ -11570,7 +11599,7 @@
         <f>AD15*I15+AC15</f>
         <v>1.4516499999999999</v>
       </c>
-      <c r="AI15" s="199">
+      <c r="AI15" s="195">
         <f t="shared" ref="AI15:AI16" si="15">AH15*0.1</f>
         <v>0.14516499999999999</v>
       </c>
@@ -11599,7 +11628,7 @@
         <v>1.1283010870980003E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:46">
       <c r="A16" s="91" t="s">
         <v>93</v>
       </c>
@@ -11632,7 +11661,7 @@
       <c r="J16" s="122">
         <v>0</v>
       </c>
-      <c r="K16" s="178"/>
+      <c r="K16" s="174"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v>С15</v>
@@ -11702,7 +11731,7 @@
         <f>AD16*J16+AC16</f>
         <v>0.46</v>
       </c>
-      <c r="AI16" s="199">
+      <c r="AI16" s="195">
         <f t="shared" si="15"/>
         <v>4.6000000000000006E-2</v>
       </c>
@@ -11765,7 +11794,7 @@
         <f>I17</f>
         <v>6.6110000000000007</v>
       </c>
-      <c r="K17" s="178">
+      <c r="K17" s="174">
         <f>ROUNDUP(I17*20,0)</f>
         <v>133</v>
       </c>
@@ -11839,7 +11868,7 @@
         <f>AD17*I17+AC17</f>
         <v>0.14516500000000002</v>
       </c>
-      <c r="AI17" s="199">
+      <c r="AI17" s="195">
         <f>AH17*0.1</f>
         <v>1.4516500000000002E-2</v>
       </c>
@@ -11902,7 +11931,7 @@
         <f>K18</f>
         <v>4.7879999999999992E-2</v>
       </c>
-      <c r="K18" s="178">
+      <c r="K18" s="174">
         <f>POWER(10,-6)*SQRT(100)*10*3600*K17/1000</f>
         <v>4.7879999999999992E-2</v>
       </c>
@@ -11976,7 +12005,7 @@
         <f>AD18*I18+AC18</f>
         <v>0.14516500000000002</v>
       </c>
-      <c r="AI18" s="199">
+      <c r="AI18" s="195">
         <f>AH18*0.1</f>
         <v>1.4516500000000002E-2</v>
       </c>
@@ -12038,7 +12067,7 @@
       <c r="J19" s="122">
         <v>0</v>
       </c>
-      <c r="K19" s="178">
+      <c r="K19" s="174">
         <v>0</v>
       </c>
       <c r="L19" t="str">
@@ -12111,7 +12140,7 @@
         <f>AD19*I19+AC19</f>
         <v>0.14516500000000002</v>
       </c>
-      <c r="AI19" s="199">
+      <c r="AI19" s="195">
         <f>AH19*0.1</f>
         <v>1.4516500000000002E-2</v>
       </c>
@@ -12245,7 +12274,7 @@
         <f>AD20*I20+AC20</f>
         <v>1.3302499999999999</v>
       </c>
-      <c r="AI20" s="184">
+      <c r="AI20" s="180">
         <f>AH20*0.1</f>
         <v>0.133025</v>
       </c>
@@ -12257,7 +12286,7 @@
         <f>AE20*0.1</f>
         <v>1.5</v>
       </c>
-      <c r="AL20" s="184">
+      <c r="AL20" s="180">
         <f>10068.2*J20*POWER(10,-6)</f>
         <v>0.53713847000000003</v>
       </c>
@@ -12269,7 +12298,7 @@
         <f t="shared" ref="AN20:AN25" si="19">AL20*H20</f>
         <v>1.0742769400000002E-6</v>
       </c>
-      <c r="AO20" s="185">
+      <c r="AO20" s="181">
         <f t="shared" ref="AO20:AO25" si="20">H20*AM20</f>
         <v>1.3200826940000001E-5</v>
       </c>
@@ -12308,7 +12337,7 @@
         <f>0.1*K21</f>
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="K21" s="180">
+      <c r="K21" s="176">
         <f>POWER(10,-6)*SQRT(100)*10*3600*K20/1000</f>
         <v>0.108</v>
       </c>
@@ -12381,7 +12410,7 @@
         <f>AD21*I21+AC21</f>
         <v>1.3302499999999999</v>
       </c>
-      <c r="AI21" s="184">
+      <c r="AI21" s="180">
         <f t="shared" ref="AI21:AI22" si="22">AH21*0.1</f>
         <v>0.133025</v>
       </c>
@@ -12393,7 +12422,7 @@
         <f t="shared" ref="AK21:AK22" si="24">AE21*0.1</f>
         <v>1.5</v>
       </c>
-      <c r="AL21" s="184">
+      <c r="AL21" s="180">
         <f>10068.2*J21*POWER(10,-6)*10</f>
         <v>1.0873656000000001E-3</v>
       </c>
@@ -12405,7 +12434,7 @@
         <f t="shared" si="19"/>
         <v>2.0659946400000002E-9</v>
       </c>
-      <c r="AO21" s="185">
+      <c r="AO21" s="181">
         <f t="shared" si="20"/>
         <v>1.4790288494640001E-5</v>
       </c>
@@ -12443,7 +12472,7 @@
       <c r="J22" s="125">
         <v>0</v>
       </c>
-      <c r="K22" s="180"/>
+      <c r="K22" s="176"/>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v>С21</v>
@@ -12513,7 +12542,7 @@
         <f>AD22*J22+AC22</f>
         <v>0.53</v>
       </c>
-      <c r="AI22" s="184">
+      <c r="AI22" s="180">
         <f t="shared" si="22"/>
         <v>5.3000000000000005E-2</v>
       </c>
@@ -12525,7 +12554,7 @@
         <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
-      <c r="AL22" s="184">
+      <c r="AL22" s="180">
         <f>1333*J21*POWER(10,-6)*10</f>
         <v>1.4396400000000001E-4</v>
       </c>
@@ -12537,7 +12566,7 @@
         <f t="shared" si="19"/>
         <v>5.1971004000000007E-9</v>
       </c>
-      <c r="AO22" s="185">
+      <c r="AO22" s="181">
         <f t="shared" si="20"/>
         <v>7.5201497100400001E-5</v>
       </c>
@@ -12576,7 +12605,7 @@
         <f>I23</f>
         <v>5.3350000000000009</v>
       </c>
-      <c r="K23" s="180">
+      <c r="K23" s="176">
         <f>ROUNDUP(I23*20,0)</f>
         <v>107</v>
       </c>
@@ -12650,7 +12679,7 @@
         <f>AD23*I23+AC23</f>
         <v>0.133025</v>
       </c>
-      <c r="AI23" s="184">
+      <c r="AI23" s="180">
         <f>AH23*0.1</f>
         <v>1.3302500000000002E-2</v>
       </c>
@@ -12662,7 +12691,7 @@
         <f>AE23*0.1</f>
         <v>0.5</v>
       </c>
-      <c r="AL23" s="184">
+      <c r="AL23" s="180">
         <f>10068.2*J23*POWER(10,-6)</f>
         <v>5.3713847000000009E-2</v>
       </c>
@@ -12674,7 +12703,7 @@
         <f t="shared" si="19"/>
         <v>1.0742769400000002E-6</v>
       </c>
-      <c r="AO23" s="185">
+      <c r="AO23" s="181">
         <f t="shared" si="20"/>
         <v>4.1600826940000012E-5</v>
       </c>
@@ -12713,7 +12742,7 @@
         <f>K24</f>
         <v>3.8519999999999999E-2</v>
       </c>
-      <c r="K24" s="180">
+      <c r="K24" s="176">
         <f>POWER(10,-6)*SQRT(100)*10*3600*K23/1000</f>
         <v>3.8519999999999999E-2</v>
       </c>
@@ -12787,7 +12816,7 @@
         <f>AD24*I24+AC24</f>
         <v>0.133025</v>
       </c>
-      <c r="AI24" s="184">
+      <c r="AI24" s="180">
         <f>AH24*0.1</f>
         <v>1.3302500000000002E-2</v>
       </c>
@@ -12799,7 +12828,7 @@
         <f>AE24*0.1</f>
         <v>0.5</v>
       </c>
-      <c r="AL24" s="184">
+      <c r="AL24" s="180">
         <f>10068.2*J24*POWER(10,-6)</f>
         <v>3.87827064E-4</v>
       </c>
@@ -12811,7 +12840,7 @@
         <f t="shared" si="19"/>
         <v>7.3687142160000003E-9</v>
       </c>
-      <c r="AO24" s="185">
+      <c r="AO24" s="181">
         <f t="shared" si="20"/>
         <v>3.8507591214216007E-5</v>
       </c>
@@ -12849,7 +12878,7 @@
       <c r="J25" s="125">
         <v>0</v>
       </c>
-      <c r="K25" s="180">
+      <c r="K25" s="176">
         <v>0</v>
       </c>
       <c r="L25" t="str">
@@ -12922,7 +12951,7 @@
         <f>AD25*I25+AC25</f>
         <v>0.133025</v>
       </c>
-      <c r="AI25" s="184">
+      <c r="AI25" s="180">
         <f>AH25*0.1</f>
         <v>1.3302500000000002E-2</v>
       </c>
@@ -12934,7 +12963,7 @@
         <f>AE25*0.1</f>
         <v>0.5</v>
       </c>
-      <c r="AL25" s="184">
+      <c r="AL25" s="180">
         <f>1333*J24*POWER(10,-6)</f>
         <v>5.1347159999999992E-5</v>
       </c>
@@ -12946,7 +12975,7 @@
         <f t="shared" si="19"/>
         <v>1.8536324759999996E-8</v>
       </c>
-      <c r="AO25" s="185">
+      <c r="AO25" s="181">
         <f t="shared" si="20"/>
         <v>2.3334276382476002E-4</v>
       </c>
@@ -12980,11 +13009,11 @@
       <c r="I26" s="101">
         <v>42.56</v>
       </c>
-      <c r="J26" s="181">
+      <c r="J26" s="177">
         <f>I26</f>
         <v>42.56</v>
       </c>
-      <c r="K26" s="181">
+      <c r="K26" s="177">
         <v>300</v>
       </c>
       <c r="L26" t="str">
@@ -13056,7 +13085,7 @@
         <f>AD26*I26+AC26</f>
         <v>1.1484000000000001</v>
       </c>
-      <c r="AI26" s="186">
+      <c r="AI26" s="182">
         <f>AH26*0.1</f>
         <v>0.11484000000000001</v>
       </c>
@@ -13068,7 +13097,7 @@
         <f>AE26*0.1</f>
         <v>1.5</v>
       </c>
-      <c r="AL26" s="186">
+      <c r="AL26" s="182">
         <f>10068.2*J26*POWER(10,-6)</f>
         <v>0.42850259200000002</v>
       </c>
@@ -13080,7 +13109,7 @@
         <f t="shared" ref="AN26:AN31" si="26">AL26*H26</f>
         <v>4.2850259200000009E-7</v>
       </c>
-      <c r="AO26" s="187">
+      <c r="AO26" s="183">
         <f t="shared" ref="AO26:AO31" si="27">H26*AM26</f>
         <v>6.2917425920000014E-6</v>
       </c>
@@ -13115,11 +13144,11 @@
         <f>I26</f>
         <v>42.56</v>
       </c>
-      <c r="J27" s="181">
+      <c r="J27" s="177">
         <f>0.1*K27</f>
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="K27" s="182">
+      <c r="K27" s="178">
         <f>POWER(10,-6)*SQRT(100)*10*3600*K26/1000</f>
         <v>0.108</v>
       </c>
@@ -13192,7 +13221,7 @@
         <f>AD27*I27+AC27</f>
         <v>1.1484000000000001</v>
       </c>
-      <c r="AI27" s="186">
+      <c r="AI27" s="182">
         <f t="shared" ref="AI27:AI28" si="29">AH27*0.1</f>
         <v>0.11484000000000001</v>
       </c>
@@ -13204,7 +13233,7 @@
         <f t="shared" ref="AK27:AK28" si="31">AE27*0.1</f>
         <v>1.5</v>
       </c>
-      <c r="AL27" s="186">
+      <c r="AL27" s="182">
         <f>10068.2*J27*POWER(10,-6)*10</f>
         <v>1.0873656000000001E-3</v>
       </c>
@@ -13216,7 +13245,7 @@
         <f t="shared" si="26"/>
         <v>1.0329973200000001E-9</v>
       </c>
-      <c r="AO27" s="187">
+      <c r="AO27" s="183">
         <f t="shared" si="27"/>
         <v>7.2051109973200012E-6</v>
       </c>
@@ -13251,10 +13280,10 @@
         <f>I27</f>
         <v>42.56</v>
       </c>
-      <c r="J28" s="181">
-        <v>0</v>
-      </c>
-      <c r="K28" s="182"/>
+      <c r="J28" s="177">
+        <v>0</v>
+      </c>
+      <c r="K28" s="178"/>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v>С27</v>
@@ -13324,7 +13353,7 @@
         <f>AD28*J28+AC28</f>
         <v>0.51</v>
       </c>
-      <c r="AI28" s="186">
+      <c r="AI28" s="182">
         <f t="shared" si="29"/>
         <v>5.1000000000000004E-2</v>
       </c>
@@ -13336,7 +13365,7 @@
         <f t="shared" si="31"/>
         <v>1.5</v>
       </c>
-      <c r="AL28" s="186">
+      <c r="AL28" s="182">
         <f>1333*J27*POWER(10,-6)*10</f>
         <v>1.4396400000000001E-4</v>
       </c>
@@ -13348,7 +13377,7 @@
         <f t="shared" si="26"/>
         <v>2.5985502000000004E-9</v>
       </c>
-      <c r="AO28" s="187">
+      <c r="AO28" s="183">
         <f t="shared" si="27"/>
         <v>3.7203648550200011E-5</v>
       </c>
@@ -13383,11 +13412,11 @@
         <f>I26*0.1</f>
         <v>4.2560000000000002</v>
       </c>
-      <c r="J29" s="181">
+      <c r="J29" s="177">
         <f>I29</f>
         <v>4.2560000000000002</v>
       </c>
-      <c r="K29" s="182">
+      <c r="K29" s="178">
         <f>ROUNDUP(I29*20,0)</f>
         <v>86</v>
       </c>
@@ -13461,7 +13490,7 @@
         <f>AD29*I29+AC29</f>
         <v>0.11484000000000001</v>
       </c>
-      <c r="AI29" s="186">
+      <c r="AI29" s="182">
         <f>AH29*0.1</f>
         <v>1.1484000000000001E-2</v>
       </c>
@@ -13473,7 +13502,7 @@
         <f>AE29*0.1</f>
         <v>0.5</v>
       </c>
-      <c r="AL29" s="186">
+      <c r="AL29" s="182">
         <f>10068.2*J29*POWER(10,-6)</f>
         <v>4.2850259200000004E-2</v>
       </c>
@@ -13485,7 +13514,7 @@
         <f t="shared" si="26"/>
         <v>4.2850259200000009E-7</v>
       </c>
-      <c r="AO29" s="187">
+      <c r="AO29" s="183">
         <f t="shared" si="27"/>
         <v>2.0491742592000001E-5</v>
       </c>
@@ -13520,11 +13549,11 @@
         <f>0.1*I26</f>
         <v>4.2560000000000002</v>
       </c>
-      <c r="J30" s="181">
+      <c r="J30" s="177">
         <f>K30</f>
         <v>3.0959999999999998E-2</v>
       </c>
-      <c r="K30" s="182">
+      <c r="K30" s="178">
         <f>POWER(10,-6)*SQRT(100)*10*3600*K29/1000</f>
         <v>3.0959999999999998E-2</v>
       </c>
@@ -13598,7 +13627,7 @@
         <f>AD30*I30+AC30</f>
         <v>0.11484000000000001</v>
       </c>
-      <c r="AI30" s="186">
+      <c r="AI30" s="182">
         <f>AH30*0.1</f>
         <v>1.1484000000000001E-2</v>
       </c>
@@ -13610,7 +13639,7 @@
         <f>AE30*0.1</f>
         <v>0.5</v>
       </c>
-      <c r="AL30" s="186">
+      <c r="AL30" s="182">
         <f>10068.2*J30*POWER(10,-6)</f>
         <v>3.1171147200000001E-4</v>
       </c>
@@ -13622,7 +13651,7 @@
         <f t="shared" si="26"/>
         <v>2.9612589840000004E-9</v>
       </c>
-      <c r="AO30" s="187">
+      <c r="AO30" s="183">
         <f t="shared" si="27"/>
         <v>1.9063039258984003E-5</v>
       </c>
@@ -13657,10 +13686,10 @@
         <f>0.1*I26</f>
         <v>4.2560000000000002</v>
       </c>
-      <c r="J31" s="181">
-        <v>0</v>
-      </c>
-      <c r="K31" s="182">
+      <c r="J31" s="177">
+        <v>0</v>
+      </c>
+      <c r="K31" s="178">
         <v>0</v>
       </c>
       <c r="L31" t="str">
@@ -13733,7 +13762,7 @@
         <f>AD31*I31+AC31</f>
         <v>0.11484000000000001</v>
       </c>
-      <c r="AI31" s="186">
+      <c r="AI31" s="182">
         <f>AH31*0.1</f>
         <v>1.1484000000000001E-2</v>
       </c>
@@ -13745,7 +13774,7 @@
         <f>AE31*0.1</f>
         <v>0.5</v>
       </c>
-      <c r="AL31" s="186">
+      <c r="AL31" s="182">
         <f>1333*J30*POWER(10,-6)</f>
         <v>4.1269679999999994E-5</v>
       </c>
@@ -13757,7 +13786,7 @@
         <f t="shared" si="26"/>
         <v>7.449177239999999E-9</v>
       </c>
-      <c r="AO31" s="187">
+      <c r="AO31" s="183">
         <f t="shared" si="27"/>
         <v>1.1305893117724001E-4</v>
       </c>
@@ -13791,11 +13820,11 @@
       <c r="I32" s="168">
         <v>399.04</v>
       </c>
-      <c r="J32" s="183">
+      <c r="J32" s="179">
         <f>I32</f>
         <v>399.04</v>
       </c>
-      <c r="K32" s="183">
+      <c r="K32" s="179">
         <v>400</v>
       </c>
       <c r="L32" t="str">
@@ -13846,52 +13875,52 @@
       <c r="Z32" t="s">
         <v>209</v>
       </c>
-      <c r="AA32" s="188">
+      <c r="AA32" s="184">
         <v>1</v>
       </c>
-      <c r="AB32" s="188">
+      <c r="AB32" s="184">
         <v>1</v>
       </c>
-      <c r="AC32" s="188">
+      <c r="AC32" s="184">
         <v>0.25</v>
       </c>
-      <c r="AD32" s="188">
+      <c r="AD32" s="184">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE32" s="188">
+      <c r="AE32" s="184">
         <v>15</v>
       </c>
-      <c r="AF32" s="188"/>
-      <c r="AG32" s="188"/>
-      <c r="AH32" s="189">
+      <c r="AF32" s="184"/>
+      <c r="AG32" s="184"/>
+      <c r="AH32" s="185">
         <f>AD32*I32*0.5+AC32</f>
         <v>3.2427999999999999</v>
       </c>
-      <c r="AI32" s="190">
+      <c r="AI32" s="186">
         <f>AH32*0.1</f>
         <v>0.32428000000000001</v>
       </c>
-      <c r="AJ32" s="188">
+      <c r="AJ32" s="184">
         <f>AA32*1.72+115*0.012*AB32</f>
         <v>3.1</v>
       </c>
-      <c r="AK32" s="188">
+      <c r="AK32" s="184">
         <f>AE32*0.1</f>
         <v>1.5</v>
       </c>
-      <c r="AL32" s="190">
+      <c r="AL32" s="186">
         <f>10068.2*J32*POWER(10,-6)*0.5</f>
         <v>2.0088072640000001</v>
       </c>
-      <c r="AM32" s="189">
+      <c r="AM32" s="185">
         <f t="shared" ref="AM32:AM43" si="32">AL32+AK32+AJ32+AI32+AH32</f>
         <v>10.175887264</v>
       </c>
-      <c r="AN32" s="188">
+      <c r="AN32" s="184">
         <f t="shared" ref="AN32:AN43" si="33">AL32*H32</f>
         <v>2.0088072640000002E-6</v>
       </c>
-      <c r="AO32" s="191">
+      <c r="AO32" s="187">
         <f t="shared" ref="AO32:AO43" si="34">H32*AM32</f>
         <v>1.0175887264000002E-5</v>
       </c>
@@ -13926,11 +13955,11 @@
         <f>I32</f>
         <v>399.04</v>
       </c>
-      <c r="J33" s="183">
+      <c r="J33" s="179">
         <f>0.1*K33</f>
         <v>1.44E-2</v>
       </c>
-      <c r="K33" s="183">
+      <c r="K33" s="179">
         <f>POWER(10,-6)*SQRT(100)*10*3600*K32/1000</f>
         <v>0.14399999999999999</v>
       </c>
@@ -13982,52 +14011,52 @@
       <c r="Z33" t="s">
         <v>209</v>
       </c>
-      <c r="AA33" s="188">
+      <c r="AA33" s="184">
         <v>3</v>
       </c>
-      <c r="AB33" s="188">
+      <c r="AB33" s="184">
         <v>1</v>
       </c>
-      <c r="AC33" s="188">
+      <c r="AC33" s="184">
         <v>0.25</v>
       </c>
-      <c r="AD33" s="188">
+      <c r="AD33" s="184">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE33" s="188">
+      <c r="AE33" s="184">
         <v>15</v>
       </c>
-      <c r="AF33" s="188"/>
-      <c r="AG33" s="188"/>
-      <c r="AH33" s="189">
+      <c r="AF33" s="184"/>
+      <c r="AG33" s="184"/>
+      <c r="AH33" s="185">
         <f>AD33*I33*0.5+AC33</f>
         <v>3.2427999999999999</v>
       </c>
-      <c r="AI33" s="190">
+      <c r="AI33" s="186">
         <f t="shared" ref="AI33:AI34" si="36">AH33*0.1</f>
         <v>0.32428000000000001</v>
       </c>
-      <c r="AJ33" s="188">
+      <c r="AJ33" s="184">
         <f t="shared" ref="AJ33:AJ34" si="37">AA33*1.72+115*0.012*AB33</f>
         <v>6.54</v>
       </c>
-      <c r="AK33" s="188">
+      <c r="AK33" s="184">
         <f t="shared" ref="AK33:AK34" si="38">AE33*0.1</f>
         <v>1.5</v>
       </c>
-      <c r="AL33" s="190">
+      <c r="AL33" s="186">
         <f>10068.2*J33*POWER(10,-6)*10</f>
         <v>1.4498207999999999E-3</v>
       </c>
-      <c r="AM33" s="189">
+      <c r="AM33" s="185">
         <f t="shared" si="32"/>
         <v>11.608529820800001</v>
       </c>
-      <c r="AN33" s="188">
+      <c r="AN33" s="184">
         <f t="shared" si="33"/>
         <v>1.3773297600000002E-9</v>
       </c>
-      <c r="AO33" s="191">
+      <c r="AO33" s="187">
         <f t="shared" si="34"/>
         <v>1.1028103329760003E-5</v>
       </c>
@@ -14062,10 +14091,10 @@
         <f>I33</f>
         <v>399.04</v>
       </c>
-      <c r="J34" s="183">
-        <v>0</v>
-      </c>
-      <c r="K34" s="183"/>
+      <c r="J34" s="179">
+        <v>0</v>
+      </c>
+      <c r="K34" s="179"/>
       <c r="L34" t="str">
         <f t="shared" si="0"/>
         <v>С39</v>
@@ -14114,52 +14143,52 @@
       <c r="Z34" t="s">
         <v>209</v>
       </c>
-      <c r="AA34" s="188">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="188">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="188">
+      <c r="AA34" s="184">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="184">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="184">
         <v>0.25</v>
       </c>
-      <c r="AD34" s="188">
+      <c r="AD34" s="184">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE34" s="188">
+      <c r="AE34" s="184">
         <v>15</v>
       </c>
-      <c r="AF34" s="188"/>
-      <c r="AG34" s="188"/>
-      <c r="AH34" s="189">
+      <c r="AF34" s="184"/>
+      <c r="AG34" s="184"/>
+      <c r="AH34" s="185">
         <f>AD34*J34+AC34</f>
         <v>0.25</v>
       </c>
-      <c r="AI34" s="190">
+      <c r="AI34" s="186">
         <f t="shared" si="36"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AJ34" s="188">
+      <c r="AJ34" s="184">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="188">
+      <c r="AK34" s="184">
         <f t="shared" si="38"/>
         <v>1.5</v>
       </c>
-      <c r="AL34" s="190">
+      <c r="AL34" s="186">
         <f>1333*J33*POWER(10,-6)*10</f>
         <v>1.9195199999999998E-4</v>
       </c>
-      <c r="AM34" s="189">
+      <c r="AM34" s="185">
         <f t="shared" si="32"/>
         <v>1.7751919519999999</v>
       </c>
-      <c r="AN34" s="188">
+      <c r="AN34" s="184">
         <f t="shared" si="33"/>
         <v>3.4647335999999998E-9</v>
       </c>
-      <c r="AO34" s="191">
+      <c r="AO34" s="187">
         <f t="shared" si="34"/>
         <v>3.2042214733600004E-5</v>
       </c>
@@ -14194,11 +14223,11 @@
         <f>I32*0.1</f>
         <v>39.904000000000003</v>
       </c>
-      <c r="J35" s="183">
+      <c r="J35" s="179">
         <f>I35</f>
         <v>39.904000000000003</v>
       </c>
-      <c r="K35" s="183">
+      <c r="K35" s="179">
         <v>150</v>
       </c>
       <c r="L35" t="str">
@@ -14249,53 +14278,53 @@
       <c r="Z35" t="s">
         <v>209</v>
       </c>
-      <c r="AA35" s="188">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="188">
+      <c r="AA35" s="184">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="184">
         <v>1</v>
       </c>
-      <c r="AC35" s="188">
+      <c r="AC35" s="184">
         <f>0.1*AC34</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AD35" s="188">
+      <c r="AD35" s="184">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE35" s="188">
+      <c r="AE35" s="184">
         <v>5</v>
       </c>
-      <c r="AF35" s="188"/>
-      <c r="AG35" s="188"/>
-      <c r="AH35" s="189">
+      <c r="AF35" s="184"/>
+      <c r="AG35" s="184"/>
+      <c r="AH35" s="185">
         <f>AD35*I35+AC35</f>
         <v>0.62356</v>
       </c>
-      <c r="AI35" s="190">
+      <c r="AI35" s="186">
         <f>AH35*0.1</f>
         <v>6.2356000000000002E-2</v>
       </c>
-      <c r="AJ35" s="188">
+      <c r="AJ35" s="184">
         <f>AA35*1.72+115*0.012*AB35</f>
         <v>1.3800000000000001</v>
       </c>
-      <c r="AK35" s="188">
+      <c r="AK35" s="184">
         <f>AE35*0.1</f>
         <v>0.5</v>
       </c>
-      <c r="AL35" s="190">
+      <c r="AL35" s="186">
         <f>10068.2*J35*POWER(10,-6)</f>
         <v>0.40176145280000009</v>
       </c>
-      <c r="AM35" s="189">
+      <c r="AM35" s="185">
         <f t="shared" si="32"/>
         <v>2.9676774527999998</v>
       </c>
-      <c r="AN35" s="188">
+      <c r="AN35" s="184">
         <f t="shared" si="33"/>
         <v>4.0176145280000013E-6</v>
       </c>
-      <c r="AO35" s="191">
+      <c r="AO35" s="187">
         <f t="shared" si="34"/>
         <v>2.9676774527999999E-5</v>
       </c>
@@ -14330,11 +14359,11 @@
         <f>0.1*I32</f>
         <v>39.904000000000003</v>
       </c>
-      <c r="J36" s="183">
+      <c r="J36" s="179">
         <f>K36</f>
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="K36" s="183">
+      <c r="K36" s="179">
         <f>POWER(10,-6)*SQRT(100)*10*3600*K35/1000</f>
         <v>5.3999999999999999E-2</v>
       </c>
@@ -14386,53 +14415,53 @@
       <c r="Z36">
         <v>14</v>
       </c>
-      <c r="AA36" s="188">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="188">
+      <c r="AA36" s="184">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="184">
         <v>1</v>
       </c>
-      <c r="AC36" s="188">
+      <c r="AC36" s="184">
         <f>0.1*AC34</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AD36" s="188">
+      <c r="AD36" s="184">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE36" s="188">
+      <c r="AE36" s="184">
         <v>5</v>
       </c>
-      <c r="AF36" s="188"/>
-      <c r="AG36" s="188"/>
-      <c r="AH36" s="189">
+      <c r="AF36" s="184"/>
+      <c r="AG36" s="184"/>
+      <c r="AH36" s="185">
         <f>AD36*I36+AC36</f>
         <v>0.62356</v>
       </c>
-      <c r="AI36" s="190">
+      <c r="AI36" s="186">
         <f>AH36*0.1</f>
         <v>6.2356000000000002E-2</v>
       </c>
-      <c r="AJ36" s="188">
+      <c r="AJ36" s="184">
         <f>AA36*1.72+115*0.012*AB36</f>
         <v>1.3800000000000001</v>
       </c>
-      <c r="AK36" s="188">
+      <c r="AK36" s="184">
         <f>AE36*0.1</f>
         <v>0.5</v>
       </c>
-      <c r="AL36" s="190">
+      <c r="AL36" s="186">
         <f>10068.2*J36*POWER(10,-6)</f>
         <v>5.4368280000000003E-4</v>
       </c>
-      <c r="AM36" s="189">
+      <c r="AM36" s="185">
         <f t="shared" si="32"/>
         <v>2.5664596828000001</v>
       </c>
-      <c r="AN36" s="188">
+      <c r="AN36" s="184">
         <f t="shared" si="33"/>
         <v>5.164986600000001E-9</v>
       </c>
-      <c r="AO36" s="191">
+      <c r="AO36" s="187">
         <f t="shared" si="34"/>
         <v>2.4381366986600003E-5</v>
       </c>
@@ -14467,10 +14496,10 @@
         <f>0.1*I32</f>
         <v>39.904000000000003</v>
       </c>
-      <c r="J37" s="183">
-        <v>0</v>
-      </c>
-      <c r="K37" s="183">
+      <c r="J37" s="179">
+        <v>0</v>
+      </c>
+      <c r="K37" s="179">
         <v>0</v>
       </c>
       <c r="L37" t="str">
@@ -14521,53 +14550,53 @@
       <c r="Z37" t="s">
         <v>209</v>
       </c>
-      <c r="AA37" s="188">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="188">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="188">
+      <c r="AA37" s="184">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="184">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="184">
         <f>0.1*AC34</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AD37" s="188">
+      <c r="AD37" s="184">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE37" s="188">
+      <c r="AE37" s="184">
         <v>5</v>
       </c>
-      <c r="AF37" s="188"/>
-      <c r="AG37" s="188"/>
-      <c r="AH37" s="189">
+      <c r="AF37" s="184"/>
+      <c r="AG37" s="184"/>
+      <c r="AH37" s="185">
         <f>AD37*I37+AC37</f>
         <v>0.62356</v>
       </c>
-      <c r="AI37" s="190">
+      <c r="AI37" s="186">
         <f>AH37*0.1</f>
         <v>6.2356000000000002E-2</v>
       </c>
-      <c r="AJ37" s="188">
+      <c r="AJ37" s="184">
         <f>AA37*1.72+115*0.012*AB37</f>
         <v>0</v>
       </c>
-      <c r="AK37" s="188">
+      <c r="AK37" s="184">
         <f>AE37*0.1</f>
         <v>0.5</v>
       </c>
-      <c r="AL37" s="190">
+      <c r="AL37" s="186">
         <f>1333*J36*POWER(10,-6)</f>
         <v>7.1981999999999989E-5</v>
       </c>
-      <c r="AM37" s="189">
+      <c r="AM37" s="185">
         <f t="shared" si="32"/>
         <v>1.1859879819999999</v>
       </c>
-      <c r="AN37" s="188">
+      <c r="AN37" s="184">
         <f t="shared" si="33"/>
         <v>1.2992750999999998E-8</v>
       </c>
-      <c r="AO37" s="191">
+      <c r="AO37" s="187">
         <f t="shared" si="34"/>
         <v>2.1407083075099996E-4</v>
       </c>
@@ -14673,11 +14702,11 @@
       </c>
       <c r="AF38" s="154"/>
       <c r="AG38" s="154"/>
-      <c r="AH38" s="192">
+      <c r="AH38" s="188">
         <f>AD38*I38+AC38</f>
         <v>0.82799999999999996</v>
       </c>
-      <c r="AI38" s="193">
+      <c r="AI38" s="189">
         <f>AH38*0.1</f>
         <v>8.2799999999999999E-2</v>
       </c>
@@ -14689,11 +14718,11 @@
         <f>AE38*0.1</f>
         <v>1.5</v>
       </c>
-      <c r="AL38" s="193">
+      <c r="AL38" s="189">
         <f>10068.2*J38*POWER(10,-6)</f>
         <v>0.31412783999999999</v>
       </c>
-      <c r="AM38" s="192">
+      <c r="AM38" s="188">
         <f t="shared" si="32"/>
         <v>5.82492784</v>
       </c>
@@ -14701,7 +14730,7 @@
         <f t="shared" si="33"/>
         <v>1.0994474400000002E-6</v>
       </c>
-      <c r="AO38" s="194">
+      <c r="AO38" s="190">
         <f t="shared" si="34"/>
         <v>2.0387247440000001E-5</v>
       </c>
@@ -14809,11 +14838,11 @@
       </c>
       <c r="AF39" s="154"/>
       <c r="AG39" s="154"/>
-      <c r="AH39" s="192">
+      <c r="AH39" s="188">
         <f>AD39*I39+AC39</f>
         <v>0.82799999999999996</v>
       </c>
-      <c r="AI39" s="193">
+      <c r="AI39" s="189">
         <f t="shared" ref="AI39:AI40" si="40">AH39*0.1</f>
         <v>8.2799999999999999E-2</v>
       </c>
@@ -14825,11 +14854,11 @@
         <f t="shared" ref="AK39:AK40" si="42">AE39*0.1</f>
         <v>1.5</v>
       </c>
-      <c r="AL39" s="193">
+      <c r="AL39" s="189">
         <f>10068.2*J39*POWER(10,-6)*10</f>
         <v>9.0613799999999991E-4</v>
       </c>
-      <c r="AM39" s="192">
+      <c r="AM39" s="188">
         <f t="shared" si="32"/>
         <v>5.5117061380000001</v>
       </c>
@@ -14837,7 +14866,7 @@
         <f t="shared" si="33"/>
         <v>3.0129088500000001E-9</v>
       </c>
-      <c r="AO39" s="194">
+      <c r="AO39" s="190">
         <f t="shared" si="34"/>
         <v>1.8326422908850003E-5</v>
       </c>
@@ -14941,11 +14970,11 @@
       </c>
       <c r="AF40" s="154"/>
       <c r="AG40" s="154"/>
-      <c r="AH40" s="192">
+      <c r="AH40" s="188">
         <f>AD40*J40+AC40</f>
         <v>0.36</v>
       </c>
-      <c r="AI40" s="193">
+      <c r="AI40" s="189">
         <f t="shared" si="40"/>
         <v>3.5999999999999997E-2</v>
       </c>
@@ -14957,11 +14986,11 @@
         <f t="shared" si="42"/>
         <v>1.5</v>
       </c>
-      <c r="AL40" s="193">
+      <c r="AL40" s="189">
         <f>1333*J39*POWER(10,-6)*10</f>
         <v>1.1996999999999999E-4</v>
       </c>
-      <c r="AM40" s="192">
+      <c r="AM40" s="188">
         <f t="shared" si="32"/>
         <v>1.89611997</v>
       </c>
@@ -14969,7 +14998,7 @@
         <f t="shared" si="33"/>
         <v>7.5791047500000007E-9</v>
       </c>
-      <c r="AO40" s="194">
+      <c r="AO40" s="190">
         <f t="shared" si="34"/>
         <v>1.1978737910475E-4</v>
       </c>
@@ -15078,11 +15107,11 @@
       </c>
       <c r="AF41" s="154"/>
       <c r="AG41" s="154"/>
-      <c r="AH41" s="192">
+      <c r="AH41" s="188">
         <f>AD41*I41+AC41</f>
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="AI41" s="193">
+      <c r="AI41" s="189">
         <f>AH41*0.1</f>
         <v>8.2800000000000009E-3</v>
       </c>
@@ -15094,11 +15123,11 @@
         <f>AE41*0.1</f>
         <v>0.5</v>
       </c>
-      <c r="AL41" s="193">
+      <c r="AL41" s="189">
         <f>10068.2*J41*POWER(10,-6)</f>
         <v>3.1412783999999999E-2</v>
       </c>
-      <c r="AM41" s="192">
+      <c r="AM41" s="188">
         <f t="shared" si="32"/>
         <v>2.0024927840000002</v>
       </c>
@@ -15106,7 +15135,7 @@
         <f t="shared" si="33"/>
         <v>1.0994474400000002E-6</v>
       </c>
-      <c r="AO41" s="194">
+      <c r="AO41" s="190">
         <f t="shared" si="34"/>
         <v>7.0087247440000017E-5</v>
       </c>
@@ -15215,11 +15244,11 @@
       </c>
       <c r="AF42" s="154"/>
       <c r="AG42" s="154"/>
-      <c r="AH42" s="192">
+      <c r="AH42" s="188">
         <f>AD42*I42+AC42</f>
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="AI42" s="193">
+      <c r="AI42" s="189">
         <f>AH42*0.1</f>
         <v>8.2800000000000009E-3</v>
       </c>
@@ -15231,11 +15260,11 @@
         <f>AE42*0.1</f>
         <v>0.5</v>
       </c>
-      <c r="AL42" s="193">
+      <c r="AL42" s="189">
         <f>10068.2*J42*POWER(10,-6)</f>
         <v>2.28346776E-4</v>
       </c>
-      <c r="AM42" s="192">
+      <c r="AM42" s="188">
         <f t="shared" si="32"/>
         <v>1.9713083467760002</v>
       </c>
@@ -15243,7 +15272,7 @@
         <f t="shared" si="33"/>
         <v>7.592530302E-9</v>
       </c>
-      <c r="AO42" s="194">
+      <c r="AO42" s="190">
         <f t="shared" si="34"/>
         <v>6.5546002530302017E-5</v>
       </c>
@@ -15350,11 +15379,11 @@
       </c>
       <c r="AF43" s="154"/>
       <c r="AG43" s="154"/>
-      <c r="AH43" s="192">
+      <c r="AH43" s="188">
         <f>AD43*I43+AC43</f>
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="AI43" s="193">
+      <c r="AI43" s="189">
         <f>AH43*0.1</f>
         <v>8.2800000000000009E-3</v>
       </c>
@@ -15366,11 +15395,11 @@
         <f>AE43*0.1</f>
         <v>0.5</v>
       </c>
-      <c r="AL43" s="193">
+      <c r="AL43" s="189">
         <f>1333*J42*POWER(10,-6)</f>
         <v>3.0232439999999995E-5</v>
       </c>
-      <c r="AM43" s="192">
+      <c r="AM43" s="188">
         <f t="shared" si="32"/>
         <v>0.59111023243999994</v>
       </c>
@@ -15378,7 +15407,7 @@
         <f t="shared" si="33"/>
         <v>1.9099343969999994E-8</v>
       </c>
-      <c r="AO43" s="194">
+      <c r="AO43" s="190">
         <f t="shared" si="34"/>
         <v>3.7343388934396994E-4</v>
       </c>
@@ -15409,7 +15438,7 @@
         <f>E44*F44*G44</f>
         <v>1.0000000000000002E-6</v>
       </c>
-      <c r="I44" s="179">
+      <c r="I44" s="175">
         <v>3.93</v>
       </c>
       <c r="J44" s="124">
@@ -15489,7 +15518,7 @@
         <f>AD44*I44+AC44</f>
         <v>0.20895</v>
       </c>
-      <c r="AI44" s="195">
+      <c r="AI44" s="191">
         <f>AH44*0.1</f>
         <v>2.0895E-2</v>
       </c>
@@ -15501,7 +15530,7 @@
         <f>AE44*0.1</f>
         <v>1.5</v>
       </c>
-      <c r="AL44" s="195">
+      <c r="AL44" s="191">
         <f>10068.2*J44*POWER(10,-6)</f>
         <v>3.9568026000000006E-2</v>
       </c>
@@ -15513,7 +15542,7 @@
         <f t="shared" ref="AN44:AN49" si="47">AL44*H44</f>
         <v>3.9568026000000016E-8</v>
       </c>
-      <c r="AO44" s="196">
+      <c r="AO44" s="192">
         <f t="shared" ref="AO44:AO49" si="48">H44*AM44</f>
         <v>4.8694130260000008E-6</v>
       </c>
@@ -15544,7 +15573,7 @@
         <f t="shared" ref="H45:H49" si="49">E45*F45*G45</f>
         <v>9.5000000000000012E-7</v>
       </c>
-      <c r="I45" s="179">
+      <c r="I45" s="175">
         <f>I44</f>
         <v>3.93</v>
       </c>
@@ -15625,7 +15654,7 @@
         <f>AD45*I45+AC45</f>
         <v>0.20895</v>
       </c>
-      <c r="AI45" s="195">
+      <c r="AI45" s="191">
         <f t="shared" ref="AI45:AI46" si="50">AH45*0.1</f>
         <v>2.0895E-2</v>
       </c>
@@ -15637,7 +15666,7 @@
         <f t="shared" ref="AK45:AK46" si="52">AE45*0.1</f>
         <v>1.5</v>
       </c>
-      <c r="AL45" s="195">
+      <c r="AL45" s="191">
         <f>10068.2*J45*POWER(10,-6)*10</f>
         <v>2.8996415999999999E-4</v>
       </c>
@@ -15649,7 +15678,7 @@
         <f t="shared" si="47"/>
         <v>2.7546595200000002E-10</v>
       </c>
-      <c r="AO45" s="196">
+      <c r="AO45" s="192">
         <f t="shared" si="48"/>
         <v>4.5886282159520006E-6</v>
       </c>
@@ -15680,7 +15709,7 @@
         <f t="shared" si="49"/>
         <v>1.8050000000000002E-5</v>
       </c>
-      <c r="I46" s="179">
+      <c r="I46" s="175">
         <f>I45</f>
         <v>3.93</v>
       </c>
@@ -15759,7 +15788,7 @@
         <f>AD46*J46+AC46</f>
         <v>0.15</v>
       </c>
-      <c r="AI46" s="195">
+      <c r="AI46" s="191">
         <f t="shared" si="50"/>
         <v>1.4999999999999999E-2</v>
       </c>
@@ -15771,7 +15800,7 @@
         <f t="shared" si="52"/>
         <v>1.5</v>
       </c>
-      <c r="AL46" s="195">
+      <c r="AL46" s="191">
         <f>1333*J45*POWER(10,-6)*10</f>
         <v>3.8390399999999991E-5</v>
       </c>
@@ -15783,7 +15812,7 @@
         <f t="shared" si="47"/>
         <v>6.9294671999999994E-10</v>
       </c>
-      <c r="AO46" s="196">
+      <c r="AO46" s="192">
         <f t="shared" si="48"/>
         <v>3.0053942946720003E-5</v>
       </c>
@@ -15814,7 +15843,7 @@
         <f t="shared" si="49"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I47" s="179">
+      <c r="I47" s="175">
         <f>I44*0.1</f>
         <v>0.39300000000000002</v>
       </c>
@@ -15896,7 +15925,7 @@
         <f>AD47*I47+AC47</f>
         <v>2.0895E-2</v>
       </c>
-      <c r="AI47" s="195">
+      <c r="AI47" s="191">
         <f>AH47*0.1</f>
         <v>2.0895000000000002E-3</v>
       </c>
@@ -15908,7 +15937,7 @@
         <f>AE47*0.1</f>
         <v>0.5</v>
       </c>
-      <c r="AL47" s="195">
+      <c r="AL47" s="191">
         <f>10068.2*J47*POWER(10,-6)</f>
         <v>3.9568025999999999E-3</v>
       </c>
@@ -15920,7 +15949,7 @@
         <f t="shared" si="47"/>
         <v>3.9568026000000002E-8</v>
       </c>
-      <c r="AO47" s="196">
+      <c r="AO47" s="192">
         <f t="shared" si="48"/>
         <v>1.9069413026000005E-5</v>
       </c>
@@ -15951,7 +15980,7 @@
         <f t="shared" si="49"/>
         <v>9.5000000000000005E-6</v>
       </c>
-      <c r="I48" s="179">
+      <c r="I48" s="175">
         <f>0.1*I44</f>
         <v>0.39300000000000002</v>
       </c>
@@ -16033,7 +16062,7 @@
         <f>AD48*I48+AC48</f>
         <v>2.0895E-2</v>
       </c>
-      <c r="AI48" s="195">
+      <c r="AI48" s="191">
         <f>AH48*0.1</f>
         <v>2.0895000000000002E-3</v>
       </c>
@@ -16045,7 +16074,7 @@
         <f>AE48*0.1</f>
         <v>0.5</v>
       </c>
-      <c r="AL48" s="195">
+      <c r="AL48" s="191">
         <f>10068.2*J48*POWER(10,-6)</f>
         <v>2.8996415999999999E-5</v>
       </c>
@@ -16057,7 +16086,7 @@
         <f t="shared" si="47"/>
         <v>2.7546595200000002E-10</v>
       </c>
-      <c r="AO48" s="196">
+      <c r="AO48" s="192">
         <f t="shared" si="48"/>
         <v>1.8078628215952005E-5</v>
       </c>
@@ -16088,7 +16117,7 @@
         <f t="shared" si="49"/>
         <v>1.805E-4</v>
       </c>
-      <c r="I49" s="179">
+      <c r="I49" s="175">
         <f>0.1*I44</f>
         <v>0.39300000000000002</v>
       </c>
@@ -16168,7 +16197,7 @@
         <f>AD49*I49+AC49</f>
         <v>2.0895E-2</v>
       </c>
-      <c r="AI49" s="195">
+      <c r="AI49" s="191">
         <f>AH49*0.1</f>
         <v>2.0895000000000002E-3</v>
       </c>
@@ -16180,7 +16209,7 @@
         <f>AE49*0.1</f>
         <v>0.5</v>
       </c>
-      <c r="AL49" s="195">
+      <c r="AL49" s="191">
         <f>1333*J48*POWER(10,-6)</f>
         <v>3.8390399999999994E-6</v>
       </c>
@@ -16192,7 +16221,7 @@
         <f t="shared" si="47"/>
         <v>6.9294671999999983E-10</v>
       </c>
-      <c r="AO49" s="196">
+      <c r="AO49" s="192">
         <f t="shared" si="48"/>
         <v>9.4399395196719996E-5</v>
       </c>
@@ -16224,26 +16253,26 @@
         <v>2.1480000000000001E-5</v>
       </c>
       <c r="I50" s="79">
-        <v>1.1299999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="J50" s="79">
         <f>I50</f>
-        <v>1.1299999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="K50" s="79">
         <f>K52*150</f>
         <v>150</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" ref="L50:L55" si="53">A50</f>
+        <f t="shared" ref="L50:L61" si="53">A50</f>
         <v>С67</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" ref="M50:M55" si="54">B50</f>
+        <f t="shared" ref="M50:M61" si="54">B50</f>
         <v>Технологический трубопровод транспортировки спиртового растворителя от емкости Н14/4 до всех емкостей площадки ТСЕ, пл. ИКН-4, ПК ИКН, ПК ИКАР</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" ref="N50:N55" si="55">D50</f>
+        <f t="shared" ref="N50:N61" si="55">D50</f>
         <v>Полное-пожар</v>
       </c>
       <c r="O50">
@@ -16301,11 +16330,11 @@
       <c r="AG50" s="3"/>
       <c r="AH50" s="152">
         <f>AD50*I50+AC50</f>
-        <v>0.13694999999999999</v>
-      </c>
-      <c r="AI50" s="200">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AI50" s="196">
         <f>AH50*0.1</f>
-        <v>1.3694999999999999E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="AJ50" s="153">
         <f>AA50*1.72+115*0.012*AB50</f>
@@ -16317,19 +16346,19 @@
       </c>
       <c r="AL50" s="152">
         <f>10068.2*J50*POWER(10,-6)+0.0012*K53</f>
-        <v>3.1777065999999993E-2</v>
+        <v>5.052276E-2</v>
       </c>
       <c r="AM50" s="153">
-        <f t="shared" ref="AM50:AM55" si="56">AL50+AK50+AJ50+AI50+AH50</f>
-        <v>3.0624220659999999</v>
+        <f t="shared" ref="AM50:AM61" si="56">AL50+AK50+AJ50+AI50+AH50</f>
+        <v>3.0922227599999998</v>
       </c>
       <c r="AN50" s="163">
-        <f t="shared" ref="AN50:AN55" si="57">AL50*H50</f>
-        <v>6.8257137767999993E-7</v>
+        <f t="shared" ref="AN50:AN61" si="57">AL50*H50</f>
+        <v>1.0852288848000001E-6</v>
       </c>
       <c r="AO50" s="163">
-        <f t="shared" ref="AO50:AO55" si="58">H50*AM50</f>
-        <v>6.5780825977679994E-5</v>
+        <f t="shared" ref="AO50:AO61" si="58">H50*AM50</f>
+        <v>6.6420944884800005E-5</v>
       </c>
     </row>
     <row r="51" spans="1:41">
@@ -16360,7 +16389,7 @@
       </c>
       <c r="I51" s="79">
         <f>I50</f>
-        <v>1.1299999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="J51" s="79">
         <f>0.1*K51</f>
@@ -16437,11 +16466,11 @@
       <c r="AG51" s="3"/>
       <c r="AH51" s="152">
         <f>AD51*I51+AC51</f>
-        <v>0.13694999999999999</v>
-      </c>
-      <c r="AI51" s="200">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AI51" s="196">
         <f t="shared" ref="AI51:AI52" si="60">AH51*0.1</f>
-        <v>1.3694999999999999E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="AJ51" s="153">
         <f t="shared" ref="AJ51:AJ52" si="61">AA51*1.72+115*0.012*AB51</f>
@@ -16453,19 +16482,19 @@
       </c>
       <c r="AL51" s="152">
         <f>10068.2*J51*POWER(10,-6)*10+0.0012*K53</f>
-        <v>2.0943682799999998E-2</v>
+        <v>3.2943682799999999E-2</v>
       </c>
       <c r="AM51" s="153">
         <f t="shared" si="56"/>
-        <v>3.0515886828000003</v>
+        <v>3.0746436827999997</v>
       </c>
       <c r="AN51" s="163">
         <f t="shared" si="57"/>
-        <v>8.9974061308800014E-8</v>
+        <v>1.4152606130880002E-7</v>
       </c>
       <c r="AO51" s="163">
         <f t="shared" si="58"/>
-        <v>1.3109624981308804E-5</v>
+        <v>1.3208669261308802E-5</v>
       </c>
     </row>
     <row r="52" spans="1:41">
@@ -16496,7 +16525,7 @@
       </c>
       <c r="I52" s="79">
         <f>I51</f>
-        <v>1.1299999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="J52" s="79">
         <v>0</v>
@@ -16573,7 +16602,7 @@
         <f>AD52*J52+AC52</f>
         <v>0.12</v>
       </c>
-      <c r="AI52" s="200">
+      <c r="AI52" s="196">
         <f t="shared" si="60"/>
         <v>1.2E-2</v>
       </c>
@@ -16587,19 +16616,19 @@
       </c>
       <c r="AL52" s="152">
         <f>1333*J51*POWER(10,-6)*10+0.0012*K53</f>
-        <v>2.0471982E-2</v>
+        <v>3.2471981999999996E-2</v>
       </c>
       <c r="AM52" s="153">
         <f t="shared" si="56"/>
-        <v>1.6524719820000002</v>
+        <v>1.6644719819999998</v>
       </c>
       <c r="AN52" s="163">
         <f t="shared" si="57"/>
-        <v>1.671005058768E-6</v>
+        <v>2.650493058768E-6</v>
       </c>
       <c r="AO52" s="163">
         <f t="shared" si="58"/>
-        <v>1.3488137305876801E-4</v>
+        <v>1.3586086105876798E-4</v>
       </c>
     </row>
     <row r="53" spans="1:41">
@@ -16630,15 +16659,15 @@
       </c>
       <c r="I53" s="79">
         <f>I50*0.1</f>
-        <v>0.11299999999999999</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="J53" s="79">
         <f>I53</f>
-        <v>0.11299999999999999</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="K53" s="82">
         <f>ROUNDUP(I53*150,0)</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="L53" t="str">
         <f t="shared" si="53"/>
@@ -16653,16 +16682,16 @@
         <v>Частичное-пожар</v>
       </c>
       <c r="O53">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P53">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R53">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="S53" t="s">
         <v>209</v>
@@ -16708,11 +16737,11 @@
       <c r="AG53" s="3"/>
       <c r="AH53" s="152">
         <f>AD53*I53+AC53</f>
-        <v>1.3695000000000001E-2</v>
-      </c>
-      <c r="AI53" s="200">
+        <v>1.4700000000000001E-2</v>
+      </c>
+      <c r="AI53" s="196">
         <f>AH53*0.1</f>
-        <v>1.3695000000000001E-3</v>
+        <v>1.4700000000000002E-3</v>
       </c>
       <c r="AJ53" s="153">
         <f>AA53*1.72+115*0.012*AB53</f>
@@ -16724,19 +16753,19 @@
       </c>
       <c r="AL53" s="152">
         <f>10068.2*J53*POWER(10,-6)+0.0012*K53</f>
-        <v>2.1537706599999998E-2</v>
+        <v>3.4212276E-2</v>
       </c>
       <c r="AM53" s="153">
         <f t="shared" si="56"/>
-        <v>1.9166022066000001</v>
+        <v>1.9303822760000002</v>
       </c>
       <c r="AN53" s="163">
         <f t="shared" si="57"/>
-        <v>3.0841995851199993E-6</v>
+        <v>4.8991979231999995E-6</v>
       </c>
       <c r="AO53" s="163">
         <f t="shared" si="58"/>
-        <v>2.7445743598512E-4</v>
+        <v>2.7643074192319999E-4</v>
       </c>
     </row>
     <row r="54" spans="1:41">
@@ -16767,15 +16796,15 @@
       </c>
       <c r="I54" s="79">
         <f>0.1*I50</f>
-        <v>0.11299999999999999</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="J54" s="79">
         <f>K54</f>
-        <v>6.1200000000000004E-3</v>
+        <v>9.7199999999999995E-3</v>
       </c>
       <c r="K54" s="82">
         <f>POWER(10,-6)*SQRT(100)*10*3600*K53/1000</f>
-        <v>6.1200000000000004E-3</v>
+        <v>9.7199999999999995E-3</v>
       </c>
       <c r="L54" t="str">
         <f t="shared" si="53"/>
@@ -16820,10 +16849,10 @@
         <v>209</v>
       </c>
       <c r="Y54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA54" s="3">
         <v>0</v>
@@ -16845,11 +16874,11 @@
       <c r="AG54" s="3"/>
       <c r="AH54" s="152">
         <f>AD54*I54+AC54</f>
-        <v>1.3695000000000001E-2</v>
-      </c>
-      <c r="AI54" s="200">
+        <v>1.4700000000000001E-2</v>
+      </c>
+      <c r="AI54" s="196">
         <f>AH54*0.1</f>
-        <v>1.3695000000000001E-3</v>
+        <v>1.4700000000000002E-3</v>
       </c>
       <c r="AJ54" s="153">
         <f>AA54*1.72+115*0.012*AB54</f>
@@ -16861,19 +16890,19 @@
       </c>
       <c r="AL54" s="152">
         <f>10068.2*J54*POWER(10,-6)+0.0012*K53</f>
-        <v>2.0461617383999996E-2</v>
+        <v>3.2497862903999995E-2</v>
       </c>
       <c r="AM54" s="153">
         <f t="shared" si="56"/>
-        <v>1.9155261173840001</v>
+        <v>1.9286678629040002</v>
       </c>
       <c r="AN54" s="163">
         <f t="shared" si="57"/>
-        <v>5.8602072187775999E-7</v>
+        <v>9.3073879357055996E-7</v>
       </c>
       <c r="AO54" s="163">
         <f t="shared" si="58"/>
-        <v>5.4860668001877771E-5</v>
+        <v>5.5237047593570571E-5</v>
       </c>
     </row>
     <row r="55" spans="1:41">
@@ -16904,7 +16933,7 @@
       </c>
       <c r="I55" s="79">
         <f>0.1*I50</f>
-        <v>0.11299999999999999</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="J55" s="79">
         <v>0</v>
@@ -16980,11 +17009,11 @@
       <c r="AG55" s="3"/>
       <c r="AH55" s="152">
         <f>AD55*I55+AC55</f>
-        <v>1.3695000000000001E-2</v>
-      </c>
-      <c r="AI55" s="200">
+        <v>1.4700000000000001E-2</v>
+      </c>
+      <c r="AI55" s="196">
         <f>AH55*0.1</f>
-        <v>1.3695000000000001E-3</v>
+        <v>1.4700000000000002E-3</v>
       </c>
       <c r="AJ55" s="153">
         <f>AA55*1.72+115*0.012*AB55</f>
@@ -16996,33 +17025,81 @@
       </c>
       <c r="AL55" s="152">
         <f>1333*J54*POWER(10,-6)+0.0012*K53</f>
-        <v>2.0408157959999999E-2</v>
+        <v>3.241295676E-2</v>
       </c>
       <c r="AM55" s="153">
         <f t="shared" si="56"/>
-        <v>0.53547265795999999</v>
+        <v>0.54858295676000002</v>
       </c>
       <c r="AN55" s="163">
         <f t="shared" si="57"/>
-        <v>1.1105303235513598E-5</v>
+        <v>1.7637834550521599E-5</v>
       </c>
       <c r="AO55" s="163">
         <f t="shared" si="58"/>
-        <v>2.9138280155551356E-4</v>
+        <v>2.9851690175052156E-4</v>
       </c>
     </row>
     <row r="56" spans="1:41">
-      <c r="O56" t="s">
-        <v>209</v>
-      </c>
-      <c r="P56" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>209</v>
-      </c>
-      <c r="R56" t="s">
-        <v>209</v>
+      <c r="A56" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="E56" s="100">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F56" s="97">
+        <v>4</v>
+      </c>
+      <c r="G56" s="97">
+        <v>0.05</v>
+      </c>
+      <c r="H56" s="100">
+        <f>E56*F56*G56</f>
+        <v>2.0000000000000003E-6</v>
+      </c>
+      <c r="I56" s="97">
+        <f>10*0.8*0.85</f>
+        <v>6.8</v>
+      </c>
+      <c r="J56" s="126">
+        <f>I56</f>
+        <v>6.8</v>
+      </c>
+      <c r="K56" s="126">
+        <v>180</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="53"/>
+        <v>С73</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="54"/>
+        <v>Автоцистерна</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="55"/>
+        <v>Полное-пожар</v>
+      </c>
+      <c r="O56">
+        <v>16</v>
+      </c>
+      <c r="P56">
+        <v>21</v>
+      </c>
+      <c r="Q56">
+        <v>30</v>
+      </c>
+      <c r="R56">
+        <v>55</v>
       </c>
       <c r="S56" t="s">
         <v>209</v>
@@ -17047,340 +17124,386 @@
       </c>
       <c r="Z56" t="s">
         <v>209</v>
+      </c>
+      <c r="AA56" s="154">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="154">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="154">
+        <v>0.36</v>
+      </c>
+      <c r="AD56" s="154">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AE56" s="154">
+        <v>5</v>
+      </c>
+      <c r="AF56" s="154"/>
+      <c r="AG56" s="154"/>
+      <c r="AH56" s="188">
+        <f>AD56*I56+AC56</f>
+        <v>0.46199999999999997</v>
+      </c>
+      <c r="AI56" s="189">
+        <f>AH56*0.1</f>
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="AJ56" s="154">
+        <f>AA56*1.72+115*0.012*AB56</f>
+        <v>3.1</v>
+      </c>
+      <c r="AK56" s="154">
+        <f>AE56*0.1</f>
+        <v>0.5</v>
+      </c>
+      <c r="AL56" s="189">
+        <f>10068.2*J56*POWER(10,-6)</f>
+        <v>6.8463760000000012E-2</v>
+      </c>
+      <c r="AM56" s="188">
+        <f t="shared" si="56"/>
+        <v>4.1766637599999994</v>
+      </c>
+      <c r="AN56" s="154">
+        <f t="shared" si="57"/>
+        <v>1.3692752000000005E-7</v>
+      </c>
+      <c r="AO56" s="190">
+        <f t="shared" si="58"/>
+        <v>8.35332752E-6</v>
       </c>
     </row>
     <row r="57" spans="1:41">
       <c r="A57" s="91" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="91" t="s">
-        <v>273</v>
-      </c>
-      <c r="C57" s="92" t="s">
-        <v>192</v>
-      </c>
-      <c r="D57" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="E57" s="94">
+        <v>134</v>
+      </c>
+      <c r="B57" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" s="98" t="s">
+        <v>262</v>
+      </c>
+      <c r="D57" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="E57" s="100">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F57" s="91">
-        <v>15</v>
-      </c>
-      <c r="G57" s="122">
+      <c r="F57" s="97">
+        <v>4</v>
+      </c>
+      <c r="G57" s="97">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="H57" s="100">
+        <f t="shared" ref="H57:H61" si="63">E57*F57*G57</f>
+        <v>1.9000000000000002E-6</v>
+      </c>
+      <c r="I57" s="97">
+        <f>I56</f>
+        <v>6.8</v>
+      </c>
+      <c r="J57" s="126">
+        <f>0.1*K57</f>
+        <v>6.4799999999999996E-3</v>
+      </c>
+      <c r="K57" s="126">
+        <f>POWER(10,-6)*SQRT(100)*10*3600*K56/1000</f>
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="53"/>
+        <v>С74</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="54"/>
+        <v>Автоцистерна</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="55"/>
+        <v>Полное-взрыв</v>
+      </c>
+      <c r="O57" t="s">
+        <v>209</v>
+      </c>
+      <c r="P57" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>209</v>
+      </c>
+      <c r="R57" t="s">
+        <v>209</v>
+      </c>
+      <c r="S57">
+        <v>8</v>
+      </c>
+      <c r="T57">
+        <v>17</v>
+      </c>
+      <c r="U57">
+        <v>47</v>
+      </c>
+      <c r="V57">
+        <v>81</v>
+      </c>
+      <c r="W57" t="s">
+        <v>209</v>
+      </c>
+      <c r="X57" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA57" s="154">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="154">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="154">
+        <v>0.36</v>
+      </c>
+      <c r="AD57" s="154">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H57" s="94">
-        <f>E57*F57*G57</f>
-        <v>2.2500000000000001E-6</v>
-      </c>
-      <c r="I57" s="91">
-        <f>K59</f>
-        <v>7.5</v>
-      </c>
-      <c r="J57" s="91">
-        <f>I57</f>
-        <v>7.5</v>
-      </c>
-      <c r="K57" s="95">
-        <f>K59*20</f>
-        <v>150</v>
-      </c>
-      <c r="L57" t="str">
-        <f t="shared" ref="L57:M62" si="63">A57</f>
-        <v>С73</v>
-      </c>
-      <c r="M57" t="str">
-        <f t="shared" si="63"/>
-        <v>Насос Н-14/1</v>
-      </c>
-      <c r="N57" t="str">
-        <f t="shared" ref="N57:N62" si="64">D57</f>
-        <v>Полное-жидкостной факел</v>
-      </c>
-      <c r="O57" t="s">
-        <v>209</v>
-      </c>
-      <c r="P57" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>209</v>
-      </c>
-      <c r="R57" t="s">
-        <v>209</v>
-      </c>
-      <c r="S57" t="s">
-        <v>209</v>
-      </c>
-      <c r="T57" t="s">
-        <v>209</v>
-      </c>
-      <c r="U57" t="s">
-        <v>209</v>
-      </c>
-      <c r="V57" t="s">
-        <v>209</v>
-      </c>
-      <c r="W57">
-        <v>8</v>
-      </c>
-      <c r="X57">
-        <v>2</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA57" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC57" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="AD57" s="4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AE57" s="4">
-        <v>3</v>
-      </c>
-      <c r="AF57" s="4"/>
-      <c r="AG57" s="4"/>
-      <c r="AH57" s="160">
+      <c r="AE57" s="154">
+        <v>5</v>
+      </c>
+      <c r="AF57" s="154"/>
+      <c r="AG57" s="154"/>
+      <c r="AH57" s="188">
         <f>AD57*I57+AC57</f>
-        <v>0.26249999999999996</v>
-      </c>
-      <c r="AI57" s="160">
-        <f>AH57*0.1</f>
-        <v>2.6249999999999996E-2</v>
-      </c>
-      <c r="AJ57" s="161">
-        <f>AA57*1.72+115*0.012*AB57</f>
-        <v>1.3800000000000001</v>
-      </c>
-      <c r="AK57" s="161">
-        <f t="shared" ref="AK57:AK62" si="65">AE57*0.1</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AL57" s="160">
-        <f>10068.2*J57*POWER(10,-6)+0.0012*K60</f>
-        <v>0.2555115</v>
-      </c>
-      <c r="AM57" s="161">
-        <f t="shared" ref="AM57:AM74" si="66">AL57+AK57+AJ57+AI57+AH57</f>
-        <v>2.2242614999999999</v>
-      </c>
-      <c r="AN57" s="157">
-        <f t="shared" ref="AN57:AN74" si="67">AL57*H57</f>
-        <v>5.7490087499999999E-7</v>
-      </c>
-      <c r="AO57" s="157">
-        <f t="shared" ref="AO57:AO74" si="68">H57*AM57</f>
-        <v>5.0045883750000002E-6</v>
+        <v>0.46199999999999997</v>
+      </c>
+      <c r="AI57" s="189">
+        <f t="shared" ref="AI57:AI58" si="64">AH57*0.1</f>
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="AJ57" s="154">
+        <f t="shared" ref="AJ57:AJ58" si="65">AA57*1.72+115*0.012*AB57</f>
+        <v>3.1</v>
+      </c>
+      <c r="AK57" s="154">
+        <f t="shared" ref="AK57:AK58" si="66">AE57*0.1</f>
+        <v>0.5</v>
+      </c>
+      <c r="AL57" s="189">
+        <f>10068.2*J57*POWER(10,-6)*10</f>
+        <v>6.5241935999999997E-4</v>
+      </c>
+      <c r="AM57" s="188">
+        <f t="shared" si="56"/>
+        <v>4.1088524193599998</v>
+      </c>
+      <c r="AN57" s="154">
+        <f t="shared" si="57"/>
+        <v>1.239596784E-9</v>
+      </c>
+      <c r="AO57" s="190">
+        <f t="shared" si="58"/>
+        <v>7.806819596784E-6</v>
       </c>
     </row>
     <row r="58" spans="1:41">
       <c r="A58" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="B58" s="91" t="s">
-        <v>273</v>
-      </c>
-      <c r="C58" s="92" t="s">
-        <v>258</v>
-      </c>
-      <c r="D58" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="E58" s="94">
+        <v>135</v>
+      </c>
+      <c r="B58" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="C58" s="98" t="s">
+        <v>263</v>
+      </c>
+      <c r="D58" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="100">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F58" s="91">
-        <v>15</v>
-      </c>
-      <c r="G58" s="122">
-        <v>1.4249999999999999E-2</v>
-      </c>
-      <c r="H58" s="94">
-        <f t="shared" ref="H58:H62" si="69">E58*F58*G58</f>
-        <v>2.1374999999999999E-6</v>
-      </c>
-      <c r="I58" s="91">
+      <c r="F58" s="97">
+        <v>4</v>
+      </c>
+      <c r="G58" s="97">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="H58" s="100">
+        <f t="shared" si="63"/>
+        <v>3.6100000000000003E-5</v>
+      </c>
+      <c r="I58" s="97">
         <f>I57</f>
-        <v>7.5</v>
-      </c>
-      <c r="J58" s="91">
-        <f>0.1*K58</f>
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="K58" s="95">
-        <f>POWER(10,-6)*SQRT(100)*10*3600*K57/1000</f>
-        <v>5.3999999999999999E-2</v>
-      </c>
+        <v>6.8</v>
+      </c>
+      <c r="J58" s="126">
+        <v>0</v>
+      </c>
+      <c r="K58" s="126"/>
       <c r="L58" t="str">
-        <f t="shared" si="63"/>
-        <v>С74</v>
+        <f t="shared" si="53"/>
+        <v>С75</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="63"/>
-        <v>Насос Н-14/1</v>
+        <f t="shared" si="54"/>
+        <v>Автоцистерна</v>
       </c>
       <c r="N58" t="str">
+        <f t="shared" si="55"/>
+        <v>Полное-ликвидация</v>
+      </c>
+      <c r="O58" t="s">
+        <v>209</v>
+      </c>
+      <c r="P58" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>209</v>
+      </c>
+      <c r="R58" t="s">
+        <v>209</v>
+      </c>
+      <c r="S58" t="s">
+        <v>209</v>
+      </c>
+      <c r="T58" t="s">
+        <v>209</v>
+      </c>
+      <c r="U58" t="s">
+        <v>209</v>
+      </c>
+      <c r="V58" t="s">
+        <v>209</v>
+      </c>
+      <c r="W58" t="s">
+        <v>209</v>
+      </c>
+      <c r="X58" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA58" s="154">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="154">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="154">
+        <v>0.36</v>
+      </c>
+      <c r="AD58" s="154">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AE58" s="154">
+        <v>5</v>
+      </c>
+      <c r="AF58" s="154"/>
+      <c r="AG58" s="154"/>
+      <c r="AH58" s="188">
+        <f>AD58*J58+AC58</f>
+        <v>0.36</v>
+      </c>
+      <c r="AI58" s="189">
         <f t="shared" si="64"/>
-        <v>Полное-взрыв</v>
-      </c>
-      <c r="O58" t="s">
-        <v>209</v>
-      </c>
-      <c r="P58" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>209</v>
-      </c>
-      <c r="R58" t="s">
-        <v>209</v>
-      </c>
-      <c r="S58">
-        <v>8</v>
-      </c>
-      <c r="T58">
-        <v>16</v>
-      </c>
-      <c r="U58">
-        <v>44</v>
-      </c>
-      <c r="V58">
-        <v>76</v>
-      </c>
-      <c r="W58" t="s">
-        <v>209</v>
-      </c>
-      <c r="X58" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA58" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC58" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="AD58" s="4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AE58" s="4">
-        <v>3</v>
-      </c>
-      <c r="AF58" s="4"/>
-      <c r="AG58" s="4"/>
-      <c r="AH58" s="160">
-        <f>AD58*I58+AC58</f>
-        <v>0.26249999999999996</v>
-      </c>
-      <c r="AI58" s="160">
-        <f t="shared" ref="AI58:AI62" si="70">AH58*0.1</f>
-        <v>2.6249999999999996E-2</v>
-      </c>
-      <c r="AJ58" s="161">
-        <f t="shared" ref="AJ58:AJ62" si="71">AA58*1.72+115*0.012*AB58</f>
-        <v>1.3800000000000001</v>
-      </c>
-      <c r="AK58" s="161">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AJ58" s="154">
         <f t="shared" si="65"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AL58" s="160">
-        <f>10068.2*J58*POWER(10,-6)*10+0.0012*K60</f>
-        <v>0.18054368279999999</v>
-      </c>
-      <c r="AM58" s="161">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="154">
         <f t="shared" si="66"/>
-        <v>2.1492936827999998</v>
-      </c>
-      <c r="AN58" s="157">
-        <f t="shared" si="67"/>
-        <v>3.8591212198499996E-7</v>
-      </c>
-      <c r="AO58" s="157">
-        <f t="shared" si="68"/>
-        <v>4.5941152469849996E-6</v>
+        <v>0.5</v>
+      </c>
+      <c r="AL58" s="189">
+        <f>1333*J57*POWER(10,-6)*10</f>
+        <v>8.6378399999999979E-5</v>
+      </c>
+      <c r="AM58" s="188">
+        <f t="shared" si="56"/>
+        <v>0.89608637840000005</v>
+      </c>
+      <c r="AN58" s="154">
+        <f t="shared" si="57"/>
+        <v>3.1182602399999994E-9</v>
+      </c>
+      <c r="AO58" s="190">
+        <f t="shared" si="58"/>
+        <v>3.2348718260240004E-5</v>
       </c>
     </row>
     <row r="59" spans="1:41">
       <c r="A59" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="B59" s="91" t="s">
-        <v>273</v>
-      </c>
-      <c r="C59" s="92" t="s">
-        <v>259</v>
-      </c>
-      <c r="D59" s="93" t="s">
-        <v>176</v>
-      </c>
-      <c r="E59" s="94">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F59" s="91">
-        <v>15</v>
-      </c>
-      <c r="G59" s="122">
-        <v>0.27074999999999999</v>
-      </c>
-      <c r="H59" s="94">
-        <f t="shared" si="69"/>
-        <v>4.0612500000000005E-5</v>
-      </c>
-      <c r="I59" s="91">
-        <f>I58</f>
-        <v>7.5</v>
-      </c>
-      <c r="J59" s="91">
-        <v>0</v>
-      </c>
-      <c r="K59" s="96">
-        <f>50*0.15</f>
-        <v>7.5</v>
+        <v>136</v>
+      </c>
+      <c r="B59" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="C59" s="98" t="s">
+        <v>216</v>
+      </c>
+      <c r="D59" s="99" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" s="100">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="F59" s="97">
+        <v>4</v>
+      </c>
+      <c r="G59" s="97">
+        <v>0.05</v>
+      </c>
+      <c r="H59" s="100">
+        <f t="shared" si="63"/>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I59" s="97">
+        <f>I56*0.1</f>
+        <v>0.68</v>
+      </c>
+      <c r="J59" s="126">
+        <f>I59</f>
+        <v>0.68</v>
+      </c>
+      <c r="K59" s="126">
+        <f>ROUNDUP(I59*20,0)</f>
+        <v>14</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="63"/>
-        <v>С75</v>
+        <f t="shared" si="53"/>
+        <v>С76</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="63"/>
-        <v>Насос Н-14/1</v>
+        <f t="shared" si="54"/>
+        <v>Автоцистерна</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="64"/>
-        <v>Полное-ликвидация</v>
-      </c>
-      <c r="O59" t="s">
-        <v>209</v>
-      </c>
-      <c r="P59" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>209</v>
-      </c>
-      <c r="R59" t="s">
-        <v>209</v>
+        <f t="shared" si="55"/>
+        <v>Частичное-пожар</v>
+      </c>
+      <c r="O59">
+        <v>11</v>
+      </c>
+      <c r="P59">
+        <v>14</v>
+      </c>
+      <c r="Q59">
+        <v>18</v>
+      </c>
+      <c r="R59">
+        <v>30</v>
       </c>
       <c r="S59" t="s">
         <v>209</v>
@@ -17406,117 +17529,118 @@
       <c r="Z59" t="s">
         <v>209</v>
       </c>
-      <c r="AA59" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="AD59" s="4">
+      <c r="AA59" s="154">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="154">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="154">
+        <f>0.1*AC58</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AD59" s="154">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE59" s="4">
+      <c r="AE59" s="154">
         <v>3</v>
       </c>
-      <c r="AF59" s="4"/>
-      <c r="AG59" s="4"/>
-      <c r="AH59" s="160">
-        <f>AD59*J59+AC59</f>
-        <v>0.15</v>
-      </c>
-      <c r="AI59" s="160">
-        <f t="shared" si="70"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AJ59" s="161">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AK59" s="161">
-        <f t="shared" si="65"/>
+      <c r="AF59" s="154"/>
+      <c r="AG59" s="154"/>
+      <c r="AH59" s="188">
+        <f>AD59*I59+AC59</f>
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="AI59" s="189">
+        <f>AH59*0.1</f>
+        <v>4.62E-3</v>
+      </c>
+      <c r="AJ59" s="154">
+        <f>AA59*1.72+115*0.012*AB59</f>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="AK59" s="154">
+        <f>AE59*0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AL59" s="160">
-        <f>1333*J58*POWER(10,-6)*10+0.0012*K60</f>
-        <v>0.18007198199999999</v>
-      </c>
-      <c r="AM59" s="161">
-        <f t="shared" si="66"/>
-        <v>0.64507198200000004</v>
-      </c>
-      <c r="AN59" s="157">
-        <f t="shared" si="67"/>
-        <v>7.3131733689750007E-6</v>
-      </c>
-      <c r="AO59" s="157">
-        <f t="shared" si="68"/>
-        <v>2.6197985868975005E-5</v>
+      <c r="AL59" s="189">
+        <f>10068.2*J59*POWER(10,-6)</f>
+        <v>6.8463760000000004E-3</v>
+      </c>
+      <c r="AM59" s="188">
+        <f t="shared" si="56"/>
+        <v>1.7376663760000002</v>
+      </c>
+      <c r="AN59" s="154">
+        <f t="shared" si="57"/>
+        <v>6.8463759999999999E-10</v>
+      </c>
+      <c r="AO59" s="190">
+        <f t="shared" si="58"/>
+        <v>1.737666376E-7</v>
       </c>
     </row>
     <row r="60" spans="1:41">
       <c r="A60" s="91" t="s">
-        <v>136</v>
-      </c>
-      <c r="B60" s="91" t="s">
-        <v>273</v>
-      </c>
-      <c r="C60" s="92" t="s">
-        <v>194</v>
-      </c>
-      <c r="D60" s="93" t="s">
-        <v>208</v>
-      </c>
-      <c r="E60" s="94">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F60" s="91">
-        <v>15</v>
-      </c>
-      <c r="G60" s="122">
-        <v>3.4999999999999996E-2</v>
-      </c>
-      <c r="H60" s="94">
-        <f t="shared" si="69"/>
-        <v>5.2499999999999997E-6</v>
-      </c>
-      <c r="I60" s="91">
-        <f>I57</f>
-        <v>7.5</v>
-      </c>
-      <c r="J60" s="91">
-        <f>I60</f>
-        <v>7.5</v>
-      </c>
-      <c r="K60" s="96">
-        <f>ROUNDUP(I60*20,0)</f>
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="B60" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="D60" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60" s="100">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="F60" s="97">
+        <v>4</v>
+      </c>
+      <c r="G60" s="97">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="H60" s="100">
+        <f t="shared" si="63"/>
+        <v>9.499999999999999E-8</v>
+      </c>
+      <c r="I60" s="97">
+        <f>0.1*I56</f>
+        <v>0.68</v>
+      </c>
+      <c r="J60" s="126">
+        <f>K60</f>
+        <v>5.0400000000000002E-3</v>
+      </c>
+      <c r="K60" s="126">
+        <f>POWER(10,-6)*SQRT(100)*10*3600*K59/1000</f>
+        <v>5.0400000000000002E-3</v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="63"/>
-        <v>С76</v>
+        <f t="shared" si="53"/>
+        <v>С77</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="63"/>
-        <v>Насос Н-14/1</v>
+        <f t="shared" si="54"/>
+        <v>Автоцистерна</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="64"/>
-        <v>Полное пожар</v>
-      </c>
-      <c r="O60">
-        <v>15</v>
-      </c>
-      <c r="P60">
-        <v>21</v>
-      </c>
-      <c r="Q60">
-        <v>29</v>
-      </c>
-      <c r="R60">
-        <v>53</v>
+        <f t="shared" si="55"/>
+        <v>Частичное-вспышка</v>
+      </c>
+      <c r="O60" t="s">
+        <v>209</v>
+      </c>
+      <c r="P60" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>209</v>
+      </c>
+      <c r="R60" t="s">
+        <v>209</v>
       </c>
       <c r="S60" t="s">
         <v>209</v>
@@ -17536,111 +17660,110 @@
       <c r="X60" t="s">
         <v>209</v>
       </c>
-      <c r="Y60" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA60" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="4">
+      <c r="Y60">
+        <v>5</v>
+      </c>
+      <c r="Z60">
+        <v>6</v>
+      </c>
+      <c r="AA60" s="154">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="154">
         <v>1</v>
       </c>
-      <c r="AC60" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="AD60" s="4">
+      <c r="AC60" s="154">
+        <f>0.1*AC58</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AD60" s="154">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE60" s="4">
+      <c r="AE60" s="154">
         <v>3</v>
       </c>
-      <c r="AF60" s="4"/>
-      <c r="AG60" s="4"/>
-      <c r="AH60" s="160">
+      <c r="AF60" s="154"/>
+      <c r="AG60" s="154"/>
+      <c r="AH60" s="188">
         <f>AD60*I60+AC60</f>
-        <v>0.26249999999999996</v>
-      </c>
-      <c r="AI60" s="160">
-        <f t="shared" si="70"/>
-        <v>2.6249999999999996E-2</v>
-      </c>
-      <c r="AJ60" s="161">
-        <f t="shared" si="71"/>
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="AI60" s="189">
+        <f>AH60*0.1</f>
+        <v>4.62E-3</v>
+      </c>
+      <c r="AJ60" s="154">
+        <f>AA60*1.72+115*0.012*AB60</f>
         <v>1.3800000000000001</v>
       </c>
-      <c r="AK60" s="161">
-        <f t="shared" si="65"/>
+      <c r="AK60" s="154">
+        <f>AE60*0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AL60" s="160">
-        <f>10068.2*J60*POWER(10,-6)+0.0012*K60</f>
-        <v>0.2555115</v>
-      </c>
-      <c r="AM60" s="161">
-        <f t="shared" si="66"/>
-        <v>2.2242614999999999</v>
-      </c>
-      <c r="AN60" s="157">
-        <f t="shared" si="67"/>
-        <v>1.3414353749999999E-6</v>
-      </c>
-      <c r="AO60" s="157">
-        <f t="shared" si="68"/>
-        <v>1.1677372874999999E-5</v>
+      <c r="AL60" s="189">
+        <f>10068.2*J60*POWER(10,-6)</f>
+        <v>5.0743728000000003E-5</v>
+      </c>
+      <c r="AM60" s="188">
+        <f t="shared" si="56"/>
+        <v>1.7308707437280002</v>
+      </c>
+      <c r="AN60" s="154">
+        <f t="shared" si="57"/>
+        <v>4.8206541600000001E-12</v>
+      </c>
+      <c r="AO60" s="190">
+        <f t="shared" si="58"/>
+        <v>1.6443272065416002E-7</v>
       </c>
     </row>
     <row r="61" spans="1:41">
       <c r="A61" s="91" t="s">
-        <v>137</v>
-      </c>
-      <c r="B61" s="91" t="s">
-        <v>273</v>
-      </c>
-      <c r="C61" s="92" t="s">
-        <v>260</v>
-      </c>
-      <c r="D61" s="93" t="s">
-        <v>195</v>
-      </c>
-      <c r="E61" s="94">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F61" s="91">
-        <v>15</v>
-      </c>
-      <c r="G61" s="122">
-        <v>3.3249999999999995E-2</v>
-      </c>
-      <c r="H61" s="94">
-        <f t="shared" si="69"/>
-        <v>4.9875000000000001E-6</v>
-      </c>
-      <c r="I61" s="91">
-        <f t="shared" ref="I61:I62" si="72">I58</f>
-        <v>7.5</v>
-      </c>
-      <c r="J61" s="91">
-        <f>K61</f>
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="K61" s="96">
-        <f>POWER(10,-6)*SQRT(100)*10*3600*K60/1000</f>
-        <v>5.3999999999999999E-2</v>
+        <v>138</v>
+      </c>
+      <c r="B61" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="C61" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="D61" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="100">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="F61" s="97">
+        <v>4</v>
+      </c>
+      <c r="G61" s="97">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="H61" s="100">
+        <f t="shared" si="63"/>
+        <v>1.8049999999999999E-6</v>
+      </c>
+      <c r="I61" s="97">
+        <f>0.1*I56</f>
+        <v>0.68</v>
+      </c>
+      <c r="J61" s="126">
+        <v>0</v>
+      </c>
+      <c r="K61" s="126">
+        <v>0</v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="63"/>
-        <v>С77</v>
+        <f t="shared" si="53"/>
+        <v>С78</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="63"/>
-        <v>Насос Н-14/1</v>
+        <f t="shared" si="54"/>
+        <v>Автоцистерна</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="64"/>
-        <v>Полное-вспышка</v>
+        <f t="shared" si="55"/>
+        <v>Частичное-ликвидация</v>
       </c>
       <c r="O61" t="s">
         <v>209</v>
@@ -17672,244 +17795,111 @@
       <c r="X61" t="s">
         <v>209</v>
       </c>
-      <c r="Y61">
-        <v>12</v>
-      </c>
-      <c r="Z61">
-        <v>14</v>
-      </c>
-      <c r="AA61" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC61" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="AD61" s="4">
+      <c r="Y61" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA61" s="154">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="154">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="154">
+        <f>0.1*AC58</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AD61" s="154">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE61" s="4">
+      <c r="AE61" s="154">
         <v>3</v>
       </c>
-      <c r="AF61" s="4"/>
-      <c r="AG61" s="4"/>
-      <c r="AH61" s="160">
+      <c r="AF61" s="154"/>
+      <c r="AG61" s="154"/>
+      <c r="AH61" s="188">
         <f>AD61*I61+AC61</f>
-        <v>0.26249999999999996</v>
-      </c>
-      <c r="AI61" s="160">
-        <f t="shared" si="70"/>
-        <v>2.6249999999999996E-2</v>
-      </c>
-      <c r="AJ61" s="161">
-        <f t="shared" si="71"/>
-        <v>1.3800000000000001</v>
-      </c>
-      <c r="AK61" s="161">
-        <f t="shared" si="65"/>
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="AI61" s="189">
+        <f>AH61*0.1</f>
+        <v>4.62E-3</v>
+      </c>
+      <c r="AJ61" s="154">
+        <f>AA61*1.72+115*0.012*AB61</f>
+        <v>0</v>
+      </c>
+      <c r="AK61" s="154">
+        <f>AE61*0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AL61" s="160">
-        <f>10068.2*J61*POWER(10,-6)+0.0012*K60</f>
-        <v>0.18054368279999999</v>
-      </c>
-      <c r="AM61" s="161">
-        <f t="shared" si="66"/>
-        <v>2.1492936827999998</v>
-      </c>
-      <c r="AN61" s="157">
-        <f t="shared" si="67"/>
-        <v>9.0046161796499996E-7</v>
-      </c>
-      <c r="AO61" s="157">
-        <f t="shared" si="68"/>
-        <v>1.0719602242964999E-5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:41">
-      <c r="A62" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" s="91" t="s">
-        <v>273</v>
-      </c>
-      <c r="C62" s="92" t="s">
-        <v>261</v>
-      </c>
-      <c r="D62" s="93" t="s">
-        <v>176</v>
-      </c>
-      <c r="E62" s="94">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F62" s="91">
-        <v>15</v>
-      </c>
-      <c r="G62" s="122">
-        <v>0.63174999999999992</v>
-      </c>
-      <c r="H62" s="94">
-        <f t="shared" si="69"/>
-        <v>9.4762499999999993E-5</v>
-      </c>
-      <c r="I62" s="91">
-        <f t="shared" si="72"/>
-        <v>7.5</v>
-      </c>
-      <c r="J62" s="91">
-        <v>0</v>
-      </c>
-      <c r="K62" s="95">
-        <v>0</v>
-      </c>
-      <c r="L62" t="str">
-        <f t="shared" si="63"/>
-        <v>С78</v>
-      </c>
-      <c r="M62" t="str">
-        <f t="shared" si="63"/>
-        <v>Насос Н-14/1</v>
-      </c>
-      <c r="N62" t="str">
-        <f t="shared" si="64"/>
-        <v>Полное-ликвидация</v>
-      </c>
-      <c r="O62" t="s">
-        <v>209</v>
-      </c>
-      <c r="P62" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>209</v>
-      </c>
-      <c r="R62" t="s">
-        <v>209</v>
-      </c>
-      <c r="S62" t="s">
-        <v>209</v>
-      </c>
-      <c r="T62" t="s">
-        <v>209</v>
-      </c>
-      <c r="U62" t="s">
-        <v>209</v>
-      </c>
-      <c r="V62" t="s">
-        <v>209</v>
-      </c>
-      <c r="W62" t="s">
-        <v>209</v>
-      </c>
-      <c r="X62" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA62" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="AD62" s="4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AE62" s="4">
-        <v>3</v>
-      </c>
-      <c r="AF62" s="4"/>
-      <c r="AG62" s="4"/>
-      <c r="AH62" s="160">
-        <f>AD62*J62+AC62</f>
-        <v>0.15</v>
-      </c>
-      <c r="AI62" s="160">
-        <f t="shared" si="70"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AJ62" s="161">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AK62" s="161">
-        <f t="shared" si="65"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AL62" s="160">
-        <f>1333*J61*POWER(10,-6)+0.0012*K60</f>
-        <v>0.18007198199999999</v>
-      </c>
-      <c r="AM62" s="161">
-        <f t="shared" si="66"/>
-        <v>0.64507198200000004</v>
-      </c>
-      <c r="AN62" s="157">
-        <f t="shared" si="67"/>
-        <v>1.7064071194274998E-5</v>
-      </c>
-      <c r="AO62" s="157">
-        <f t="shared" si="68"/>
-        <v>6.1128633694274993E-5</v>
+      <c r="AL61" s="189">
+        <f>1333*J60*POWER(10,-6)</f>
+        <v>6.7183200000000002E-6</v>
+      </c>
+      <c r="AM61" s="188">
+        <f t="shared" si="56"/>
+        <v>0.35082671832000006</v>
+      </c>
+      <c r="AN61" s="154">
+        <f t="shared" si="57"/>
+        <v>1.21265676E-11</v>
+      </c>
+      <c r="AO61" s="190">
+        <f t="shared" si="58"/>
+        <v>6.3324222656760006E-7</v>
       </c>
     </row>
     <row r="63" spans="1:41">
       <c r="A63" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="B63" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="C63" s="86" t="s">
+      <c r="B63" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="D63" s="87" t="s">
+      <c r="D63" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="E63" s="88">
+      <c r="E63" s="94">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F63" s="85">
-        <v>4</v>
-      </c>
-      <c r="G63" s="124">
+      <c r="F63" s="91">
+        <v>15</v>
+      </c>
+      <c r="G63" s="122">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H63" s="88">
+      <c r="H63" s="94">
         <f>E63*F63*G63</f>
-        <v>6.0000000000000008E-7</v>
-      </c>
-      <c r="I63" s="85">
+        <v>2.2500000000000001E-6</v>
+      </c>
+      <c r="I63" s="91">
         <f>K65</f>
-        <v>5.55</v>
-      </c>
-      <c r="J63" s="85">
+        <v>7.5</v>
+      </c>
+      <c r="J63" s="91">
         <f>I63</f>
-        <v>5.55</v>
-      </c>
-      <c r="K63" s="89">
+        <v>7.5</v>
+      </c>
+      <c r="K63" s="95">
         <f>K65*20</f>
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" ref="L63:L68" si="73">A63</f>
+        <f t="shared" ref="L63:M68" si="67">A63</f>
         <v>С79</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" ref="M63:M68" si="74">B63</f>
-        <v>Насос Н-14/2</v>
+        <f t="shared" si="67"/>
+        <v>Насос Н-14/1</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" ref="N63:N68" si="75">D63</f>
+        <f t="shared" ref="N63:N68" si="68">D63</f>
         <v>Полное-жидкостной факел</v>
       </c>
       <c r="O63" t="s">
@@ -17937,7 +17927,7 @@
         <v>209</v>
       </c>
       <c r="W63">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X63">
         <v>2</v>
@@ -17948,104 +17938,104 @@
       <c r="Z63" t="s">
         <v>209</v>
       </c>
-      <c r="AA63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="9">
+      <c r="AA63" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="4">
         <v>1</v>
       </c>
-      <c r="AC63" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="AD63" s="9">
+      <c r="AC63" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AD63" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE63" s="9">
+      <c r="AE63" s="4">
         <v>3</v>
       </c>
-      <c r="AF63" s="9"/>
-      <c r="AG63" s="9"/>
-      <c r="AH63" s="158">
+      <c r="AF63" s="4"/>
+      <c r="AG63" s="4"/>
+      <c r="AH63" s="160">
         <f>AD63*I63+AC63</f>
-        <v>0.25324999999999998</v>
-      </c>
-      <c r="AI63" s="158">
+        <v>0.26249999999999996</v>
+      </c>
+      <c r="AI63" s="160">
         <f>AH63*0.1</f>
-        <v>2.5325E-2</v>
-      </c>
-      <c r="AJ63" s="159">
+        <v>2.6249999999999996E-2</v>
+      </c>
+      <c r="AJ63" s="161">
         <f>AA63*1.72+115*0.012*AB63</f>
         <v>1.3800000000000001</v>
       </c>
-      <c r="AK63" s="159">
-        <f t="shared" ref="AK63:AK68" si="76">AE63*0.1</f>
+      <c r="AK63" s="161">
+        <f t="shared" ref="AK63:AK68" si="69">AE63*0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AL63" s="158">
+      <c r="AL63" s="160">
         <f>10068.2*J63*POWER(10,-6)+0.0012*K66</f>
-        <v>0.18907850999999998</v>
-      </c>
-      <c r="AM63" s="159">
-        <f t="shared" si="66"/>
-        <v>2.14765351</v>
-      </c>
-      <c r="AN63" s="162">
-        <f t="shared" si="67"/>
-        <v>1.13447106E-7</v>
-      </c>
-      <c r="AO63" s="162">
-        <f t="shared" si="68"/>
-        <v>1.2885921060000002E-6</v>
+        <v>0.2555115</v>
+      </c>
+      <c r="AM63" s="161">
+        <f t="shared" ref="AM63:AM80" si="70">AL63+AK63+AJ63+AI63+AH63</f>
+        <v>2.2242614999999999</v>
+      </c>
+      <c r="AN63" s="157">
+        <f t="shared" ref="AN63:AN80" si="71">AL63*H63</f>
+        <v>5.7490087499999999E-7</v>
+      </c>
+      <c r="AO63" s="157">
+        <f t="shared" ref="AO63:AO80" si="72">H63*AM63</f>
+        <v>5.0045883750000002E-6</v>
       </c>
     </row>
     <row r="64" spans="1:41">
       <c r="A64" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="B64" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="C64" s="86" t="s">
+      <c r="B64" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C64" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="D64" s="87" t="s">
+      <c r="D64" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="E64" s="88">
+      <c r="E64" s="94">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F64" s="85">
-        <v>4</v>
-      </c>
-      <c r="G64" s="124">
+      <c r="F64" s="91">
+        <v>15</v>
+      </c>
+      <c r="G64" s="122">
         <v>1.4249999999999999E-2</v>
       </c>
-      <c r="H64" s="88">
-        <f t="shared" ref="H64:H68" si="77">E64*F64*G64</f>
-        <v>5.7000000000000005E-7</v>
-      </c>
-      <c r="I64" s="85">
+      <c r="H64" s="94">
+        <f t="shared" ref="H64:H68" si="73">E64*F64*G64</f>
+        <v>2.1374999999999999E-6</v>
+      </c>
+      <c r="I64" s="91">
         <f>I63</f>
-        <v>5.55</v>
-      </c>
-      <c r="J64" s="85">
+        <v>7.5</v>
+      </c>
+      <c r="J64" s="91">
         <f>0.1*K64</f>
-        <v>3.9960000000000004E-3</v>
-      </c>
-      <c r="K64" s="89">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="K64" s="95">
         <f>POWER(10,-6)*SQRT(100)*10*3600*K63/1000</f>
-        <v>3.9960000000000002E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>С80</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="74"/>
-        <v>Насос Н-14/2</v>
+        <f t="shared" si="67"/>
+        <v>Насос Н-14/1</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="68"/>
         <v>Полное-взрыв</v>
       </c>
       <c r="O64" t="s">
@@ -18061,16 +18051,16 @@
         <v>209</v>
       </c>
       <c r="S64">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T64">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="U64">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="V64">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="W64" t="s">
         <v>209</v>
@@ -18084,252 +18074,252 @@
       <c r="Z64" t="s">
         <v>209</v>
       </c>
-      <c r="AA64" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="9">
+      <c r="AA64" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="4">
         <v>1</v>
       </c>
-      <c r="AC64" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="AD64" s="9">
+      <c r="AC64" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AD64" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE64" s="9">
+      <c r="AE64" s="4">
         <v>3</v>
       </c>
-      <c r="AF64" s="9"/>
-      <c r="AG64" s="9"/>
-      <c r="AH64" s="158">
+      <c r="AF64" s="4"/>
+      <c r="AG64" s="4"/>
+      <c r="AH64" s="160">
         <f>AD64*I64+AC64</f>
-        <v>0.25324999999999998</v>
-      </c>
-      <c r="AI64" s="158">
-        <f t="shared" ref="AI64:AI68" si="78">AH64*0.1</f>
-        <v>2.5325E-2</v>
-      </c>
-      <c r="AJ64" s="159">
-        <f t="shared" ref="AJ64:AJ68" si="79">AA64*1.72+115*0.012*AB64</f>
+        <v>0.26249999999999996</v>
+      </c>
+      <c r="AI64" s="160">
+        <f t="shared" ref="AI64:AI68" si="74">AH64*0.1</f>
+        <v>2.6249999999999996E-2</v>
+      </c>
+      <c r="AJ64" s="161">
+        <f t="shared" ref="AJ64:AJ68" si="75">AA64*1.72+115*0.012*AB64</f>
         <v>1.3800000000000001</v>
       </c>
-      <c r="AK64" s="159">
-        <f t="shared" si="76"/>
+      <c r="AK64" s="161">
+        <f t="shared" si="69"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AL64" s="158">
+      <c r="AL64" s="160">
         <f>10068.2*J64*POWER(10,-6)*10+0.0012*K66</f>
-        <v>0.13360232527199997</v>
-      </c>
-      <c r="AM64" s="159">
-        <f t="shared" si="66"/>
-        <v>2.092177325272</v>
-      </c>
-      <c r="AN64" s="162">
-        <f t="shared" si="67"/>
-        <v>7.6153325405039993E-8</v>
-      </c>
-      <c r="AO64" s="162">
-        <f t="shared" si="68"/>
-        <v>1.19254107540504E-6</v>
+        <v>0.18054368279999999</v>
+      </c>
+      <c r="AM64" s="161">
+        <f t="shared" si="70"/>
+        <v>2.1492936827999998</v>
+      </c>
+      <c r="AN64" s="157">
+        <f t="shared" si="71"/>
+        <v>3.8591212198499996E-7</v>
+      </c>
+      <c r="AO64" s="157">
+        <f t="shared" si="72"/>
+        <v>4.5941152469849996E-6</v>
       </c>
     </row>
     <row r="65" spans="1:41">
       <c r="A65" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="B65" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="C65" s="86" t="s">
+      <c r="B65" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C65" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="D65" s="87" t="s">
+      <c r="D65" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="E65" s="88">
+      <c r="E65" s="94">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F65" s="85">
-        <v>4</v>
-      </c>
-      <c r="G65" s="124">
+      <c r="F65" s="91">
+        <v>15</v>
+      </c>
+      <c r="G65" s="122">
         <v>0.27074999999999999</v>
       </c>
-      <c r="H65" s="88">
-        <f t="shared" si="77"/>
-        <v>1.0830000000000001E-5</v>
-      </c>
-      <c r="I65" s="85">
+      <c r="H65" s="94">
+        <f t="shared" si="73"/>
+        <v>4.0612500000000005E-5</v>
+      </c>
+      <c r="I65" s="91">
         <f>I64</f>
-        <v>5.55</v>
-      </c>
-      <c r="J65" s="85">
-        <v>0</v>
-      </c>
-      <c r="K65" s="90">
-        <f>37*0.15</f>
-        <v>5.55</v>
+        <v>7.5</v>
+      </c>
+      <c r="J65" s="91">
+        <v>0</v>
+      </c>
+      <c r="K65" s="96">
+        <f>50*0.15</f>
+        <v>7.5</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>С81</v>
       </c>
       <c r="M65" t="str">
+        <f t="shared" si="67"/>
+        <v>Насос Н-14/1</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="68"/>
+        <v>Полное-ликвидация</v>
+      </c>
+      <c r="O65" t="s">
+        <v>209</v>
+      </c>
+      <c r="P65" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>209</v>
+      </c>
+      <c r="R65" t="s">
+        <v>209</v>
+      </c>
+      <c r="S65" t="s">
+        <v>209</v>
+      </c>
+      <c r="T65" t="s">
+        <v>209</v>
+      </c>
+      <c r="U65" t="s">
+        <v>209</v>
+      </c>
+      <c r="V65" t="s">
+        <v>209</v>
+      </c>
+      <c r="W65" t="s">
+        <v>209</v>
+      </c>
+      <c r="X65" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA65" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AD65" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AE65" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF65" s="4"/>
+      <c r="AG65" s="4"/>
+      <c r="AH65" s="160">
+        <f>AD65*J65+AC65</f>
+        <v>0.15</v>
+      </c>
+      <c r="AI65" s="160">
         <f t="shared" si="74"/>
-        <v>Насос Н-14/2</v>
-      </c>
-      <c r="N65" t="str">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AJ65" s="161">
         <f t="shared" si="75"/>
-        <v>Полное-ликвидация</v>
-      </c>
-      <c r="O65" t="s">
-        <v>209</v>
-      </c>
-      <c r="P65" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>209</v>
-      </c>
-      <c r="R65" t="s">
-        <v>209</v>
-      </c>
-      <c r="S65" t="s">
-        <v>209</v>
-      </c>
-      <c r="T65" t="s">
-        <v>209</v>
-      </c>
-      <c r="U65" t="s">
-        <v>209</v>
-      </c>
-      <c r="V65" t="s">
-        <v>209</v>
-      </c>
-      <c r="W65" t="s">
-        <v>209</v>
-      </c>
-      <c r="X65" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="AD65" s="9">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AE65" s="9">
-        <v>3</v>
-      </c>
-      <c r="AF65" s="9"/>
-      <c r="AG65" s="9"/>
-      <c r="AH65" s="158">
-        <f>AD65*J65+AC65</f>
-        <v>0.17</v>
-      </c>
-      <c r="AI65" s="158">
-        <f t="shared" si="78"/>
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="AJ65" s="159">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="AK65" s="159">
-        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AK65" s="161">
+        <f t="shared" si="69"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AL65" s="158">
+      <c r="AL65" s="160">
         <f>1333*J64*POWER(10,-6)*10+0.0012*K66</f>
-        <v>0.13325326667999998</v>
-      </c>
-      <c r="AM65" s="159">
-        <f t="shared" si="66"/>
-        <v>0.62025326668000003</v>
-      </c>
-      <c r="AN65" s="162">
-        <f t="shared" si="67"/>
-        <v>1.4431328781443999E-6</v>
-      </c>
-      <c r="AO65" s="162">
-        <f t="shared" si="68"/>
-        <v>6.7173428781444013E-6</v>
+        <v>0.18007198199999999</v>
+      </c>
+      <c r="AM65" s="161">
+        <f t="shared" si="70"/>
+        <v>0.64507198200000004</v>
+      </c>
+      <c r="AN65" s="157">
+        <f t="shared" si="71"/>
+        <v>7.3131733689750007E-6</v>
+      </c>
+      <c r="AO65" s="157">
+        <f t="shared" si="72"/>
+        <v>2.6197985868975005E-5</v>
       </c>
     </row>
     <row r="66" spans="1:41">
       <c r="A66" s="91" t="s">
         <v>186</v>
       </c>
-      <c r="B66" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="C66" s="86" t="s">
+      <c r="B66" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C66" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="87" t="s">
+      <c r="D66" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="E66" s="88">
+      <c r="E66" s="94">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F66" s="85">
-        <v>4</v>
-      </c>
-      <c r="G66" s="124">
+      <c r="F66" s="91">
+        <v>15</v>
+      </c>
+      <c r="G66" s="122">
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="H66" s="88">
-        <f t="shared" si="77"/>
-        <v>1.3999999999999999E-6</v>
-      </c>
-      <c r="I66" s="85">
+      <c r="H66" s="94">
+        <f t="shared" si="73"/>
+        <v>5.2499999999999997E-6</v>
+      </c>
+      <c r="I66" s="91">
         <f>I63</f>
-        <v>5.55</v>
-      </c>
-      <c r="J66" s="85">
+        <v>7.5</v>
+      </c>
+      <c r="J66" s="91">
         <f>I66</f>
-        <v>5.55</v>
-      </c>
-      <c r="K66" s="90">
+        <v>7.5</v>
+      </c>
+      <c r="K66" s="96">
         <f>ROUNDUP(I66*20,0)</f>
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>С82</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="74"/>
-        <v>Насос Н-14/2</v>
+        <f t="shared" si="67"/>
+        <v>Насос Н-14/1</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="68"/>
         <v>Полное пожар</v>
       </c>
       <c r="O66">
         <v>15</v>
       </c>
       <c r="P66">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R66">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="S66" t="s">
         <v>209</v>
@@ -18355,374 +18345,374 @@
       <c r="Z66" t="s">
         <v>209</v>
       </c>
-      <c r="AA66" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB66" s="9">
+      <c r="AA66" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="4">
         <v>1</v>
       </c>
-      <c r="AC66" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="AD66" s="9">
+      <c r="AC66" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AD66" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE66" s="9">
+      <c r="AE66" s="4">
         <v>3</v>
       </c>
-      <c r="AF66" s="9"/>
-      <c r="AG66" s="9"/>
-      <c r="AH66" s="158">
+      <c r="AF66" s="4"/>
+      <c r="AG66" s="4"/>
+      <c r="AH66" s="160">
         <f>AD66*I66+AC66</f>
-        <v>0.25324999999999998</v>
-      </c>
-      <c r="AI66" s="158">
-        <f t="shared" si="78"/>
-        <v>2.5325E-2</v>
-      </c>
-      <c r="AJ66" s="159">
-        <f t="shared" si="79"/>
+        <v>0.26249999999999996</v>
+      </c>
+      <c r="AI66" s="160">
+        <f t="shared" si="74"/>
+        <v>2.6249999999999996E-2</v>
+      </c>
+      <c r="AJ66" s="161">
+        <f t="shared" si="75"/>
         <v>1.3800000000000001</v>
       </c>
-      <c r="AK66" s="159">
-        <f t="shared" si="76"/>
+      <c r="AK66" s="161">
+        <f t="shared" si="69"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AL66" s="158">
+      <c r="AL66" s="160">
         <f>10068.2*J66*POWER(10,-6)+0.0012*K66</f>
-        <v>0.18907850999999998</v>
-      </c>
-      <c r="AM66" s="159">
-        <f t="shared" si="66"/>
-        <v>2.14765351</v>
-      </c>
-      <c r="AN66" s="162">
-        <f t="shared" si="67"/>
-        <v>2.6470991399999995E-7</v>
-      </c>
-      <c r="AO66" s="162">
-        <f t="shared" si="68"/>
-        <v>3.006714914E-6</v>
+        <v>0.2555115</v>
+      </c>
+      <c r="AM66" s="161">
+        <f t="shared" si="70"/>
+        <v>2.2242614999999999</v>
+      </c>
+      <c r="AN66" s="157">
+        <f t="shared" si="71"/>
+        <v>1.3414353749999999E-6</v>
+      </c>
+      <c r="AO66" s="157">
+        <f t="shared" si="72"/>
+        <v>1.1677372874999999E-5</v>
       </c>
     </row>
     <row r="67" spans="1:41">
       <c r="A67" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="B67" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="C67" s="86" t="s">
+      <c r="B67" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C67" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="D67" s="87" t="s">
+      <c r="D67" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="E67" s="88">
+      <c r="E67" s="94">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F67" s="85">
-        <v>4</v>
-      </c>
-      <c r="G67" s="124">
+      <c r="F67" s="91">
+        <v>15</v>
+      </c>
+      <c r="G67" s="122">
         <v>3.3249999999999995E-2</v>
       </c>
-      <c r="H67" s="88">
-        <f t="shared" si="77"/>
-        <v>1.33E-6</v>
-      </c>
-      <c r="I67" s="85">
-        <f t="shared" ref="I67:I68" si="80">I64</f>
-        <v>5.55</v>
-      </c>
-      <c r="J67" s="85">
+      <c r="H67" s="94">
+        <f t="shared" si="73"/>
+        <v>4.9875000000000001E-6</v>
+      </c>
+      <c r="I67" s="91">
+        <f t="shared" ref="I67:I68" si="76">I64</f>
+        <v>7.5</v>
+      </c>
+      <c r="J67" s="91">
         <f>K67</f>
-        <v>3.9960000000000002E-2</v>
-      </c>
-      <c r="K67" s="90">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K67" s="96">
         <f>POWER(10,-6)*SQRT(100)*10*3600*K66/1000</f>
-        <v>3.9960000000000002E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>С83</v>
       </c>
       <c r="M67" t="str">
+        <f t="shared" si="67"/>
+        <v>Насос Н-14/1</v>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" si="68"/>
+        <v>Полное-вспышка</v>
+      </c>
+      <c r="O67" t="s">
+        <v>209</v>
+      </c>
+      <c r="P67" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>209</v>
+      </c>
+      <c r="R67" t="s">
+        <v>209</v>
+      </c>
+      <c r="S67" t="s">
+        <v>209</v>
+      </c>
+      <c r="T67" t="s">
+        <v>209</v>
+      </c>
+      <c r="U67" t="s">
+        <v>209</v>
+      </c>
+      <c r="V67" t="s">
+        <v>209</v>
+      </c>
+      <c r="W67" t="s">
+        <v>209</v>
+      </c>
+      <c r="X67" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y67">
+        <v>12</v>
+      </c>
+      <c r="Z67">
+        <v>14</v>
+      </c>
+      <c r="AA67" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AD67" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AE67" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF67" s="4"/>
+      <c r="AG67" s="4"/>
+      <c r="AH67" s="160">
+        <f>AD67*I67+AC67</f>
+        <v>0.26249999999999996</v>
+      </c>
+      <c r="AI67" s="160">
         <f t="shared" si="74"/>
-        <v>Насос Н-14/2</v>
-      </c>
-      <c r="N67" t="str">
+        <v>2.6249999999999996E-2</v>
+      </c>
+      <c r="AJ67" s="161">
         <f t="shared" si="75"/>
-        <v>Полное-вспышка</v>
-      </c>
-      <c r="O67" t="s">
-        <v>209</v>
-      </c>
-      <c r="P67" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>209</v>
-      </c>
-      <c r="R67" t="s">
-        <v>209</v>
-      </c>
-      <c r="S67" t="s">
-        <v>209</v>
-      </c>
-      <c r="T67" t="s">
-        <v>209</v>
-      </c>
-      <c r="U67" t="s">
-        <v>209</v>
-      </c>
-      <c r="V67" t="s">
-        <v>209</v>
-      </c>
-      <c r="W67" t="s">
-        <v>209</v>
-      </c>
-      <c r="X67" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y67">
-        <v>11</v>
-      </c>
-      <c r="Z67">
-        <v>13</v>
-      </c>
-      <c r="AA67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB67" s="9">
-        <v>1</v>
-      </c>
-      <c r="AC67" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="AD67" s="9">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AE67" s="9">
-        <v>3</v>
-      </c>
-      <c r="AF67" s="9"/>
-      <c r="AG67" s="9"/>
-      <c r="AH67" s="158">
-        <f>AD67*I67+AC67</f>
-        <v>0.25324999999999998</v>
-      </c>
-      <c r="AI67" s="158">
-        <f t="shared" si="78"/>
-        <v>2.5325E-2</v>
-      </c>
-      <c r="AJ67" s="159">
-        <f t="shared" si="79"/>
         <v>1.3800000000000001</v>
       </c>
-      <c r="AK67" s="159">
-        <f t="shared" si="76"/>
+      <c r="AK67" s="161">
+        <f t="shared" si="69"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AL67" s="158">
+      <c r="AL67" s="160">
         <f>10068.2*J67*POWER(10,-6)+0.0012*K66</f>
-        <v>0.13360232527199997</v>
-      </c>
-      <c r="AM67" s="159">
-        <f t="shared" si="66"/>
-        <v>2.092177325272</v>
-      </c>
-      <c r="AN67" s="162">
-        <f t="shared" si="67"/>
-        <v>1.7769109261175995E-7</v>
-      </c>
-      <c r="AO67" s="162">
-        <f t="shared" si="68"/>
-        <v>2.78259584261176E-6</v>
+        <v>0.18054368279999999</v>
+      </c>
+      <c r="AM67" s="161">
+        <f t="shared" si="70"/>
+        <v>2.1492936827999998</v>
+      </c>
+      <c r="AN67" s="157">
+        <f t="shared" si="71"/>
+        <v>9.0046161796499996E-7</v>
+      </c>
+      <c r="AO67" s="157">
+        <f t="shared" si="72"/>
+        <v>1.0719602242964999E-5</v>
       </c>
     </row>
     <row r="68" spans="1:41">
       <c r="A68" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="B68" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="C68" s="86" t="s">
+      <c r="B68" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C68" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="D68" s="87" t="s">
+      <c r="D68" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="E68" s="88">
+      <c r="E68" s="94">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F68" s="85">
-        <v>4</v>
-      </c>
-      <c r="G68" s="124">
+      <c r="F68" s="91">
+        <v>15</v>
+      </c>
+      <c r="G68" s="122">
         <v>0.63174999999999992</v>
       </c>
-      <c r="H68" s="88">
-        <f t="shared" si="77"/>
-        <v>2.527E-5</v>
-      </c>
-      <c r="I68" s="85">
-        <f t="shared" si="80"/>
-        <v>5.55</v>
-      </c>
-      <c r="J68" s="85">
-        <v>0</v>
-      </c>
-      <c r="K68" s="89">
+      <c r="H68" s="94">
+        <f t="shared" si="73"/>
+        <v>9.4762499999999993E-5</v>
+      </c>
+      <c r="I68" s="91">
+        <f t="shared" si="76"/>
+        <v>7.5</v>
+      </c>
+      <c r="J68" s="91">
+        <v>0</v>
+      </c>
+      <c r="K68" s="95">
         <v>0</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>С84</v>
       </c>
       <c r="M68" t="str">
+        <f t="shared" si="67"/>
+        <v>Насос Н-14/1</v>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" si="68"/>
+        <v>Полное-ликвидация</v>
+      </c>
+      <c r="O68" t="s">
+        <v>209</v>
+      </c>
+      <c r="P68" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>209</v>
+      </c>
+      <c r="R68" t="s">
+        <v>209</v>
+      </c>
+      <c r="S68" t="s">
+        <v>209</v>
+      </c>
+      <c r="T68" t="s">
+        <v>209</v>
+      </c>
+      <c r="U68" t="s">
+        <v>209</v>
+      </c>
+      <c r="V68" t="s">
+        <v>209</v>
+      </c>
+      <c r="W68" t="s">
+        <v>209</v>
+      </c>
+      <c r="X68" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA68" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AD68" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AE68" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF68" s="4"/>
+      <c r="AG68" s="4"/>
+      <c r="AH68" s="160">
+        <f>AD68*J68+AC68</f>
+        <v>0.15</v>
+      </c>
+      <c r="AI68" s="160">
         <f t="shared" si="74"/>
-        <v>Насос Н-14/2</v>
-      </c>
-      <c r="N68" t="str">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AJ68" s="161">
         <f t="shared" si="75"/>
-        <v>Полное-ликвидация</v>
-      </c>
-      <c r="O68" t="s">
-        <v>209</v>
-      </c>
-      <c r="P68" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>209</v>
-      </c>
-      <c r="R68" t="s">
-        <v>209</v>
-      </c>
-      <c r="S68" t="s">
-        <v>209</v>
-      </c>
-      <c r="T68" t="s">
-        <v>209</v>
-      </c>
-      <c r="U68" t="s">
-        <v>209</v>
-      </c>
-      <c r="V68" t="s">
-        <v>209</v>
-      </c>
-      <c r="W68" t="s">
-        <v>209</v>
-      </c>
-      <c r="X68" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="AD68" s="9">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AE68" s="9">
-        <v>3</v>
-      </c>
-      <c r="AF68" s="9"/>
-      <c r="AG68" s="9"/>
-      <c r="AH68" s="158">
-        <f>AD68*J68+AC68</f>
-        <v>0.17</v>
-      </c>
-      <c r="AI68" s="158">
-        <f t="shared" si="78"/>
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="AJ68" s="159">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="AK68" s="159">
-        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AK68" s="161">
+        <f t="shared" si="69"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AL68" s="158">
+      <c r="AL68" s="160">
         <f>1333*J67*POWER(10,-6)+0.0012*K66</f>
-        <v>0.13325326667999998</v>
-      </c>
-      <c r="AM68" s="159">
-        <f t="shared" si="66"/>
-        <v>0.62025326668000003</v>
-      </c>
-      <c r="AN68" s="162">
-        <f t="shared" si="67"/>
-        <v>3.3673100490035997E-6</v>
-      </c>
-      <c r="AO68" s="162">
-        <f t="shared" si="68"/>
-        <v>1.5673800049003599E-5</v>
+        <v>0.18007198199999999</v>
+      </c>
+      <c r="AM68" s="161">
+        <f t="shared" si="70"/>
+        <v>0.64507198200000004</v>
+      </c>
+      <c r="AN68" s="157">
+        <f t="shared" si="71"/>
+        <v>1.7064071194274998E-5</v>
+      </c>
+      <c r="AO68" s="157">
+        <f t="shared" si="72"/>
+        <v>6.1128633694274993E-5</v>
       </c>
     </row>
     <row r="69" spans="1:41">
       <c r="A69" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="B69" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="C69" s="82" t="s">
+      <c r="B69" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="C69" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="D69" s="80" t="s">
+      <c r="D69" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="E69" s="81">
+      <c r="E69" s="88">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F69" s="79">
-        <v>12</v>
-      </c>
-      <c r="G69" s="125">
+      <c r="F69" s="85">
+        <v>4</v>
+      </c>
+      <c r="G69" s="124">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H69" s="81">
+      <c r="H69" s="88">
         <f>E69*F69*G69</f>
-        <v>1.8000000000000001E-6</v>
-      </c>
-      <c r="I69" s="79">
+        <v>6.0000000000000008E-7</v>
+      </c>
+      <c r="I69" s="85">
         <f>K71</f>
-        <v>3.75</v>
-      </c>
-      <c r="J69" s="79">
+        <v>5.55</v>
+      </c>
+      <c r="J69" s="85">
         <f>I69</f>
-        <v>3.75</v>
-      </c>
-      <c r="K69" s="83">
+        <v>5.55</v>
+      </c>
+      <c r="K69" s="89">
         <f>K71*20</f>
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" ref="L69:L74" si="81">A69</f>
+        <f t="shared" ref="L69:L74" si="77">A69</f>
         <v>С85</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" ref="M69:M74" si="82">B69</f>
-        <v>Насос Н-6/1</v>
+        <f t="shared" ref="M69:M74" si="78">B69</f>
+        <v>Насос Н-14/2</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" ref="N69:N74" si="83">D69</f>
+        <f t="shared" ref="N69:N74" si="79">D69</f>
         <v>Полное-жидкостной факел</v>
       </c>
       <c r="O69" t="s">
@@ -18750,115 +18740,115 @@
         <v>209</v>
       </c>
       <c r="W69">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X69">
+        <v>2</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="9">
         <v>1</v>
       </c>
-      <c r="Y69" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA69" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC69" s="3">
+      <c r="AC69" s="9">
         <v>0.17</v>
       </c>
-      <c r="AD69" s="3">
+      <c r="AD69" s="9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE69" s="3">
+      <c r="AE69" s="9">
         <v>3</v>
       </c>
-      <c r="AF69" s="3"/>
-      <c r="AG69" s="3"/>
-      <c r="AH69" s="152">
+      <c r="AF69" s="9"/>
+      <c r="AG69" s="9"/>
+      <c r="AH69" s="158">
         <f>AD69*I69+AC69</f>
-        <v>0.22625000000000001</v>
-      </c>
-      <c r="AI69" s="152">
+        <v>0.25324999999999998</v>
+      </c>
+      <c r="AI69" s="158">
         <f>AH69*0.1</f>
-        <v>2.2625000000000003E-2</v>
-      </c>
-      <c r="AJ69" s="153">
+        <v>2.5325E-2</v>
+      </c>
+      <c r="AJ69" s="159">
         <f>AA69*1.72+115*0.012*AB69</f>
         <v>1.3800000000000001</v>
       </c>
-      <c r="AK69" s="153">
-        <f t="shared" ref="AK69:AK74" si="84">AE69*0.1</f>
+      <c r="AK69" s="159">
+        <f t="shared" ref="AK69:AK74" si="80">AE69*0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AL69" s="152">
+      <c r="AL69" s="158">
         <f>10068.2*J69*POWER(10,-6)+0.0012*K72</f>
-        <v>0.12775575</v>
-      </c>
-      <c r="AM69" s="153">
-        <f t="shared" si="66"/>
-        <v>2.0566307500000001</v>
-      </c>
-      <c r="AN69" s="163">
-        <f t="shared" si="67"/>
-        <v>2.2996035000000003E-7</v>
-      </c>
-      <c r="AO69" s="163">
-        <f t="shared" si="68"/>
-        <v>3.7019353500000002E-6</v>
+        <v>0.18907850999999998</v>
+      </c>
+      <c r="AM69" s="159">
+        <f t="shared" si="70"/>
+        <v>2.14765351</v>
+      </c>
+      <c r="AN69" s="162">
+        <f t="shared" si="71"/>
+        <v>1.13447106E-7</v>
+      </c>
+      <c r="AO69" s="162">
+        <f t="shared" si="72"/>
+        <v>1.2885921060000002E-6</v>
       </c>
     </row>
     <row r="70" spans="1:41">
       <c r="A70" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="B70" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="C70" s="82" t="s">
+      <c r="B70" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="C70" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="D70" s="80" t="s">
+      <c r="D70" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="E70" s="81">
+      <c r="E70" s="88">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F70" s="79">
-        <v>12</v>
-      </c>
-      <c r="G70" s="125">
+      <c r="F70" s="85">
+        <v>4</v>
+      </c>
+      <c r="G70" s="124">
         <v>1.4249999999999999E-2</v>
       </c>
-      <c r="H70" s="81">
-        <f t="shared" ref="H70:H74" si="85">E70*F70*G70</f>
-        <v>1.7100000000000001E-6</v>
-      </c>
-      <c r="I70" s="79">
+      <c r="H70" s="88">
+        <f t="shared" ref="H70:H74" si="81">E70*F70*G70</f>
+        <v>5.7000000000000005E-7</v>
+      </c>
+      <c r="I70" s="85">
         <f>I69</f>
-        <v>3.75</v>
-      </c>
-      <c r="J70" s="79">
+        <v>5.55</v>
+      </c>
+      <c r="J70" s="85">
         <f>0.1*K70</f>
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="K70" s="83">
+        <v>3.9960000000000004E-3</v>
+      </c>
+      <c r="K70" s="89">
         <f>POWER(10,-6)*SQRT(100)*10*3600*K69/1000</f>
-        <v>2.7E-2</v>
+        <v>3.9960000000000002E-2</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>С86</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="82"/>
-        <v>Насос Н-6/1</v>
+        <f t="shared" si="78"/>
+        <v>Насос Н-14/2</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>Полное-взрыв</v>
       </c>
       <c r="O70" t="s">
@@ -18874,16 +18864,16 @@
         <v>209</v>
       </c>
       <c r="S70">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T70">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U70">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="V70">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="W70" t="s">
         <v>209</v>
@@ -18897,103 +18887,103 @@
       <c r="Z70" t="s">
         <v>209</v>
       </c>
-      <c r="AA70" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB70" s="3">
+      <c r="AA70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="9">
         <v>1</v>
       </c>
-      <c r="AC70" s="3">
+      <c r="AC70" s="9">
         <v>0.17</v>
       </c>
-      <c r="AD70" s="3">
+      <c r="AD70" s="9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE70" s="3">
+      <c r="AE70" s="9">
         <v>3</v>
       </c>
-      <c r="AF70" s="3"/>
-      <c r="AG70" s="3"/>
-      <c r="AH70" s="152">
+      <c r="AF70" s="9"/>
+      <c r="AG70" s="9"/>
+      <c r="AH70" s="158">
         <f>AD70*I70+AC70</f>
-        <v>0.22625000000000001</v>
-      </c>
-      <c r="AI70" s="152">
-        <f t="shared" ref="AI70:AI74" si="86">AH70*0.1</f>
-        <v>2.2625000000000003E-2</v>
-      </c>
-      <c r="AJ70" s="153">
-        <f t="shared" ref="AJ70:AJ74" si="87">AA70*1.72+115*0.012*AB70</f>
+        <v>0.25324999999999998</v>
+      </c>
+      <c r="AI70" s="158">
+        <f t="shared" ref="AI70:AI74" si="82">AH70*0.1</f>
+        <v>2.5325E-2</v>
+      </c>
+      <c r="AJ70" s="159">
+        <f t="shared" ref="AJ70:AJ74" si="83">AA70*1.72+115*0.012*AB70</f>
         <v>1.3800000000000001</v>
       </c>
-      <c r="AK70" s="153">
-        <f t="shared" si="84"/>
+      <c r="AK70" s="159">
+        <f t="shared" si="80"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AL70" s="152">
+      <c r="AL70" s="158">
         <f>10068.2*J70*POWER(10,-6)*10+0.0012*K72</f>
-        <v>9.0271841399999997E-2</v>
-      </c>
-      <c r="AM70" s="153">
-        <f t="shared" si="66"/>
-        <v>2.0191468414</v>
-      </c>
-      <c r="AN70" s="163">
-        <f t="shared" si="67"/>
-        <v>1.54364848794E-7</v>
-      </c>
-      <c r="AO70" s="163">
-        <f t="shared" si="68"/>
-        <v>3.4527410987940004E-6</v>
+        <v>0.13360232527199997</v>
+      </c>
+      <c r="AM70" s="159">
+        <f t="shared" si="70"/>
+        <v>2.092177325272</v>
+      </c>
+      <c r="AN70" s="162">
+        <f t="shared" si="71"/>
+        <v>7.6153325405039993E-8</v>
+      </c>
+      <c r="AO70" s="162">
+        <f t="shared" si="72"/>
+        <v>1.19254107540504E-6</v>
       </c>
     </row>
     <row r="71" spans="1:41">
       <c r="A71" s="91" t="s">
         <v>191</v>
       </c>
-      <c r="B71" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="C71" s="82" t="s">
+      <c r="B71" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" s="86" t="s">
         <v>259</v>
       </c>
-      <c r="D71" s="80" t="s">
+      <c r="D71" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="E71" s="81">
+      <c r="E71" s="88">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F71" s="79">
-        <v>12</v>
-      </c>
-      <c r="G71" s="125">
+      <c r="F71" s="85">
+        <v>4</v>
+      </c>
+      <c r="G71" s="124">
         <v>0.27074999999999999</v>
       </c>
-      <c r="H71" s="81">
-        <f t="shared" si="85"/>
-        <v>3.2490000000000002E-5</v>
-      </c>
-      <c r="I71" s="79">
+      <c r="H71" s="88">
+        <f t="shared" si="81"/>
+        <v>1.0830000000000001E-5</v>
+      </c>
+      <c r="I71" s="85">
         <f>I70</f>
-        <v>3.75</v>
-      </c>
-      <c r="J71" s="79">
-        <v>0</v>
-      </c>
-      <c r="K71" s="84">
-        <f>25*0.15</f>
-        <v>3.75</v>
+        <v>5.55</v>
+      </c>
+      <c r="J71" s="85">
+        <v>0</v>
+      </c>
+      <c r="K71" s="90">
+        <f>37*0.15</f>
+        <v>5.55</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>С87</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="82"/>
-        <v>Насос Н-6/1</v>
+        <f t="shared" si="78"/>
+        <v>Насос Н-14/2</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>Полное-ликвидация</v>
       </c>
       <c r="O71" t="s">
@@ -19032,374 +19022,374 @@
       <c r="Z71" t="s">
         <v>209</v>
       </c>
-      <c r="AA71" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB71" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC71" s="3">
+      <c r="AA71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="9">
         <v>0.17</v>
       </c>
-      <c r="AD71" s="3">
+      <c r="AD71" s="9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE71" s="3">
+      <c r="AE71" s="9">
         <v>3</v>
       </c>
-      <c r="AF71" s="3"/>
-      <c r="AG71" s="3"/>
-      <c r="AH71" s="152">
+      <c r="AF71" s="9"/>
+      <c r="AG71" s="9"/>
+      <c r="AH71" s="158">
         <f>AD71*J71+AC71</f>
         <v>0.17</v>
       </c>
-      <c r="AI71" s="152">
-        <f t="shared" si="86"/>
+      <c r="AI71" s="158">
+        <f t="shared" si="82"/>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AJ71" s="153">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="AK71" s="153">
-        <f t="shared" si="84"/>
+      <c r="AJ71" s="159">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="AK71" s="159">
+        <f t="shared" si="80"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AL71" s="152">
+      <c r="AL71" s="158">
         <f>1333*J70*POWER(10,-6)*10+0.0012*K72</f>
-        <v>9.0035990999999996E-2</v>
-      </c>
-      <c r="AM71" s="153">
-        <f t="shared" si="66"/>
-        <v>0.57703599100000003</v>
-      </c>
-      <c r="AN71" s="163">
-        <f t="shared" si="67"/>
-        <v>2.92526934759E-6</v>
-      </c>
-      <c r="AO71" s="163">
-        <f t="shared" si="68"/>
-        <v>1.8747899347590003E-5</v>
+        <v>0.13325326667999998</v>
+      </c>
+      <c r="AM71" s="159">
+        <f t="shared" si="70"/>
+        <v>0.62025326668000003</v>
+      </c>
+      <c r="AN71" s="162">
+        <f t="shared" si="71"/>
+        <v>1.4431328781443999E-6</v>
+      </c>
+      <c r="AO71" s="162">
+        <f t="shared" si="72"/>
+        <v>6.7173428781444013E-6</v>
       </c>
     </row>
     <row r="72" spans="1:41">
       <c r="A72" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="B72" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="C72" s="82" t="s">
+      <c r="B72" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="C72" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="D72" s="80" t="s">
+      <c r="D72" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="E72" s="81">
+      <c r="E72" s="88">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F72" s="79">
-        <v>12</v>
-      </c>
-      <c r="G72" s="125">
+      <c r="F72" s="85">
+        <v>4</v>
+      </c>
+      <c r="G72" s="124">
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="H72" s="81">
-        <f t="shared" si="85"/>
-        <v>4.2000000000000004E-6</v>
-      </c>
-      <c r="I72" s="79">
+      <c r="H72" s="88">
+        <f t="shared" si="81"/>
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="I72" s="85">
         <f>I69</f>
-        <v>3.75</v>
-      </c>
-      <c r="J72" s="79">
+        <v>5.55</v>
+      </c>
+      <c r="J72" s="85">
         <f>I72</f>
-        <v>3.75</v>
-      </c>
-      <c r="K72" s="84">
+        <v>5.55</v>
+      </c>
+      <c r="K72" s="90">
         <f>ROUNDUP(I72*20,0)</f>
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>С88</v>
       </c>
       <c r="M72" t="str">
+        <f t="shared" si="78"/>
+        <v>Насос Н-14/2</v>
+      </c>
+      <c r="N72" t="str">
+        <f t="shared" si="79"/>
+        <v>Полное пожар</v>
+      </c>
+      <c r="O72">
+        <v>15</v>
+      </c>
+      <c r="P72">
+        <v>20</v>
+      </c>
+      <c r="Q72">
+        <v>27</v>
+      </c>
+      <c r="R72">
+        <v>50</v>
+      </c>
+      <c r="S72" t="s">
+        <v>209</v>
+      </c>
+      <c r="T72" t="s">
+        <v>209</v>
+      </c>
+      <c r="U72" t="s">
+        <v>209</v>
+      </c>
+      <c r="V72" t="s">
+        <v>209</v>
+      </c>
+      <c r="W72" t="s">
+        <v>209</v>
+      </c>
+      <c r="X72" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC72" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="AD72" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AE72" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF72" s="9"/>
+      <c r="AG72" s="9"/>
+      <c r="AH72" s="158">
+        <f>AD72*I72+AC72</f>
+        <v>0.25324999999999998</v>
+      </c>
+      <c r="AI72" s="158">
         <f t="shared" si="82"/>
-        <v>Насос Н-6/1</v>
-      </c>
-      <c r="N72" t="str">
+        <v>2.5325E-2</v>
+      </c>
+      <c r="AJ72" s="159">
         <f t="shared" si="83"/>
-        <v>Полное пожар</v>
-      </c>
-      <c r="O72">
-        <v>14</v>
-      </c>
-      <c r="P72">
-        <v>18</v>
-      </c>
-      <c r="Q72">
-        <v>25</v>
-      </c>
-      <c r="R72">
-        <v>45</v>
-      </c>
-      <c r="S72" t="s">
-        <v>209</v>
-      </c>
-      <c r="T72" t="s">
-        <v>209</v>
-      </c>
-      <c r="U72" t="s">
-        <v>209</v>
-      </c>
-      <c r="V72" t="s">
-        <v>209</v>
-      </c>
-      <c r="W72" t="s">
-        <v>209</v>
-      </c>
-      <c r="X72" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB72" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC72" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="AD72" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AE72" s="3">
-        <v>3</v>
-      </c>
-      <c r="AF72" s="3"/>
-      <c r="AG72" s="3"/>
-      <c r="AH72" s="152">
-        <f>AD72*I72+AC72</f>
-        <v>0.22625000000000001</v>
-      </c>
-      <c r="AI72" s="152">
-        <f t="shared" si="86"/>
-        <v>2.2625000000000003E-2</v>
-      </c>
-      <c r="AJ72" s="153">
-        <f t="shared" si="87"/>
         <v>1.3800000000000001</v>
       </c>
-      <c r="AK72" s="153">
-        <f t="shared" si="84"/>
+      <c r="AK72" s="159">
+        <f t="shared" si="80"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AL72" s="152">
+      <c r="AL72" s="158">
         <f>10068.2*J72*POWER(10,-6)+0.0012*K72</f>
-        <v>0.12775575</v>
-      </c>
-      <c r="AM72" s="153">
-        <f t="shared" si="66"/>
-        <v>2.0566307500000001</v>
-      </c>
-      <c r="AN72" s="163">
-        <f t="shared" si="67"/>
-        <v>5.3657415000000001E-7</v>
-      </c>
-      <c r="AO72" s="163">
-        <f t="shared" si="68"/>
-        <v>8.637849150000002E-6</v>
+        <v>0.18907850999999998</v>
+      </c>
+      <c r="AM72" s="159">
+        <f t="shared" si="70"/>
+        <v>2.14765351</v>
+      </c>
+      <c r="AN72" s="162">
+        <f t="shared" si="71"/>
+        <v>2.6470991399999995E-7</v>
+      </c>
+      <c r="AO72" s="162">
+        <f t="shared" si="72"/>
+        <v>3.006714914E-6</v>
       </c>
     </row>
     <row r="73" spans="1:41">
       <c r="A73" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="B73" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="C73" s="82" t="s">
+      <c r="B73" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" s="86" t="s">
         <v>260</v>
       </c>
-      <c r="D73" s="80" t="s">
+      <c r="D73" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="E73" s="81">
+      <c r="E73" s="88">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F73" s="79">
-        <v>12</v>
-      </c>
-      <c r="G73" s="125">
+      <c r="F73" s="85">
+        <v>4</v>
+      </c>
+      <c r="G73" s="124">
         <v>3.3249999999999995E-2</v>
       </c>
-      <c r="H73" s="81">
-        <f t="shared" si="85"/>
-        <v>3.9899999999999999E-6</v>
-      </c>
-      <c r="I73" s="79">
-        <f t="shared" ref="I73:I74" si="88">I70</f>
-        <v>3.75</v>
-      </c>
-      <c r="J73" s="79">
+      <c r="H73" s="88">
+        <f t="shared" si="81"/>
+        <v>1.33E-6</v>
+      </c>
+      <c r="I73" s="85">
+        <f t="shared" ref="I73:I74" si="84">I70</f>
+        <v>5.55</v>
+      </c>
+      <c r="J73" s="85">
         <f>K73</f>
-        <v>2.7E-2</v>
-      </c>
-      <c r="K73" s="84">
+        <v>3.9960000000000002E-2</v>
+      </c>
+      <c r="K73" s="90">
         <f>POWER(10,-6)*SQRT(100)*10*3600*K72/1000</f>
-        <v>2.7E-2</v>
+        <v>3.9960000000000002E-2</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>С89</v>
       </c>
       <c r="M73" t="str">
+        <f t="shared" si="78"/>
+        <v>Насос Н-14/2</v>
+      </c>
+      <c r="N73" t="str">
+        <f t="shared" si="79"/>
+        <v>Полное-вспышка</v>
+      </c>
+      <c r="O73" t="s">
+        <v>209</v>
+      </c>
+      <c r="P73" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>209</v>
+      </c>
+      <c r="R73" t="s">
+        <v>209</v>
+      </c>
+      <c r="S73" t="s">
+        <v>209</v>
+      </c>
+      <c r="T73" t="s">
+        <v>209</v>
+      </c>
+      <c r="U73" t="s">
+        <v>209</v>
+      </c>
+      <c r="V73" t="s">
+        <v>209</v>
+      </c>
+      <c r="W73" t="s">
+        <v>209</v>
+      </c>
+      <c r="X73" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y73">
+        <v>11</v>
+      </c>
+      <c r="Z73">
+        <v>13</v>
+      </c>
+      <c r="AA73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC73" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="AD73" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AE73" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF73" s="9"/>
+      <c r="AG73" s="9"/>
+      <c r="AH73" s="158">
+        <f>AD73*I73+AC73</f>
+        <v>0.25324999999999998</v>
+      </c>
+      <c r="AI73" s="158">
         <f t="shared" si="82"/>
-        <v>Насос Н-6/1</v>
-      </c>
-      <c r="N73" t="str">
+        <v>2.5325E-2</v>
+      </c>
+      <c r="AJ73" s="159">
         <f t="shared" si="83"/>
-        <v>Полное-вспышка</v>
-      </c>
-      <c r="O73" t="s">
-        <v>209</v>
-      </c>
-      <c r="P73" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>209</v>
-      </c>
-      <c r="R73" t="s">
-        <v>209</v>
-      </c>
-      <c r="S73" t="s">
-        <v>209</v>
-      </c>
-      <c r="T73" t="s">
-        <v>209</v>
-      </c>
-      <c r="U73" t="s">
-        <v>209</v>
-      </c>
-      <c r="V73" t="s">
-        <v>209</v>
-      </c>
-      <c r="W73" t="s">
-        <v>209</v>
-      </c>
-      <c r="X73" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y73">
-        <v>9</v>
-      </c>
-      <c r="Z73">
-        <v>10</v>
-      </c>
-      <c r="AA73" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB73" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC73" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="AD73" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AE73" s="3">
-        <v>3</v>
-      </c>
-      <c r="AF73" s="3"/>
-      <c r="AG73" s="3"/>
-      <c r="AH73" s="152">
-        <f>AD73*I73+AC73</f>
-        <v>0.22625000000000001</v>
-      </c>
-      <c r="AI73" s="152">
-        <f t="shared" si="86"/>
-        <v>2.2625000000000003E-2</v>
-      </c>
-      <c r="AJ73" s="153">
-        <f t="shared" si="87"/>
         <v>1.3800000000000001</v>
       </c>
-      <c r="AK73" s="153">
-        <f t="shared" si="84"/>
+      <c r="AK73" s="159">
+        <f t="shared" si="80"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AL73" s="152">
+      <c r="AL73" s="158">
         <f>10068.2*J73*POWER(10,-6)+0.0012*K72</f>
-        <v>9.0271841399999997E-2</v>
-      </c>
-      <c r="AM73" s="153">
-        <f t="shared" si="66"/>
-        <v>2.0191468414</v>
-      </c>
-      <c r="AN73" s="163">
-        <f t="shared" si="67"/>
-        <v>3.6018464718599997E-7</v>
-      </c>
-      <c r="AO73" s="163">
-        <f t="shared" si="68"/>
-        <v>8.0563958971859994E-6</v>
+        <v>0.13360232527199997</v>
+      </c>
+      <c r="AM73" s="159">
+        <f t="shared" si="70"/>
+        <v>2.092177325272</v>
+      </c>
+      <c r="AN73" s="162">
+        <f t="shared" si="71"/>
+        <v>1.7769109261175995E-7</v>
+      </c>
+      <c r="AO73" s="162">
+        <f t="shared" si="72"/>
+        <v>2.78259584261176E-6</v>
       </c>
     </row>
     <row r="74" spans="1:41">
       <c r="A74" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="B74" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="C74" s="82" t="s">
+      <c r="B74" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="C74" s="86" t="s">
         <v>261</v>
       </c>
-      <c r="D74" s="80" t="s">
+      <c r="D74" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="E74" s="81">
+      <c r="E74" s="88">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F74" s="79">
-        <v>12</v>
-      </c>
-      <c r="G74" s="125">
+      <c r="F74" s="85">
+        <v>4</v>
+      </c>
+      <c r="G74" s="124">
         <v>0.63174999999999992</v>
       </c>
-      <c r="H74" s="81">
-        <f t="shared" si="85"/>
-        <v>7.5810000000000008E-5</v>
-      </c>
-      <c r="I74" s="79">
-        <f t="shared" si="88"/>
-        <v>3.75</v>
-      </c>
-      <c r="J74" s="79">
-        <v>0</v>
-      </c>
-      <c r="K74" s="83">
+      <c r="H74" s="88">
+        <f t="shared" si="81"/>
+        <v>2.527E-5</v>
+      </c>
+      <c r="I74" s="85">
+        <f t="shared" si="84"/>
+        <v>5.55</v>
+      </c>
+      <c r="J74" s="85">
+        <v>0</v>
+      </c>
+      <c r="K74" s="89">
         <v>0</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>С90</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="82"/>
-        <v>Насос Н-6/1</v>
+        <f t="shared" si="78"/>
+        <v>Насос Н-14/2</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>Полное-ликвидация</v>
       </c>
       <c r="O74" t="s">
@@ -19438,65 +19428,872 @@
       <c r="Z74" t="s">
         <v>209</v>
       </c>
-      <c r="AA74" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB74" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC74" s="3">
+      <c r="AA74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="9">
         <v>0.17</v>
       </c>
-      <c r="AD74" s="3">
+      <c r="AD74" s="9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE74" s="3">
+      <c r="AE74" s="9">
         <v>3</v>
       </c>
-      <c r="AF74" s="3"/>
-      <c r="AG74" s="3"/>
-      <c r="AH74" s="152">
+      <c r="AF74" s="9"/>
+      <c r="AG74" s="9"/>
+      <c r="AH74" s="158">
         <f>AD74*J74+AC74</f>
         <v>0.17</v>
       </c>
-      <c r="AI74" s="152">
+      <c r="AI74" s="158">
+        <f t="shared" si="82"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AJ74" s="159">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="AK74" s="159">
+        <f t="shared" si="80"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AL74" s="158">
+        <f>1333*J73*POWER(10,-6)+0.0012*K72</f>
+        <v>0.13325326667999998</v>
+      </c>
+      <c r="AM74" s="159">
+        <f t="shared" si="70"/>
+        <v>0.62025326668000003</v>
+      </c>
+      <c r="AN74" s="162">
+        <f t="shared" si="71"/>
+        <v>3.3673100490035997E-6</v>
+      </c>
+      <c r="AO74" s="162">
+        <f t="shared" si="72"/>
+        <v>1.5673800049003599E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:41">
+      <c r="A75" s="91" t="s">
+        <v>278</v>
+      </c>
+      <c r="B75" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="C75" s="82" t="s">
+        <v>192</v>
+      </c>
+      <c r="D75" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="E75" s="81">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F75" s="79">
+        <v>12</v>
+      </c>
+      <c r="G75" s="125">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H75" s="81">
+        <f>E75*F75*G75</f>
+        <v>1.8000000000000001E-6</v>
+      </c>
+      <c r="I75" s="79">
+        <f>K77</f>
+        <v>3.75</v>
+      </c>
+      <c r="J75" s="79">
+        <f>I75</f>
+        <v>3.75</v>
+      </c>
+      <c r="K75" s="83">
+        <f>K77*20</f>
+        <v>75</v>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" ref="L75:L80" si="85">A75</f>
+        <v>С91</v>
+      </c>
+      <c r="M75" t="str">
+        <f t="shared" ref="M75:M80" si="86">B75</f>
+        <v>Насос Н-6/1</v>
+      </c>
+      <c r="N75" t="str">
+        <f t="shared" ref="N75:N80" si="87">D75</f>
+        <v>Полное-жидкостной факел</v>
+      </c>
+      <c r="O75" t="s">
+        <v>209</v>
+      </c>
+      <c r="P75" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>209</v>
+      </c>
+      <c r="R75" t="s">
+        <v>209</v>
+      </c>
+      <c r="S75" t="s">
+        <v>209</v>
+      </c>
+      <c r="T75" t="s">
+        <v>209</v>
+      </c>
+      <c r="U75" t="s">
+        <v>209</v>
+      </c>
+      <c r="V75" t="s">
+        <v>209</v>
+      </c>
+      <c r="W75">
+        <v>6</v>
+      </c>
+      <c r="X75">
+        <v>1</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF75" s="3"/>
+      <c r="AG75" s="3"/>
+      <c r="AH75" s="152">
+        <f>AD75*I75+AC75</f>
+        <v>0.22625000000000001</v>
+      </c>
+      <c r="AI75" s="152">
+        <f>AH75*0.1</f>
+        <v>2.2625000000000003E-2</v>
+      </c>
+      <c r="AJ75" s="153">
+        <f>AA75*1.72+115*0.012*AB75</f>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="AK75" s="153">
+        <f t="shared" ref="AK75:AK80" si="88">AE75*0.1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AL75" s="152">
+        <f>10068.2*J75*POWER(10,-6)+0.0012*K78</f>
+        <v>0.12775575</v>
+      </c>
+      <c r="AM75" s="153">
+        <f t="shared" si="70"/>
+        <v>2.0566307500000001</v>
+      </c>
+      <c r="AN75" s="163">
+        <f t="shared" si="71"/>
+        <v>2.2996035000000003E-7</v>
+      </c>
+      <c r="AO75" s="163">
+        <f t="shared" si="72"/>
+        <v>3.7019353500000002E-6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41">
+      <c r="A76" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="B76" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="C76" s="82" t="s">
+        <v>258</v>
+      </c>
+      <c r="D76" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="81">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F76" s="79">
+        <v>12</v>
+      </c>
+      <c r="G76" s="125">
+        <v>1.4249999999999999E-2</v>
+      </c>
+      <c r="H76" s="81">
+        <f t="shared" ref="H76:H80" si="89">E76*F76*G76</f>
+        <v>1.7100000000000001E-6</v>
+      </c>
+      <c r="I76" s="79">
+        <f>I75</f>
+        <v>3.75</v>
+      </c>
+      <c r="J76" s="79">
+        <f>0.1*K76</f>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="K76" s="83">
+        <f>POWER(10,-6)*SQRT(100)*10*3600*K75/1000</f>
+        <v>2.7E-2</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="85"/>
+        <v>С92</v>
+      </c>
+      <c r="M76" t="str">
         <f t="shared" si="86"/>
+        <v>Насос Н-6/1</v>
+      </c>
+      <c r="N76" t="str">
+        <f t="shared" si="87"/>
+        <v>Полное-взрыв</v>
+      </c>
+      <c r="O76" t="s">
+        <v>209</v>
+      </c>
+      <c r="P76" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>209</v>
+      </c>
+      <c r="R76" t="s">
+        <v>209</v>
+      </c>
+      <c r="S76">
+        <v>6</v>
+      </c>
+      <c r="T76">
+        <v>12</v>
+      </c>
+      <c r="U76">
+        <v>35</v>
+      </c>
+      <c r="V76">
+        <v>60</v>
+      </c>
+      <c r="W76" t="s">
+        <v>209</v>
+      </c>
+      <c r="X76" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AE76" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF76" s="3"/>
+      <c r="AG76" s="3"/>
+      <c r="AH76" s="152">
+        <f>AD76*I76+AC76</f>
+        <v>0.22625000000000001</v>
+      </c>
+      <c r="AI76" s="152">
+        <f t="shared" ref="AI76:AI80" si="90">AH76*0.1</f>
+        <v>2.2625000000000003E-2</v>
+      </c>
+      <c r="AJ76" s="153">
+        <f t="shared" ref="AJ76:AJ80" si="91">AA76*1.72+115*0.012*AB76</f>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="AK76" s="153">
+        <f t="shared" si="88"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AL76" s="152">
+        <f>10068.2*J76*POWER(10,-6)*10+0.0012*K78</f>
+        <v>9.0271841399999997E-2</v>
+      </c>
+      <c r="AM76" s="153">
+        <f t="shared" si="70"/>
+        <v>2.0191468414</v>
+      </c>
+      <c r="AN76" s="163">
+        <f t="shared" si="71"/>
+        <v>1.54364848794E-7</v>
+      </c>
+      <c r="AO76" s="163">
+        <f t="shared" si="72"/>
+        <v>3.4527410987940004E-6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41">
+      <c r="A77" s="91" t="s">
+        <v>280</v>
+      </c>
+      <c r="B77" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="C77" s="82" t="s">
+        <v>259</v>
+      </c>
+      <c r="D77" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" s="81">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F77" s="79">
+        <v>12</v>
+      </c>
+      <c r="G77" s="125">
+        <v>0.27074999999999999</v>
+      </c>
+      <c r="H77" s="81">
+        <f t="shared" si="89"/>
+        <v>3.2490000000000002E-5</v>
+      </c>
+      <c r="I77" s="79">
+        <f>I76</f>
+        <v>3.75</v>
+      </c>
+      <c r="J77" s="79">
+        <v>0</v>
+      </c>
+      <c r="K77" s="84">
+        <f>25*0.15</f>
+        <v>3.75</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="85"/>
+        <v>С93</v>
+      </c>
+      <c r="M77" t="str">
+        <f t="shared" si="86"/>
+        <v>Насос Н-6/1</v>
+      </c>
+      <c r="N77" t="str">
+        <f t="shared" si="87"/>
+        <v>Полное-ликвидация</v>
+      </c>
+      <c r="O77" t="s">
+        <v>209</v>
+      </c>
+      <c r="P77" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>209</v>
+      </c>
+      <c r="R77" t="s">
+        <v>209</v>
+      </c>
+      <c r="S77" t="s">
+        <v>209</v>
+      </c>
+      <c r="T77" t="s">
+        <v>209</v>
+      </c>
+      <c r="U77" t="s">
+        <v>209</v>
+      </c>
+      <c r="V77" t="s">
+        <v>209</v>
+      </c>
+      <c r="W77" t="s">
+        <v>209</v>
+      </c>
+      <c r="X77" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF77" s="3"/>
+      <c r="AG77" s="3"/>
+      <c r="AH77" s="152">
+        <f>AD77*J77+AC77</f>
+        <v>0.17</v>
+      </c>
+      <c r="AI77" s="152">
+        <f t="shared" si="90"/>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AJ74" s="153">
+      <c r="AJ77" s="153">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AK77" s="153">
+        <f t="shared" si="88"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AL77" s="152">
+        <f>1333*J76*POWER(10,-6)*10+0.0012*K78</f>
+        <v>9.0035990999999996E-2</v>
+      </c>
+      <c r="AM77" s="153">
+        <f t="shared" si="70"/>
+        <v>0.57703599100000003</v>
+      </c>
+      <c r="AN77" s="163">
+        <f t="shared" si="71"/>
+        <v>2.92526934759E-6</v>
+      </c>
+      <c r="AO77" s="163">
+        <f t="shared" si="72"/>
+        <v>1.8747899347590003E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41">
+      <c r="A78" s="91" t="s">
+        <v>281</v>
+      </c>
+      <c r="B78" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="C78" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="D78" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="E78" s="81">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F78" s="79">
+        <v>12</v>
+      </c>
+      <c r="G78" s="125">
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="H78" s="81">
+        <f t="shared" si="89"/>
+        <v>4.2000000000000004E-6</v>
+      </c>
+      <c r="I78" s="79">
+        <f>I75</f>
+        <v>3.75</v>
+      </c>
+      <c r="J78" s="79">
+        <f>I78</f>
+        <v>3.75</v>
+      </c>
+      <c r="K78" s="84">
+        <f>ROUNDUP(I78*20,0)</f>
+        <v>75</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="85"/>
+        <v>С94</v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" si="86"/>
+        <v>Насос Н-6/1</v>
+      </c>
+      <c r="N78" t="str">
         <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="AK74" s="153">
-        <f t="shared" si="84"/>
+        <v>Полное пожар</v>
+      </c>
+      <c r="O78">
+        <v>14</v>
+      </c>
+      <c r="P78">
+        <v>18</v>
+      </c>
+      <c r="Q78">
+        <v>25</v>
+      </c>
+      <c r="R78">
+        <v>45</v>
+      </c>
+      <c r="S78" t="s">
+        <v>209</v>
+      </c>
+      <c r="T78" t="s">
+        <v>209</v>
+      </c>
+      <c r="U78" t="s">
+        <v>209</v>
+      </c>
+      <c r="V78" t="s">
+        <v>209</v>
+      </c>
+      <c r="W78" t="s">
+        <v>209</v>
+      </c>
+      <c r="X78" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC78" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="AD78" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AE78" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF78" s="3"/>
+      <c r="AG78" s="3"/>
+      <c r="AH78" s="152">
+        <f>AD78*I78+AC78</f>
+        <v>0.22625000000000001</v>
+      </c>
+      <c r="AI78" s="152">
+        <f t="shared" si="90"/>
+        <v>2.2625000000000003E-2</v>
+      </c>
+      <c r="AJ78" s="153">
+        <f t="shared" si="91"/>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="AK78" s="153">
+        <f t="shared" si="88"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AL74" s="152">
-        <f>1333*J73*POWER(10,-6)+0.0012*K72</f>
+      <c r="AL78" s="152">
+        <f>10068.2*J78*POWER(10,-6)+0.0012*K78</f>
+        <v>0.12775575</v>
+      </c>
+      <c r="AM78" s="153">
+        <f t="shared" si="70"/>
+        <v>2.0566307500000001</v>
+      </c>
+      <c r="AN78" s="163">
+        <f t="shared" si="71"/>
+        <v>5.3657415000000001E-7</v>
+      </c>
+      <c r="AO78" s="163">
+        <f t="shared" si="72"/>
+        <v>8.637849150000002E-6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41">
+      <c r="A79" s="91" t="s">
+        <v>282</v>
+      </c>
+      <c r="B79" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="C79" s="82" t="s">
+        <v>260</v>
+      </c>
+      <c r="D79" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="E79" s="81">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F79" s="79">
+        <v>12</v>
+      </c>
+      <c r="G79" s="125">
+        <v>3.3249999999999995E-2</v>
+      </c>
+      <c r="H79" s="81">
+        <f t="shared" si="89"/>
+        <v>3.9899999999999999E-6</v>
+      </c>
+      <c r="I79" s="79">
+        <f t="shared" ref="I79:I80" si="92">I76</f>
+        <v>3.75</v>
+      </c>
+      <c r="J79" s="79">
+        <f>K79</f>
+        <v>2.7E-2</v>
+      </c>
+      <c r="K79" s="84">
+        <f>POWER(10,-6)*SQRT(100)*10*3600*K78/1000</f>
+        <v>2.7E-2</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="85"/>
+        <v>С95</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" si="86"/>
+        <v>Насос Н-6/1</v>
+      </c>
+      <c r="N79" t="str">
+        <f t="shared" si="87"/>
+        <v>Полное-вспышка</v>
+      </c>
+      <c r="O79" t="s">
+        <v>209</v>
+      </c>
+      <c r="P79" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>209</v>
+      </c>
+      <c r="R79" t="s">
+        <v>209</v>
+      </c>
+      <c r="S79" t="s">
+        <v>209</v>
+      </c>
+      <c r="T79" t="s">
+        <v>209</v>
+      </c>
+      <c r="U79" t="s">
+        <v>209</v>
+      </c>
+      <c r="V79" t="s">
+        <v>209</v>
+      </c>
+      <c r="W79" t="s">
+        <v>209</v>
+      </c>
+      <c r="X79" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y79">
+        <v>9</v>
+      </c>
+      <c r="Z79">
+        <v>10</v>
+      </c>
+      <c r="AA79" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC79" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="AD79" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AE79" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF79" s="3"/>
+      <c r="AG79" s="3"/>
+      <c r="AH79" s="152">
+        <f>AD79*I79+AC79</f>
+        <v>0.22625000000000001</v>
+      </c>
+      <c r="AI79" s="152">
+        <f t="shared" si="90"/>
+        <v>2.2625000000000003E-2</v>
+      </c>
+      <c r="AJ79" s="153">
+        <f t="shared" si="91"/>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="AK79" s="153">
+        <f t="shared" si="88"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AL79" s="152">
+        <f>10068.2*J79*POWER(10,-6)+0.0012*K78</f>
+        <v>9.0271841399999997E-2</v>
+      </c>
+      <c r="AM79" s="153">
+        <f t="shared" si="70"/>
+        <v>2.0191468414</v>
+      </c>
+      <c r="AN79" s="163">
+        <f t="shared" si="71"/>
+        <v>3.6018464718599997E-7</v>
+      </c>
+      <c r="AO79" s="163">
+        <f t="shared" si="72"/>
+        <v>8.0563958971859994E-6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41">
+      <c r="A80" s="91" t="s">
+        <v>283</v>
+      </c>
+      <c r="B80" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="C80" s="82" t="s">
+        <v>261</v>
+      </c>
+      <c r="D80" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" s="81">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F80" s="79">
+        <v>12</v>
+      </c>
+      <c r="G80" s="125">
+        <v>0.63174999999999992</v>
+      </c>
+      <c r="H80" s="81">
+        <f t="shared" si="89"/>
+        <v>7.5810000000000008E-5</v>
+      </c>
+      <c r="I80" s="79">
+        <f t="shared" si="92"/>
+        <v>3.75</v>
+      </c>
+      <c r="J80" s="79">
+        <v>0</v>
+      </c>
+      <c r="K80" s="83">
+        <v>0</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="85"/>
+        <v>С96</v>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" si="86"/>
+        <v>Насос Н-6/1</v>
+      </c>
+      <c r="N80" t="str">
+        <f t="shared" si="87"/>
+        <v>Полное-ликвидация</v>
+      </c>
+      <c r="O80" t="s">
+        <v>209</v>
+      </c>
+      <c r="P80" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>209</v>
+      </c>
+      <c r="R80" t="s">
+        <v>209</v>
+      </c>
+      <c r="S80" t="s">
+        <v>209</v>
+      </c>
+      <c r="T80" t="s">
+        <v>209</v>
+      </c>
+      <c r="U80" t="s">
+        <v>209</v>
+      </c>
+      <c r="V80" t="s">
+        <v>209</v>
+      </c>
+      <c r="W80" t="s">
+        <v>209</v>
+      </c>
+      <c r="X80" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="AD80" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AE80" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF80" s="3"/>
+      <c r="AG80" s="3"/>
+      <c r="AH80" s="152">
+        <f>AD80*J80+AC80</f>
+        <v>0.17</v>
+      </c>
+      <c r="AI80" s="152">
+        <f t="shared" si="90"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AJ80" s="153">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AK80" s="153">
+        <f t="shared" si="88"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AL80" s="152">
+        <f>1333*J79*POWER(10,-6)+0.0012*K78</f>
         <v>9.0035990999999996E-2</v>
       </c>
-      <c r="AM74" s="153">
-        <f t="shared" si="66"/>
+      <c r="AM80" s="153">
+        <f t="shared" si="70"/>
         <v>0.57703599100000003</v>
       </c>
-      <c r="AN74" s="163">
-        <f t="shared" si="67"/>
+      <c r="AN80" s="163">
+        <f t="shared" si="71"/>
         <v>6.8256284777100002E-6</v>
       </c>
-      <c r="AO74" s="163">
-        <f t="shared" si="68"/>
+      <c r="AO80" s="163">
+        <f t="shared" si="72"/>
         <v>4.3745098477710004E-5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:41">
-      <c r="AN76" s="165">
-        <f>SUM(AN2:AN74)/15</f>
-        <v>5.0071135275786238E-6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="N57:N1048576 N1:N55">
+  <conditionalFormatting sqref="N63:N1048576 N1:N61">
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="взрыв">
       <formula>NOT(ISERROR(SEARCH("взрыв",N1)))</formula>
     </cfRule>
@@ -19530,10 +20327,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="197" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="173"/>
+      <c r="B1" s="198"/>
       <c r="G1" s="140"/>
     </row>
     <row r="2" spans="1:15" ht="78.599999999999994" thickBot="1">
@@ -19756,10 +20553,10 @@
       <c r="B11" s="149"/>
       <c r="C11" s="149"/>
       <c r="D11" s="149"/>
-      <c r="E11" s="174" t="s">
+      <c r="E11" s="199" t="s">
         <v>252</v>
       </c>
-      <c r="F11" s="175"/>
+      <c r="F11" s="200"/>
       <c r="G11" s="150">
         <f>SUM(G3:G10)</f>
         <v>10068.197119718401</v>

--- a/Оборудование на расчет ЦПХ-1.xlsx
+++ b/Оборудование на расчет ЦПХ-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\ENPZ_del\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52EF558-6BE7-4BD9-9D92-441A7E2B6510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34C3C0E-51AF-406E-A3CE-D3E6BEC3B10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9551,36 +9551,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AT80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT9" sqref="AT9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" style="33" customWidth="1"/>
     <col min="2" max="2" width="28.88671875" style="33" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" style="34" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" style="34" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="33" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="33" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="33" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="34" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="33" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="33" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" style="33" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="33" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="33" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="35.5546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="31" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="33" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="35.5546875" customWidth="1"/>
+    <col min="14" max="14" width="31" customWidth="1"/>
     <col min="15" max="26" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="27" max="28" width="8.88671875" customWidth="1"/>
-    <col min="29" max="29" width="17" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="17.88671875" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="32" max="34" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="12.33203125" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="11.88671875" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="10.44140625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="17" customWidth="1"/>
+    <col min="30" max="30" width="17.88671875" customWidth="1"/>
+    <col min="31" max="31" width="13.33203125" customWidth="1"/>
+    <col min="32" max="33" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="8.88671875" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" customWidth="1"/>
+    <col min="36" max="36" width="11.88671875" customWidth="1"/>
+    <col min="37" max="37" width="10.44140625" customWidth="1"/>
     <col min="38" max="38" width="11.44140625" customWidth="1"/>
     <col min="39" max="39" width="12" customWidth="1"/>
     <col min="41" max="41" width="13.6640625" customWidth="1"/>
@@ -9802,7 +9803,7 @@
         <v>0.25</v>
       </c>
       <c r="AD2" s="154">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AE2" s="154">
         <v>15</v>
@@ -9811,11 +9812,11 @@
       <c r="AG2" s="154"/>
       <c r="AH2" s="156">
         <f>AD2*I2+AC2</f>
-        <v>0.2908</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="AI2" s="193">
         <f>AH2*0.1</f>
-        <v>2.9080000000000002E-2</v>
+        <v>6.5800000000000011E-2</v>
       </c>
       <c r="AJ2" s="156">
         <f>AA2*1.72+115*0.012*AB2</f>
@@ -9831,22 +9832,22 @@
       </c>
       <c r="AM2" s="156">
         <f t="shared" ref="AM2:AM19" si="3">AL2+AK2+AJ2+AI2+AH2</f>
-        <v>4.9472655040000006</v>
+        <v>5.3511855040000009</v>
       </c>
       <c r="AN2" s="157">
-        <f t="shared" ref="AN2:AN19" si="4">AL2*H2</f>
-        <v>5.477100800000001E-8</v>
+        <f>AA2*H2</f>
+        <v>2.0000000000000003E-6</v>
       </c>
       <c r="AO2" s="157">
-        <f t="shared" ref="AO2:AO19" si="5">H2*AM2</f>
-        <v>9.8945310080000022E-6</v>
+        <f t="shared" ref="AO2:AO19" si="4">H2*AM2</f>
+        <v>1.0702371008000004E-5</v>
       </c>
       <c r="AS2">
         <v>1</v>
       </c>
       <c r="AT2" s="165">
         <f>SUMIF(AA2:AA80,1,AN2:AN80)</f>
-        <v>5.9760277023814011E-6</v>
+        <v>2.7925000000000005E-5</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -9872,7 +9873,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H3" s="100">
-        <f t="shared" ref="H3:H7" si="6">E3*F3*G3</f>
+        <f t="shared" ref="H3:H7" si="5">E3*F3*G3</f>
         <v>1.9000000000000002E-6</v>
       </c>
       <c r="I3" s="97">
@@ -9945,7 +9946,7 @@
         <v>0.25</v>
       </c>
       <c r="AD3" s="154">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AE3" s="154">
         <v>15</v>
@@ -9954,18 +9955,18 @@
       <c r="AG3" s="154"/>
       <c r="AH3" s="156">
         <f>AD3*I3+AC3</f>
-        <v>0.2908</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="AI3" s="193">
-        <f t="shared" ref="AI3:AI4" si="7">AH3*0.1</f>
-        <v>2.9080000000000002E-2</v>
+        <f t="shared" ref="AI3:AI4" si="6">AH3*0.1</f>
+        <v>6.5800000000000011E-2</v>
       </c>
       <c r="AJ3" s="156">
-        <f t="shared" ref="AJ3:AJ4" si="8">AA3*1.72+115*0.012*AB3</f>
+        <f t="shared" ref="AJ3:AJ4" si="7">AA3*1.72+115*0.012*AB3</f>
         <v>3.1</v>
       </c>
       <c r="AK3" s="156">
-        <f t="shared" ref="AK3:AK4" si="9">AE3*0.1</f>
+        <f t="shared" ref="AK3:AK4" si="8">AE3*0.1</f>
         <v>1.5</v>
       </c>
       <c r="AL3" s="155">
@@ -9974,22 +9975,22 @@
       </c>
       <c r="AM3" s="156">
         <f t="shared" si="3"/>
-        <v>4.9200974731200002</v>
+        <v>5.3240174731200005</v>
       </c>
       <c r="AN3" s="157">
+        <f t="shared" ref="AN3:AN66" si="9">AA3*H3</f>
+        <v>1.9000000000000002E-6</v>
+      </c>
+      <c r="AO3" s="157">
         <f t="shared" si="4"/>
-        <v>4.1319892800000003E-10</v>
-      </c>
-      <c r="AO3" s="157">
-        <f t="shared" si="5"/>
-        <v>9.3481851989280021E-6</v>
+        <v>1.0115633198928002E-5</v>
       </c>
       <c r="AS3">
         <v>2</v>
       </c>
       <c r="AT3" s="165">
         <f>SUMIF(AA2:AA80,2,AN2:AN80)</f>
-        <v>4.6484879400000007E-9</v>
+        <v>8.5500000000000011E-6</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -10015,7 +10016,7 @@
         <v>0.90249999999999997</v>
       </c>
       <c r="H4" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.6100000000000003E-5</v>
       </c>
       <c r="I4" s="97">
@@ -10087,7 +10088,7 @@
         <v>0.25</v>
       </c>
       <c r="AD4" s="154">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AE4" s="154">
         <v>15</v>
@@ -10099,15 +10100,15 @@
         <v>0.25</v>
       </c>
       <c r="AI4" s="193">
+        <f t="shared" si="6"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AJ4" s="156">
         <f t="shared" si="7"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AJ4" s="156">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="156">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK4" s="156">
-        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="AL4" s="155">
@@ -10119,11 +10120,11 @@
         <v>1.7750287927999999</v>
       </c>
       <c r="AN4" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="157">
         <f t="shared" si="4"/>
-        <v>1.0394200800000001E-9</v>
-      </c>
-      <c r="AO4" s="157">
-        <f t="shared" si="5"/>
         <v>6.4078539420080007E-5</v>
       </c>
       <c r="AS4">
@@ -10131,7 +10132,7 @@
       </c>
       <c r="AT4" s="165">
         <f>SUMIF(AA2:AA80,3,AN2:AN80)</f>
-        <v>1.3773297600000002E-9</v>
+        <v>2.8500000000000002E-6</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -10157,7 +10158,7 @@
         <v>0.05</v>
       </c>
       <c r="H5" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="I5" s="97">
@@ -10231,7 +10232,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AD5" s="154">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AE5" s="154">
         <v>5</v>
@@ -10240,11 +10241,11 @@
       <c r="AG5" s="154"/>
       <c r="AH5" s="156">
         <f>AD5*I5+AC5</f>
-        <v>2.9080000000000002E-2</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="AI5" s="193">
         <f>AH5*0.1</f>
-        <v>2.9080000000000004E-3</v>
+        <v>6.5799999999999999E-3</v>
       </c>
       <c r="AJ5" s="156">
         <f>AA5*1.72+115*0.012*AB5</f>
@@ -10260,15 +10261,15 @@
       </c>
       <c r="AM5" s="156">
         <f t="shared" si="3"/>
-        <v>1.9147265503999999</v>
+        <v>1.9551185504000002</v>
       </c>
       <c r="AN5" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="157">
         <f t="shared" si="4"/>
-        <v>5.477100800000001E-8</v>
-      </c>
-      <c r="AO5" s="157">
-        <f t="shared" si="5"/>
-        <v>3.8294531008000005E-5</v>
+        <v>3.9102371008000003E-5</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -10294,7 +10295,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H6" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.9000000000000001E-5</v>
       </c>
       <c r="I6" s="97">
@@ -10368,7 +10369,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AD6" s="154">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AE6" s="154">
         <v>5</v>
@@ -10377,11 +10378,11 @@
       <c r="AG6" s="154"/>
       <c r="AH6" s="156">
         <f>AD6*I6+AC6</f>
-        <v>2.9080000000000002E-2</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="AI6" s="193">
         <f>AH6*0.1</f>
-        <v>2.9080000000000004E-3</v>
+        <v>6.5799999999999999E-3</v>
       </c>
       <c r="AJ6" s="156">
         <f>AA6*1.72+115*0.012*AB6</f>
@@ -10397,15 +10398,15 @@
       </c>
       <c r="AM6" s="156">
         <f t="shared" si="3"/>
-        <v>1.9120532419360001</v>
+        <v>1.9524452419360003</v>
       </c>
       <c r="AN6" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="157">
         <f t="shared" si="4"/>
-        <v>1.239596784E-9</v>
-      </c>
-      <c r="AO6" s="157">
-        <f t="shared" si="5"/>
-        <v>3.6329011596784003E-5</v>
+        <v>3.709645959678401E-5</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -10431,7 +10432,7 @@
         <v>0.90249999999999997</v>
       </c>
       <c r="H7" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.6099999999999999E-4</v>
       </c>
       <c r="I7" s="97">
@@ -10503,7 +10504,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AD7" s="154">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AE7" s="154">
         <v>5</v>
@@ -10512,11 +10513,11 @@
       <c r="AG7" s="154"/>
       <c r="AH7" s="156">
         <f>AD7*I7+AC7</f>
-        <v>2.9080000000000002E-2</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="AI7" s="193">
         <f>AH7*0.1</f>
-        <v>2.9080000000000004E-3</v>
+        <v>6.5799999999999999E-3</v>
       </c>
       <c r="AJ7" s="156">
         <f>AA7*1.72+115*0.012*AB7</f>
@@ -10532,15 +10533,15 @@
       </c>
       <c r="AM7" s="156">
         <f t="shared" si="3"/>
-        <v>0.53199663784000006</v>
+        <v>0.57238863784000005</v>
       </c>
       <c r="AN7" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="157">
         <f t="shared" si="4"/>
-        <v>3.1182602399999994E-9</v>
-      </c>
-      <c r="AO7" s="157">
-        <f t="shared" si="5"/>
-        <v>1.9205078626024003E-4</v>
+        <v>2.0663229826024002E-4</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -10639,7 +10640,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="AD8" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AE8" s="9">
         <v>15</v>
@@ -10648,11 +10649,11 @@
       <c r="AG8" s="9"/>
       <c r="AH8" s="159">
         <f>AD8*I8+AC8</f>
-        <v>0.34426000000000001</v>
+        <v>0.92259999999999998</v>
       </c>
       <c r="AI8" s="194">
         <f>AH8*0.1</f>
-        <v>3.4426000000000005E-2</v>
+        <v>9.2260000000000009E-2</v>
       </c>
       <c r="AJ8" s="159">
         <f>AA8*1.72+115*0.012*AB8</f>
@@ -10668,15 +10669,15 @@
       </c>
       <c r="AM8" s="159">
         <f t="shared" si="3"/>
-        <v>5.0218181688000003</v>
-      </c>
-      <c r="AN8" s="162">
+        <v>5.6579921688000008</v>
+      </c>
+      <c r="AN8" s="157">
+        <f t="shared" si="9"/>
+        <v>3.0000000000000005E-6</v>
+      </c>
+      <c r="AO8" s="162">
         <f t="shared" si="4"/>
-        <v>1.2939650640000002E-7</v>
-      </c>
-      <c r="AO8" s="162">
-        <f t="shared" si="5"/>
-        <v>1.5065454506400004E-5</v>
+        <v>1.6973976506400004E-5</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -10775,7 +10776,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="AD9" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AE9" s="9">
         <v>15</v>
@@ -10784,11 +10785,11 @@
       <c r="AG9" s="9"/>
       <c r="AH9" s="159">
         <f>AD9*I9+AC9</f>
-        <v>0.34426000000000001</v>
+        <v>0.92259999999999998</v>
       </c>
       <c r="AI9" s="194">
         <f t="shared" ref="AI9:AI10" si="11">AH9*0.1</f>
-        <v>3.4426000000000005E-2</v>
+        <v>9.2260000000000009E-2</v>
       </c>
       <c r="AJ9" s="159">
         <f t="shared" ref="AJ9:AJ10" si="12">AA9*1.72+115*0.012*AB9</f>
@@ -10804,15 +10805,15 @@
       </c>
       <c r="AM9" s="159">
         <f t="shared" si="3"/>
-        <v>4.9790285201640003</v>
-      </c>
-      <c r="AN9" s="162">
+        <v>5.6152025201639999</v>
+      </c>
+      <c r="AN9" s="157">
+        <f t="shared" si="9"/>
+        <v>2.8500000000000002E-6</v>
+      </c>
+      <c r="AO9" s="162">
         <f t="shared" si="4"/>
-        <v>9.7618246740000019E-10</v>
-      </c>
-      <c r="AO9" s="162">
-        <f t="shared" si="5"/>
-        <v>1.4190231282467402E-5</v>
+        <v>1.6003327182467401E-5</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -10909,7 +10910,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="AD10" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AE10" s="9">
         <v>15</v>
@@ -10940,12 +10941,12 @@
         <f t="shared" si="3"/>
         <v>1.8080453486600001</v>
       </c>
-      <c r="AN10" s="162">
+      <c r="AN10" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="162">
         <f t="shared" si="4"/>
-        <v>2.4556299390000001E-9</v>
-      </c>
-      <c r="AO10" s="162">
-        <f t="shared" si="5"/>
         <v>9.7905655629939016E-5</v>
       </c>
     </row>
@@ -11046,7 +11047,7 @@
         <v>2.8000000000000004E-2</v>
       </c>
       <c r="AD11" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AE11" s="9">
         <v>5</v>
@@ -11055,11 +11056,11 @@
       <c r="AG11" s="9"/>
       <c r="AH11" s="159">
         <f>AD11*I11+AC11</f>
-        <v>3.4426000000000005E-2</v>
+        <v>9.2260000000000009E-2</v>
       </c>
       <c r="AI11" s="194">
         <f>AH11*0.1</f>
-        <v>3.4426000000000005E-3</v>
+        <v>9.2260000000000016E-3</v>
       </c>
       <c r="AJ11" s="159">
         <f>AA11*1.72+115*0.012*AB11</f>
@@ -11075,15 +11076,15 @@
       </c>
       <c r="AM11" s="159">
         <f t="shared" si="3"/>
-        <v>1.9221818168800002</v>
-      </c>
-      <c r="AN11" s="162">
+        <v>1.9857992168800001</v>
+      </c>
+      <c r="AN11" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="162">
         <f t="shared" si="4"/>
-        <v>1.2939650640000002E-7</v>
-      </c>
-      <c r="AO11" s="162">
-        <f t="shared" si="5"/>
-        <v>5.7665454506400016E-5</v>
+        <v>5.9573976506400013E-5</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -11183,7 +11184,7 @@
         <v>2.8000000000000004E-2</v>
       </c>
       <c r="AD12" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AE12" s="9">
         <v>5</v>
@@ -11192,11 +11193,11 @@
       <c r="AG12" s="9"/>
       <c r="AH12" s="159">
         <f>AD12*I12+AC12</f>
-        <v>3.4426000000000005E-2</v>
+        <v>9.2260000000000009E-2</v>
       </c>
       <c r="AI12" s="194">
         <f>AH12*0.1</f>
-        <v>3.4426000000000005E-3</v>
+        <v>9.2260000000000016E-3</v>
       </c>
       <c r="AJ12" s="159">
         <f>AA12*1.72+115*0.012*AB12</f>
@@ -11212,15 +11213,15 @@
       </c>
       <c r="AM12" s="159">
         <f t="shared" si="3"/>
-        <v>1.9179664629040003</v>
-      </c>
-      <c r="AN12" s="162">
+        <v>1.9815838629040001</v>
+      </c>
+      <c r="AN12" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="162">
         <f t="shared" si="4"/>
-        <v>2.789092764E-9</v>
-      </c>
-      <c r="AO12" s="162">
-        <f t="shared" si="5"/>
-        <v>5.4662044192764011E-5</v>
+        <v>5.6475140092764006E-5</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -11318,7 +11319,7 @@
         <v>2.8000000000000004E-2</v>
       </c>
       <c r="AD13" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AE13" s="9">
         <v>5</v>
@@ -11327,11 +11328,11 @@
       <c r="AG13" s="9"/>
       <c r="AH13" s="159">
         <f>AD13*I13+AC13</f>
-        <v>3.4426000000000005E-2</v>
+        <v>9.2260000000000009E-2</v>
       </c>
       <c r="AI13" s="194">
         <f>AH13*0.1</f>
-        <v>3.4426000000000005E-3</v>
+        <v>9.2260000000000016E-3</v>
       </c>
       <c r="AJ13" s="159">
         <f>AA13*1.72+115*0.012*AB13</f>
@@ -11347,15 +11348,15 @@
       </c>
       <c r="AM13" s="159">
         <f t="shared" si="3"/>
-        <v>0.53788155675999993</v>
-      </c>
-      <c r="AN13" s="162">
+        <v>0.60149895675999998</v>
+      </c>
+      <c r="AN13" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="162">
         <f t="shared" si="4"/>
-        <v>7.0160855399999991E-9</v>
-      </c>
-      <c r="AO13" s="162">
-        <f t="shared" si="5"/>
-        <v>2.9126286298553994E-4</v>
+        <v>3.2571168508553996E-4</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -11452,7 +11453,7 @@
         <v>0.46</v>
       </c>
       <c r="AD14" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AE14" s="4">
         <v>15</v>
@@ -11461,11 +11462,11 @@
       <c r="AG14" s="4"/>
       <c r="AH14" s="161">
         <f>AD14*I14+AC14</f>
-        <v>1.4516499999999999</v>
+        <v>3.9638299999999997</v>
       </c>
       <c r="AI14" s="195">
         <f>AH14*0.1</f>
-        <v>0.14516499999999999</v>
+        <v>0.39638299999999999</v>
       </c>
       <c r="AJ14" s="161">
         <f>AA14*1.72+115*0.012*AB14</f>
@@ -11481,15 +11482,15 @@
       </c>
       <c r="AM14" s="161">
         <f t="shared" si="3"/>
-        <v>6.8624237020000001</v>
-      </c>
-      <c r="AN14" s="164">
+        <v>9.6258217019999996</v>
+      </c>
+      <c r="AN14" s="157">
+        <f t="shared" si="9"/>
+        <v>1.5000000000000002E-6</v>
+      </c>
+      <c r="AO14" s="164">
         <f t="shared" si="4"/>
-        <v>9.9841305300000007E-7</v>
-      </c>
-      <c r="AO14" s="164">
-        <f t="shared" si="5"/>
-        <v>1.0293635553000001E-5</v>
+        <v>1.4438732553000002E-5</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -11588,7 +11589,7 @@
         <v>0.46</v>
       </c>
       <c r="AD15" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AE15" s="4">
         <v>15</v>
@@ -11597,11 +11598,11 @@
       <c r="AG15" s="4"/>
       <c r="AH15" s="161">
         <f>AD15*I15+AC15</f>
-        <v>1.4516499999999999</v>
+        <v>3.9638299999999997</v>
       </c>
       <c r="AI15" s="195">
         <f t="shared" ref="AI15:AI16" si="15">AH15*0.1</f>
-        <v>0.14516499999999999</v>
+        <v>0.39638299999999999</v>
       </c>
       <c r="AJ15" s="161">
         <f t="shared" ref="AJ15:AJ16" si="16">AA15*1.72+115*0.012*AB15</f>
@@ -11617,15 +11618,15 @@
       </c>
       <c r="AM15" s="161">
         <f t="shared" si="3"/>
-        <v>7.9179023656000007</v>
-      </c>
-      <c r="AN15" s="164">
+        <v>10.6813003656</v>
+      </c>
+      <c r="AN15" s="157">
+        <f t="shared" si="9"/>
+        <v>2.8500000000000002E-6</v>
+      </c>
+      <c r="AO15" s="164">
         <f t="shared" si="4"/>
-        <v>1.5494959800000002E-9</v>
-      </c>
-      <c r="AO15" s="164">
-        <f t="shared" si="5"/>
-        <v>1.1283010870980003E-5</v>
+        <v>1.5220853020980002E-5</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -11720,7 +11721,7 @@
         <v>0.46</v>
       </c>
       <c r="AD16" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AE16" s="4">
         <v>15</v>
@@ -11751,12 +11752,12 @@
         <f t="shared" si="3"/>
         <v>2.0061439640000001</v>
       </c>
-      <c r="AN16" s="164">
+      <c r="AN16" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="164">
         <f t="shared" si="4"/>
-        <v>3.897825300000001E-9</v>
-      </c>
-      <c r="AO16" s="164">
-        <f t="shared" si="5"/>
         <v>5.4316347825300009E-5</v>
       </c>
     </row>
@@ -11857,7 +11858,7 @@
         <v>4.6000000000000006E-2</v>
       </c>
       <c r="AD17" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AE17" s="4">
         <v>5</v>
@@ -11866,11 +11867,11 @@
       <c r="AG17" s="4"/>
       <c r="AH17" s="161">
         <f>AD17*I17+AC17</f>
-        <v>0.14516500000000002</v>
+        <v>0.39638299999999999</v>
       </c>
       <c r="AI17" s="195">
         <f>AH17*0.1</f>
-        <v>1.4516500000000002E-2</v>
+        <v>3.9638300000000001E-2</v>
       </c>
       <c r="AJ17" s="161">
         <f>AA17*1.72+115*0.012*AB17</f>
@@ -11886,15 +11887,15 @@
       </c>
       <c r="AM17" s="161">
         <f t="shared" si="3"/>
-        <v>2.1062423702000004</v>
-      </c>
-      <c r="AN17" s="164">
+        <v>2.3825821702000001</v>
+      </c>
+      <c r="AN17" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="164">
         <f t="shared" si="4"/>
-        <v>9.9841305300000007E-7</v>
-      </c>
-      <c r="AO17" s="164">
-        <f t="shared" si="5"/>
-        <v>3.1593635553000013E-5</v>
+        <v>3.5738732553000006E-5</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -11994,7 +11995,7 @@
         <v>4.6000000000000006E-2</v>
       </c>
       <c r="AD18" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AE18" s="4">
         <v>5</v>
@@ -12003,11 +12004,11 @@
       <c r="AG18" s="4"/>
       <c r="AH18" s="161">
         <f>AD18*I18+AC18</f>
-        <v>0.14516500000000002</v>
+        <v>0.39638299999999999</v>
       </c>
       <c r="AI18" s="195">
         <f>AH18*0.1</f>
-        <v>1.4516500000000002E-2</v>
+        <v>3.9638300000000001E-2</v>
       </c>
       <c r="AJ18" s="161">
         <f>AA18*1.72+115*0.012*AB18</f>
@@ -12023,15 +12024,15 @@
       </c>
       <c r="AM18" s="161">
         <f t="shared" si="3"/>
-        <v>2.0401635654160004</v>
-      </c>
-      <c r="AN18" s="164">
+        <v>2.3165033654160001</v>
+      </c>
+      <c r="AN18" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="164">
         <f t="shared" si="4"/>
-        <v>6.8694321779999998E-9</v>
-      </c>
-      <c r="AO18" s="164">
-        <f t="shared" si="5"/>
-        <v>2.9072330807178009E-5</v>
+        <v>3.3010172957178003E-5</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -12129,7 +12130,7 @@
         <v>4.6000000000000006E-2</v>
       </c>
       <c r="AD19" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AE19" s="4">
         <v>5</v>
@@ -12138,11 +12139,11 @@
       <c r="AG19" s="4"/>
       <c r="AH19" s="161">
         <f>AD19*I19+AC19</f>
-        <v>0.14516500000000002</v>
+        <v>0.39638299999999999</v>
       </c>
       <c r="AI19" s="195">
         <f>AH19*0.1</f>
-        <v>1.4516500000000002E-2</v>
+        <v>3.9638300000000001E-2</v>
       </c>
       <c r="AJ19" s="161">
         <f>AA19*1.72+115*0.012*AB19</f>
@@ -12158,15 +12159,15 @@
       </c>
       <c r="AM19" s="161">
         <f t="shared" si="3"/>
-        <v>0.65974532404000008</v>
-      </c>
-      <c r="AN19" s="164">
+        <v>0.9360851240400001</v>
+      </c>
+      <c r="AN19" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="164">
         <f t="shared" si="4"/>
-        <v>1.7280358829999993E-8</v>
-      </c>
-      <c r="AO19" s="164">
-        <f t="shared" si="5"/>
-        <v>1.7862604648383003E-4</v>
+        <v>2.5344504733383004E-4</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -12263,7 +12264,7 @@
         <v>0.53</v>
       </c>
       <c r="AD20" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AE20" s="3">
         <v>15</v>
@@ -12272,11 +12273,11 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="17">
         <f>AD20*I20+AC20</f>
-        <v>1.3302499999999999</v>
+        <v>2.8773999999999997</v>
       </c>
       <c r="AI20" s="180">
         <f>AH20*0.1</f>
-        <v>0.133025</v>
+        <v>0.28774</v>
       </c>
       <c r="AJ20" s="3">
         <f>AA20*1.72+115*0.012*AB20</f>
@@ -12292,15 +12293,15 @@
       </c>
       <c r="AM20" s="17">
         <f t="shared" ref="AM20:AM25" si="18">AL20+AK20+AJ20+AI20+AH20</f>
-        <v>6.6004134699999994</v>
-      </c>
-      <c r="AN20" s="3">
-        <f t="shared" ref="AN20:AN25" si="19">AL20*H20</f>
-        <v>1.0742769400000002E-6</v>
+        <v>8.302278470000001</v>
+      </c>
+      <c r="AN20" s="157">
+        <f t="shared" si="9"/>
+        <v>2.0000000000000003E-6</v>
       </c>
       <c r="AO20" s="181">
-        <f t="shared" ref="AO20:AO25" si="20">H20*AM20</f>
-        <v>1.3200826940000001E-5</v>
+        <f t="shared" ref="AO20:AO25" si="19">H20*AM20</f>
+        <v>1.6604556940000004E-5</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -12326,7 +12327,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H21" s="81">
-        <f t="shared" ref="H21:H25" si="21">E21*F21*G21</f>
+        <f t="shared" ref="H21:H25" si="20">E21*F21*G21</f>
         <v>1.9000000000000002E-6</v>
       </c>
       <c r="I21" s="79">
@@ -12399,7 +12400,7 @@
         <v>0.53</v>
       </c>
       <c r="AD21" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AE21" s="3">
         <v>15</v>
@@ -12408,18 +12409,18 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="17">
         <f>AD21*I21+AC21</f>
-        <v>1.3302499999999999</v>
+        <v>2.8773999999999997</v>
       </c>
       <c r="AI21" s="180">
-        <f t="shared" ref="AI21:AI22" si="22">AH21*0.1</f>
-        <v>0.133025</v>
+        <f t="shared" ref="AI21:AI22" si="21">AH21*0.1</f>
+        <v>0.28774</v>
       </c>
       <c r="AJ21" s="3">
-        <f t="shared" ref="AJ21:AJ22" si="23">AA21*1.72+115*0.012*AB21</f>
+        <f t="shared" ref="AJ21:AJ22" si="22">AA21*1.72+115*0.012*AB21</f>
         <v>4.82</v>
       </c>
       <c r="AK21" s="3">
-        <f t="shared" ref="AK21:AK22" si="24">AE21*0.1</f>
+        <f t="shared" ref="AK21:AK22" si="23">AE21*0.1</f>
         <v>1.5</v>
       </c>
       <c r="AL21" s="180">
@@ -12428,15 +12429,15 @@
       </c>
       <c r="AM21" s="17">
         <f t="shared" si="18"/>
-        <v>7.7843623655999998</v>
-      </c>
-      <c r="AN21" s="3">
+        <v>9.4862273656000013</v>
+      </c>
+      <c r="AN21" s="157">
+        <f t="shared" si="9"/>
+        <v>3.8000000000000005E-6</v>
+      </c>
+      <c r="AO21" s="181">
         <f t="shared" si="19"/>
-        <v>2.0659946400000002E-9</v>
-      </c>
-      <c r="AO21" s="181">
-        <f t="shared" si="20"/>
-        <v>1.4790288494640001E-5</v>
+        <v>1.8023831994640005E-5</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -12462,7 +12463,7 @@
         <v>0.90249999999999997</v>
       </c>
       <c r="H22" s="81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>3.6100000000000003E-5</v>
       </c>
       <c r="I22" s="79">
@@ -12531,7 +12532,7 @@
         <v>0.53</v>
       </c>
       <c r="AD22" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AE22" s="3">
         <v>15</v>
@@ -12543,15 +12544,15 @@
         <v>0.53</v>
       </c>
       <c r="AI22" s="180">
+        <f t="shared" si="21"/>
+        <v>5.3000000000000005E-2</v>
+      </c>
+      <c r="AJ22" s="3">
         <f t="shared" si="22"/>
-        <v>5.3000000000000005E-2</v>
-      </c>
-      <c r="AJ22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK22" s="3">
-        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="AL22" s="180">
@@ -12562,12 +12563,12 @@
         <f t="shared" si="18"/>
         <v>2.083143964</v>
       </c>
-      <c r="AN22" s="3">
+      <c r="AN22" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="181">
         <f t="shared" si="19"/>
-        <v>5.1971004000000007E-9</v>
-      </c>
-      <c r="AO22" s="181">
-        <f t="shared" si="20"/>
         <v>7.5201497100400001E-5</v>
       </c>
     </row>
@@ -12594,7 +12595,7 @@
         <v>0.05</v>
       </c>
       <c r="H23" s="81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="I23" s="79">
@@ -12668,7 +12669,7 @@
         <v>5.3000000000000005E-2</v>
       </c>
       <c r="AD23" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AE23" s="3">
         <v>5</v>
@@ -12677,11 +12678,11 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="17">
         <f>AD23*I23+AC23</f>
-        <v>0.133025</v>
+        <v>0.28774000000000005</v>
       </c>
       <c r="AI23" s="180">
         <f>AH23*0.1</f>
-        <v>1.3302500000000002E-2</v>
+        <v>2.8774000000000008E-2</v>
       </c>
       <c r="AJ23" s="3">
         <f>AA23*1.72+115*0.012*AB23</f>
@@ -12697,15 +12698,15 @@
       </c>
       <c r="AM23" s="17">
         <f t="shared" si="18"/>
-        <v>2.0800413470000003</v>
-      </c>
-      <c r="AN23" s="3">
+        <v>2.2502278470000001</v>
+      </c>
+      <c r="AN23" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO23" s="181">
         <f t="shared" si="19"/>
-        <v>1.0742769400000002E-6</v>
-      </c>
-      <c r="AO23" s="181">
-        <f t="shared" si="20"/>
-        <v>4.1600826940000012E-5</v>
+        <v>4.5004556940000003E-5</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -12731,7 +12732,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H24" s="81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1.9000000000000001E-5</v>
       </c>
       <c r="I24" s="79">
@@ -12805,7 +12806,7 @@
         <v>5.3000000000000005E-2</v>
       </c>
       <c r="AD24" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AE24" s="3">
         <v>5</v>
@@ -12814,11 +12815,11 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="17">
         <f>AD24*I24+AC24</f>
-        <v>0.133025</v>
+        <v>0.28774000000000005</v>
       </c>
       <c r="AI24" s="180">
         <f>AH24*0.1</f>
-        <v>1.3302500000000002E-2</v>
+        <v>2.8774000000000008E-2</v>
       </c>
       <c r="AJ24" s="3">
         <f>AA24*1.72+115*0.012*AB24</f>
@@ -12834,15 +12835,15 @@
       </c>
       <c r="AM24" s="17">
         <f t="shared" si="18"/>
-        <v>2.0267153270640001</v>
-      </c>
-      <c r="AN24" s="3">
+        <v>2.1969018270640004</v>
+      </c>
+      <c r="AN24" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO24" s="181">
         <f t="shared" si="19"/>
-        <v>7.3687142160000003E-9</v>
-      </c>
-      <c r="AO24" s="181">
-        <f t="shared" si="20"/>
-        <v>3.8507591214216007E-5</v>
+        <v>4.1741134714216012E-5</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -12868,7 +12869,7 @@
         <v>0.90249999999999997</v>
       </c>
       <c r="H25" s="81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>3.6099999999999999E-4</v>
       </c>
       <c r="I25" s="79">
@@ -12940,7 +12941,7 @@
         <v>5.3000000000000005E-2</v>
       </c>
       <c r="AD25" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AE25" s="3">
         <v>5</v>
@@ -12949,11 +12950,11 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="17">
         <f>AD25*I25+AC25</f>
-        <v>0.133025</v>
+        <v>0.28774000000000005</v>
       </c>
       <c r="AI25" s="180">
         <f>AH25*0.1</f>
-        <v>1.3302500000000002E-2</v>
+        <v>2.8774000000000008E-2</v>
       </c>
       <c r="AJ25" s="3">
         <f>AA25*1.72+115*0.012*AB25</f>
@@ -12969,15 +12970,15 @@
       </c>
       <c r="AM25" s="17">
         <f t="shared" si="18"/>
-        <v>0.64637884716000005</v>
-      </c>
-      <c r="AN25" s="3">
+        <v>0.81656534716000007</v>
+      </c>
+      <c r="AN25" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO25" s="181">
         <f t="shared" si="19"/>
-        <v>1.8536324759999996E-8</v>
-      </c>
-      <c r="AO25" s="181">
-        <f t="shared" si="20"/>
-        <v>2.3334276382476002E-4</v>
+        <v>2.9478009032476001E-4</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -13074,7 +13075,7 @@
         <v>0.51</v>
       </c>
       <c r="AD26" s="6">
-        <v>1.4999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE26" s="6">
         <v>15</v>
@@ -13083,11 +13084,11 @@
       <c r="AG26" s="6"/>
       <c r="AH26" s="18">
         <f>AD26*I26+AC26</f>
-        <v>1.1484000000000001</v>
+        <v>3.3615200000000005</v>
       </c>
       <c r="AI26" s="182">
         <f>AH26*0.1</f>
-        <v>0.11484000000000001</v>
+        <v>0.33615200000000006</v>
       </c>
       <c r="AJ26" s="6">
         <f>AA26*1.72+115*0.012*AB26</f>
@@ -13102,16 +13103,16 @@
         <v>0.42850259200000002</v>
       </c>
       <c r="AM26" s="18">
-        <f t="shared" ref="AM26:AM31" si="25">AL26+AK26+AJ26+AI26+AH26</f>
-        <v>6.2917425920000003</v>
-      </c>
-      <c r="AN26" s="6">
-        <f t="shared" ref="AN26:AN31" si="26">AL26*H26</f>
-        <v>4.2850259200000009E-7</v>
+        <f t="shared" ref="AM26:AM31" si="24">AL26+AK26+AJ26+AI26+AH26</f>
+        <v>8.7261745920000013</v>
+      </c>
+      <c r="AN26" s="157">
+        <f t="shared" si="9"/>
+        <v>1.0000000000000002E-6</v>
       </c>
       <c r="AO26" s="183">
-        <f t="shared" ref="AO26:AO31" si="27">H26*AM26</f>
-        <v>6.2917425920000014E-6</v>
+        <f t="shared" ref="AO26:AO31" si="25">H26*AM26</f>
+        <v>8.7261745920000023E-6</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -13137,7 +13138,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H27" s="104">
-        <f t="shared" ref="H27:H31" si="28">E27*F27*G27</f>
+        <f t="shared" ref="H27:H31" si="26">E27*F27*G27</f>
         <v>9.5000000000000012E-7</v>
       </c>
       <c r="I27" s="101">
@@ -13210,7 +13211,7 @@
         <v>0.51</v>
       </c>
       <c r="AD27" s="6">
-        <v>1.4999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE27" s="6">
         <v>15</v>
@@ -13219,18 +13220,18 @@
       <c r="AG27" s="6"/>
       <c r="AH27" s="18">
         <f>AD27*I27+AC27</f>
-        <v>1.1484000000000001</v>
+        <v>3.3615200000000005</v>
       </c>
       <c r="AI27" s="182">
-        <f t="shared" ref="AI27:AI28" si="29">AH27*0.1</f>
-        <v>0.11484000000000001</v>
+        <f t="shared" ref="AI27:AI28" si="27">AH27*0.1</f>
+        <v>0.33615200000000006</v>
       </c>
       <c r="AJ27" s="6">
-        <f t="shared" ref="AJ27:AJ28" si="30">AA27*1.72+115*0.012*AB27</f>
+        <f t="shared" ref="AJ27:AJ28" si="28">AA27*1.72+115*0.012*AB27</f>
         <v>4.82</v>
       </c>
       <c r="AK27" s="6">
-        <f t="shared" ref="AK27:AK28" si="31">AE27*0.1</f>
+        <f t="shared" ref="AK27:AK28" si="29">AE27*0.1</f>
         <v>1.5</v>
       </c>
       <c r="AL27" s="182">
@@ -13238,16 +13239,16 @@
         <v>1.0873656000000001E-3</v>
       </c>
       <c r="AM27" s="18">
+        <f t="shared" si="24"/>
+        <v>10.018759365600001</v>
+      </c>
+      <c r="AN27" s="157">
+        <f t="shared" si="9"/>
+        <v>1.9000000000000002E-6</v>
+      </c>
+      <c r="AO27" s="183">
         <f t="shared" si="25"/>
-        <v>7.5843273656000001</v>
-      </c>
-      <c r="AN27" s="6">
-        <f t="shared" si="26"/>
-        <v>1.0329973200000001E-9</v>
-      </c>
-      <c r="AO27" s="183">
-        <f t="shared" si="27"/>
-        <v>7.2051109973200012E-6</v>
+        <v>9.5178213973200024E-6</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -13273,7 +13274,7 @@
         <v>0.90249999999999997</v>
       </c>
       <c r="H28" s="104">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1.8050000000000002E-5</v>
       </c>
       <c r="I28" s="101">
@@ -13342,7 +13343,7 @@
         <v>0.51</v>
       </c>
       <c r="AD28" s="6">
-        <v>1.4999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE28" s="6">
         <v>15</v>
@@ -13354,15 +13355,15 @@
         <v>0.51</v>
       </c>
       <c r="AI28" s="182">
+        <f t="shared" si="27"/>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="AJ28" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="6">
         <f t="shared" si="29"/>
-        <v>5.1000000000000004E-2</v>
-      </c>
-      <c r="AJ28" s="6">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AK28" s="6">
-        <f t="shared" si="31"/>
         <v>1.5</v>
       </c>
       <c r="AL28" s="182">
@@ -13370,15 +13371,15 @@
         <v>1.4396400000000001E-4</v>
       </c>
       <c r="AM28" s="18">
+        <f t="shared" si="24"/>
+        <v>2.0611439640000002</v>
+      </c>
+      <c r="AN28" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO28" s="183">
         <f t="shared" si="25"/>
-        <v>2.0611439640000002</v>
-      </c>
-      <c r="AN28" s="6">
-        <f t="shared" si="26"/>
-        <v>2.5985502000000004E-9</v>
-      </c>
-      <c r="AO28" s="183">
-        <f t="shared" si="27"/>
         <v>3.7203648550200011E-5</v>
       </c>
     </row>
@@ -13405,7 +13406,7 @@
         <v>0.05</v>
       </c>
       <c r="H29" s="104">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="I29" s="101">
@@ -13479,7 +13480,7 @@
         <v>5.1000000000000004E-2</v>
       </c>
       <c r="AD29" s="6">
-        <v>1.4999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE29" s="6">
         <v>5</v>
@@ -13488,11 +13489,11 @@
       <c r="AG29" s="6"/>
       <c r="AH29" s="18">
         <f>AD29*I29+AC29</f>
-        <v>0.11484000000000001</v>
+        <v>0.33615200000000001</v>
       </c>
       <c r="AI29" s="182">
         <f>AH29*0.1</f>
-        <v>1.1484000000000001E-2</v>
+        <v>3.3615200000000005E-2</v>
       </c>
       <c r="AJ29" s="6">
         <f>AA29*1.72+115*0.012*AB29</f>
@@ -13507,16 +13508,16 @@
         <v>4.2850259200000004E-2</v>
       </c>
       <c r="AM29" s="18">
+        <f t="shared" si="24"/>
+        <v>2.2926174592000002</v>
+      </c>
+      <c r="AN29" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO29" s="183">
         <f t="shared" si="25"/>
-        <v>2.0491742592</v>
-      </c>
-      <c r="AN29" s="6">
-        <f t="shared" si="26"/>
-        <v>4.2850259200000009E-7</v>
-      </c>
-      <c r="AO29" s="183">
-        <f t="shared" si="27"/>
-        <v>2.0491742592000001E-5</v>
+        <v>2.2926174592000004E-5</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -13542,7 +13543,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H30" s="104">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>9.5000000000000005E-6</v>
       </c>
       <c r="I30" s="101">
@@ -13616,7 +13617,7 @@
         <v>5.1000000000000004E-2</v>
       </c>
       <c r="AD30" s="6">
-        <v>1.4999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE30" s="6">
         <v>5</v>
@@ -13625,11 +13626,11 @@
       <c r="AG30" s="6"/>
       <c r="AH30" s="18">
         <f>AD30*I30+AC30</f>
-        <v>0.11484000000000001</v>
+        <v>0.33615200000000001</v>
       </c>
       <c r="AI30" s="182">
         <f>AH30*0.1</f>
-        <v>1.1484000000000001E-2</v>
+        <v>3.3615200000000005E-2</v>
       </c>
       <c r="AJ30" s="6">
         <f>AA30*1.72+115*0.012*AB30</f>
@@ -13644,16 +13645,16 @@
         <v>3.1171147200000001E-4</v>
       </c>
       <c r="AM30" s="18">
+        <f t="shared" si="24"/>
+        <v>2.2500789114720003</v>
+      </c>
+      <c r="AN30" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO30" s="183">
         <f t="shared" si="25"/>
-        <v>2.0066357114720001</v>
-      </c>
-      <c r="AN30" s="6">
-        <f t="shared" si="26"/>
-        <v>2.9612589840000004E-9</v>
-      </c>
-      <c r="AO30" s="183">
-        <f t="shared" si="27"/>
-        <v>1.9063039258984003E-5</v>
+        <v>2.1375749658984003E-5</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -13679,7 +13680,7 @@
         <v>0.90249999999999997</v>
       </c>
       <c r="H31" s="104">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1.805E-4</v>
       </c>
       <c r="I31" s="101">
@@ -13751,7 +13752,7 @@
         <v>5.1000000000000004E-2</v>
       </c>
       <c r="AD31" s="6">
-        <v>1.4999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE31" s="6">
         <v>5</v>
@@ -13760,11 +13761,11 @@
       <c r="AG31" s="6"/>
       <c r="AH31" s="18">
         <f>AD31*I31+AC31</f>
-        <v>0.11484000000000001</v>
+        <v>0.33615200000000001</v>
       </c>
       <c r="AI31" s="182">
         <f>AH31*0.1</f>
-        <v>1.1484000000000001E-2</v>
+        <v>3.3615200000000005E-2</v>
       </c>
       <c r="AJ31" s="6">
         <f>AA31*1.72+115*0.012*AB31</f>
@@ -13779,16 +13780,16 @@
         <v>4.1269679999999994E-5</v>
       </c>
       <c r="AM31" s="18">
+        <f t="shared" si="24"/>
+        <v>0.86980846967999992</v>
+      </c>
+      <c r="AN31" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO31" s="183">
         <f t="shared" si="25"/>
-        <v>0.62636526968000006</v>
-      </c>
-      <c r="AN31" s="6">
-        <f t="shared" si="26"/>
-        <v>7.449177239999999E-9</v>
-      </c>
-      <c r="AO31" s="183">
-        <f t="shared" si="27"/>
-        <v>1.1305893117724001E-4</v>
+        <v>1.5700042877723997E-4</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -13913,15 +13914,15 @@
         <v>2.0088072640000001</v>
       </c>
       <c r="AM32" s="185">
-        <f t="shared" ref="AM32:AM43" si="32">AL32+AK32+AJ32+AI32+AH32</f>
+        <f t="shared" ref="AM32:AM43" si="30">AL32+AK32+AJ32+AI32+AH32</f>
         <v>10.175887264</v>
       </c>
-      <c r="AN32" s="184">
-        <f t="shared" ref="AN32:AN43" si="33">AL32*H32</f>
-        <v>2.0088072640000002E-6</v>
+      <c r="AN32" s="157">
+        <f t="shared" si="9"/>
+        <v>1.0000000000000002E-6</v>
       </c>
       <c r="AO32" s="187">
-        <f t="shared" ref="AO32:AO43" si="34">H32*AM32</f>
+        <f t="shared" ref="AO32:AO43" si="31">H32*AM32</f>
         <v>1.0175887264000002E-5</v>
       </c>
     </row>
@@ -13948,7 +13949,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H33" s="171">
-        <f t="shared" ref="H33:H37" si="35">E33*F33*G33</f>
+        <f t="shared" ref="H33:H37" si="32">E33*F33*G33</f>
         <v>9.5000000000000012E-7</v>
       </c>
       <c r="I33" s="168">
@@ -14033,15 +14034,15 @@
         <v>3.2427999999999999</v>
       </c>
       <c r="AI33" s="186">
-        <f t="shared" ref="AI33:AI34" si="36">AH33*0.1</f>
+        <f t="shared" ref="AI33:AI34" si="33">AH33*0.1</f>
         <v>0.32428000000000001</v>
       </c>
       <c r="AJ33" s="184">
-        <f t="shared" ref="AJ33:AJ34" si="37">AA33*1.72+115*0.012*AB33</f>
+        <f t="shared" ref="AJ33:AJ34" si="34">AA33*1.72+115*0.012*AB33</f>
         <v>6.54</v>
       </c>
       <c r="AK33" s="184">
-        <f t="shared" ref="AK33:AK34" si="38">AE33*0.1</f>
+        <f t="shared" ref="AK33:AK34" si="35">AE33*0.1</f>
         <v>1.5</v>
       </c>
       <c r="AL33" s="186">
@@ -14049,15 +14050,15 @@
         <v>1.4498207999999999E-3</v>
       </c>
       <c r="AM33" s="185">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>11.608529820800001</v>
       </c>
-      <c r="AN33" s="184">
-        <f t="shared" si="33"/>
-        <v>1.3773297600000002E-9</v>
+      <c r="AN33" s="157">
+        <f t="shared" si="9"/>
+        <v>2.8500000000000002E-6</v>
       </c>
       <c r="AO33" s="187">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>1.1028103329760003E-5</v>
       </c>
     </row>
@@ -14084,7 +14085,7 @@
         <v>0.90249999999999997</v>
       </c>
       <c r="H34" s="171">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>1.8050000000000002E-5</v>
       </c>
       <c r="I34" s="168">
@@ -14165,15 +14166,15 @@
         <v>0.25</v>
       </c>
       <c r="AI34" s="186">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AJ34" s="184">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AK34" s="184">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>1.5</v>
       </c>
       <c r="AL34" s="186">
@@ -14181,15 +14182,15 @@
         <v>1.9195199999999998E-4</v>
       </c>
       <c r="AM34" s="185">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>1.7751919519999999</v>
       </c>
-      <c r="AN34" s="184">
-        <f t="shared" si="33"/>
-        <v>3.4647335999999998E-9</v>
+      <c r="AN34" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO34" s="187">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>3.2042214733600004E-5</v>
       </c>
     </row>
@@ -14216,7 +14217,7 @@
         <v>0.05</v>
       </c>
       <c r="H35" s="171">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="I35" s="168">
@@ -14317,15 +14318,15 @@
         <v>0.40176145280000009</v>
       </c>
       <c r="AM35" s="185">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>2.9676774527999998</v>
       </c>
-      <c r="AN35" s="184">
-        <f t="shared" si="33"/>
-        <v>4.0176145280000013E-6</v>
+      <c r="AN35" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO35" s="187">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>2.9676774527999999E-5</v>
       </c>
     </row>
@@ -14352,7 +14353,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H36" s="171">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>9.5000000000000005E-6</v>
       </c>
       <c r="I36" s="168">
@@ -14454,15 +14455,15 @@
         <v>5.4368280000000003E-4</v>
       </c>
       <c r="AM36" s="185">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>2.5664596828000001</v>
       </c>
-      <c r="AN36" s="184">
-        <f t="shared" si="33"/>
-        <v>5.164986600000001E-9</v>
+      <c r="AN36" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO36" s="187">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>2.4381366986600003E-5</v>
       </c>
     </row>
@@ -14489,7 +14490,7 @@
         <v>0.90249999999999997</v>
       </c>
       <c r="H37" s="171">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>1.805E-4</v>
       </c>
       <c r="I37" s="168">
@@ -14589,15 +14590,15 @@
         <v>7.1981999999999989E-5</v>
       </c>
       <c r="AM37" s="185">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>1.1859879819999999</v>
       </c>
-      <c r="AN37" s="184">
-        <f t="shared" si="33"/>
-        <v>1.2992750999999998E-8</v>
+      <c r="AN37" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO37" s="187">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>2.1407083075099996E-4</v>
       </c>
     </row>
@@ -14695,7 +14696,7 @@
         <v>0.36</v>
       </c>
       <c r="AD38" s="154">
-        <v>1.4999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AE38" s="154">
         <v>15</v>
@@ -14704,11 +14705,11 @@
       <c r="AG38" s="154"/>
       <c r="AH38" s="188">
         <f>AD38*I38+AC38</f>
-        <v>0.82799999999999996</v>
+        <v>1.5455999999999999</v>
       </c>
       <c r="AI38" s="189">
         <f>AH38*0.1</f>
-        <v>8.2799999999999999E-2</v>
+        <v>0.15456</v>
       </c>
       <c r="AJ38" s="154">
         <f>AA38*1.72+115*0.012*AB38</f>
@@ -14723,16 +14724,16 @@
         <v>0.31412783999999999</v>
       </c>
       <c r="AM38" s="188">
-        <f t="shared" si="32"/>
-        <v>5.82492784</v>
-      </c>
-      <c r="AN38" s="154">
-        <f t="shared" si="33"/>
-        <v>1.0994474400000002E-6</v>
+        <f t="shared" si="30"/>
+        <v>6.6142878399999994</v>
+      </c>
+      <c r="AN38" s="157">
+        <f t="shared" si="9"/>
+        <v>3.5000000000000004E-6</v>
       </c>
       <c r="AO38" s="190">
-        <f t="shared" si="34"/>
-        <v>2.0387247440000001E-5</v>
+        <f t="shared" si="31"/>
+        <v>2.3150007440000002E-5</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -14758,7 +14759,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H39" s="100">
-        <f t="shared" ref="H39:H43" si="39">E39*F39*G39</f>
+        <f t="shared" ref="H39:H43" si="36">E39*F39*G39</f>
         <v>3.3250000000000004E-6</v>
       </c>
       <c r="I39" s="97">
@@ -14831,7 +14832,7 @@
         <v>0.36</v>
       </c>
       <c r="AD39" s="154">
-        <v>1.4999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AE39" s="154">
         <v>15</v>
@@ -14840,18 +14841,18 @@
       <c r="AG39" s="154"/>
       <c r="AH39" s="188">
         <f>AD39*I39+AC39</f>
-        <v>0.82799999999999996</v>
+        <v>1.5455999999999999</v>
       </c>
       <c r="AI39" s="189">
-        <f t="shared" ref="AI39:AI40" si="40">AH39*0.1</f>
-        <v>8.2799999999999999E-2</v>
+        <f t="shared" ref="AI39:AI40" si="37">AH39*0.1</f>
+        <v>0.15456</v>
       </c>
       <c r="AJ39" s="154">
-        <f t="shared" ref="AJ39:AJ40" si="41">AA39*1.72+115*0.012*AB39</f>
+        <f t="shared" ref="AJ39:AJ40" si="38">AA39*1.72+115*0.012*AB39</f>
         <v>3.1</v>
       </c>
       <c r="AK39" s="154">
-        <f t="shared" ref="AK39:AK40" si="42">AE39*0.1</f>
+        <f t="shared" ref="AK39:AK40" si="39">AE39*0.1</f>
         <v>1.5</v>
       </c>
       <c r="AL39" s="189">
@@ -14859,16 +14860,16 @@
         <v>9.0613799999999991E-4</v>
       </c>
       <c r="AM39" s="188">
-        <f t="shared" si="32"/>
-        <v>5.5117061380000001</v>
-      </c>
-      <c r="AN39" s="154">
-        <f t="shared" si="33"/>
-        <v>3.0129088500000001E-9</v>
+        <f t="shared" si="30"/>
+        <v>6.3010661379999995</v>
+      </c>
+      <c r="AN39" s="157">
+        <f t="shared" si="9"/>
+        <v>3.3250000000000004E-6</v>
       </c>
       <c r="AO39" s="190">
-        <f t="shared" si="34"/>
-        <v>1.8326422908850003E-5</v>
+        <f t="shared" si="31"/>
+        <v>2.0951044908850001E-5</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -14894,7 +14895,7 @@
         <v>0.90249999999999997</v>
       </c>
       <c r="H40" s="100">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>6.3175000000000004E-5</v>
       </c>
       <c r="I40" s="97">
@@ -14963,7 +14964,7 @@
         <v>0.36</v>
       </c>
       <c r="AD40" s="154">
-        <v>1.4999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AE40" s="154">
         <v>15</v>
@@ -14975,15 +14976,15 @@
         <v>0.36</v>
       </c>
       <c r="AI40" s="189">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="AJ40" s="154">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AK40" s="154">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>1.5</v>
       </c>
       <c r="AL40" s="189">
@@ -14991,15 +14992,15 @@
         <v>1.1996999999999999E-4</v>
       </c>
       <c r="AM40" s="188">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>1.89611997</v>
       </c>
-      <c r="AN40" s="154">
-        <f t="shared" si="33"/>
-        <v>7.5791047500000007E-9</v>
+      <c r="AN40" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO40" s="190">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>1.1978737910475E-4</v>
       </c>
     </row>
@@ -15026,7 +15027,7 @@
         <v>0.05</v>
       </c>
       <c r="H41" s="100">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>3.5000000000000004E-5</v>
       </c>
       <c r="I41" s="97">
@@ -15100,7 +15101,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="AD41" s="154">
-        <v>1.4999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AE41" s="154">
         <v>5</v>
@@ -15109,11 +15110,11 @@
       <c r="AG41" s="154"/>
       <c r="AH41" s="188">
         <f>AD41*I41+AC41</f>
-        <v>8.2799999999999999E-2</v>
+        <v>0.15456</v>
       </c>
       <c r="AI41" s="189">
         <f>AH41*0.1</f>
-        <v>8.2800000000000009E-3</v>
+        <v>1.5456000000000001E-2</v>
       </c>
       <c r="AJ41" s="154">
         <f>AA41*1.72+115*0.012*AB41</f>
@@ -15128,16 +15129,16 @@
         <v>3.1412783999999999E-2</v>
       </c>
       <c r="AM41" s="188">
-        <f t="shared" si="32"/>
-        <v>2.0024927840000002</v>
-      </c>
-      <c r="AN41" s="154">
-        <f t="shared" si="33"/>
-        <v>1.0994474400000002E-6</v>
+        <f t="shared" si="30"/>
+        <v>2.0814287839999999</v>
+      </c>
+      <c r="AN41" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO41" s="190">
-        <f t="shared" si="34"/>
-        <v>7.0087247440000017E-5</v>
+        <f t="shared" si="31"/>
+        <v>7.285000744E-5</v>
       </c>
     </row>
     <row r="42" spans="1:41">
@@ -15163,7 +15164,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H42" s="100">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>3.3250000000000002E-5</v>
       </c>
       <c r="I42" s="97">
@@ -15237,7 +15238,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="AD42" s="154">
-        <v>1.4999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AE42" s="154">
         <v>5</v>
@@ -15246,11 +15247,11 @@
       <c r="AG42" s="154"/>
       <c r="AH42" s="188">
         <f>AD42*I42+AC42</f>
-        <v>8.2799999999999999E-2</v>
+        <v>0.15456</v>
       </c>
       <c r="AI42" s="189">
         <f>AH42*0.1</f>
-        <v>8.2800000000000009E-3</v>
+        <v>1.5456000000000001E-2</v>
       </c>
       <c r="AJ42" s="154">
         <f>AA42*1.72+115*0.012*AB42</f>
@@ -15265,16 +15266,16 @@
         <v>2.28346776E-4</v>
       </c>
       <c r="AM42" s="188">
-        <f t="shared" si="32"/>
-        <v>1.9713083467760002</v>
-      </c>
-      <c r="AN42" s="154">
-        <f t="shared" si="33"/>
-        <v>7.592530302E-9</v>
+        <f t="shared" si="30"/>
+        <v>2.0502443467760001</v>
+      </c>
+      <c r="AN42" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO42" s="190">
-        <f t="shared" si="34"/>
-        <v>6.5546002530302017E-5</v>
+        <f t="shared" si="31"/>
+        <v>6.8170624530302005E-5</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -15300,7 +15301,7 @@
         <v>0.90249999999999997</v>
       </c>
       <c r="H43" s="100">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>6.3174999999999993E-4</v>
       </c>
       <c r="I43" s="97">
@@ -15372,7 +15373,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="AD43" s="154">
-        <v>1.4999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AE43" s="154">
         <v>5</v>
@@ -15381,11 +15382,11 @@
       <c r="AG43" s="154"/>
       <c r="AH43" s="188">
         <f>AD43*I43+AC43</f>
-        <v>8.2799999999999999E-2</v>
+        <v>0.15456</v>
       </c>
       <c r="AI43" s="189">
         <f>AH43*0.1</f>
-        <v>8.2800000000000009E-3</v>
+        <v>1.5456000000000001E-2</v>
       </c>
       <c r="AJ43" s="154">
         <f>AA43*1.72+115*0.012*AB43</f>
@@ -15400,16 +15401,16 @@
         <v>3.0232439999999995E-5</v>
       </c>
       <c r="AM43" s="188">
-        <f t="shared" si="32"/>
-        <v>0.59111023243999994</v>
-      </c>
-      <c r="AN43" s="154">
-        <f t="shared" si="33"/>
-        <v>1.9099343969999994E-8</v>
+        <f t="shared" si="30"/>
+        <v>0.67004623244000006</v>
+      </c>
+      <c r="AN43" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO43" s="190">
-        <f t="shared" si="34"/>
-        <v>3.7343388934396994E-4</v>
+        <f t="shared" si="31"/>
+        <v>4.2330170734396997E-4</v>
       </c>
     </row>
     <row r="44" spans="1:41">
@@ -15450,15 +15451,15 @@
         <v>80</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" ref="L44:L49" si="43">A44</f>
+        <f t="shared" ref="L44:L49" si="40">A44</f>
         <v>С61</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" ref="M44:M49" si="44">B44</f>
+        <f t="shared" ref="M44:M49" si="41">B44</f>
         <v>Емкость Е-24</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" ref="N44:N49" si="45">D44</f>
+        <f t="shared" ref="N44:N49" si="42">D44</f>
         <v>Полное-пожар</v>
       </c>
       <c r="O44">
@@ -15507,7 +15508,7 @@
         <v>0.15</v>
       </c>
       <c r="AD44" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="AE44" s="9">
         <v>15</v>
@@ -15516,11 +15517,11 @@
       <c r="AG44" s="9"/>
       <c r="AH44" s="29">
         <f>AD44*I44+AC44</f>
-        <v>0.20895</v>
+        <v>0.35043000000000002</v>
       </c>
       <c r="AI44" s="191">
         <f>AH44*0.1</f>
-        <v>2.0895E-2</v>
+        <v>3.5043000000000005E-2</v>
       </c>
       <c r="AJ44" s="9">
         <f>AA44*1.72+115*0.012*AB44</f>
@@ -15535,16 +15536,16 @@
         <v>3.9568026000000006E-2</v>
       </c>
       <c r="AM44" s="29">
-        <f t="shared" ref="AM44:AM49" si="46">AL44+AK44+AJ44+AI44+AH44</f>
-        <v>4.8694130260000001</v>
-      </c>
-      <c r="AN44" s="9">
-        <f t="shared" ref="AN44:AN49" si="47">AL44*H44</f>
-        <v>3.9568026000000016E-8</v>
+        <f t="shared" ref="AM44:AM49" si="43">AL44+AK44+AJ44+AI44+AH44</f>
+        <v>5.0250410260000002</v>
+      </c>
+      <c r="AN44" s="157">
+        <f t="shared" si="9"/>
+        <v>1.0000000000000002E-6</v>
       </c>
       <c r="AO44" s="192">
-        <f t="shared" ref="AO44:AO49" si="48">H44*AM44</f>
-        <v>4.8694130260000008E-6</v>
+        <f t="shared" ref="AO44:AO49" si="44">H44*AM44</f>
+        <v>5.0250410260000014E-6</v>
       </c>
     </row>
     <row r="45" spans="1:41">
@@ -15570,7 +15571,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H45" s="88">
-        <f t="shared" ref="H45:H49" si="49">E45*F45*G45</f>
+        <f t="shared" ref="H45:H49" si="45">E45*F45*G45</f>
         <v>9.5000000000000012E-7</v>
       </c>
       <c r="I45" s="175">
@@ -15586,15 +15587,15 @@
         <v>2.8799999999999996E-2</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>С62</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>Емкость Е-24</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>Полное-взрыв</v>
       </c>
       <c r="O45" t="s">
@@ -15643,7 +15644,7 @@
         <v>0.15</v>
       </c>
       <c r="AD45" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="AE45" s="9">
         <v>15</v>
@@ -15652,18 +15653,18 @@
       <c r="AG45" s="9"/>
       <c r="AH45" s="29">
         <f>AD45*I45+AC45</f>
-        <v>0.20895</v>
+        <v>0.35043000000000002</v>
       </c>
       <c r="AI45" s="191">
-        <f t="shared" ref="AI45:AI46" si="50">AH45*0.1</f>
-        <v>2.0895E-2</v>
+        <f t="shared" ref="AI45:AI46" si="46">AH45*0.1</f>
+        <v>3.5043000000000005E-2</v>
       </c>
       <c r="AJ45" s="9">
-        <f t="shared" ref="AJ45:AJ46" si="51">AA45*1.72+115*0.012*AB45</f>
+        <f t="shared" ref="AJ45:AJ46" si="47">AA45*1.72+115*0.012*AB45</f>
         <v>3.1</v>
       </c>
       <c r="AK45" s="9">
-        <f t="shared" ref="AK45:AK46" si="52">AE45*0.1</f>
+        <f t="shared" ref="AK45:AK46" si="48">AE45*0.1</f>
         <v>1.5</v>
       </c>
       <c r="AL45" s="191">
@@ -15671,16 +15672,16 @@
         <v>2.8996415999999999E-4</v>
       </c>
       <c r="AM45" s="29">
-        <f t="shared" si="46"/>
-        <v>4.83013496416</v>
-      </c>
-      <c r="AN45" s="9">
-        <f t="shared" si="47"/>
-        <v>2.7546595200000002E-10</v>
+        <f t="shared" si="43"/>
+        <v>4.9857629641600001</v>
+      </c>
+      <c r="AN45" s="157">
+        <f t="shared" si="9"/>
+        <v>9.5000000000000012E-7</v>
       </c>
       <c r="AO45" s="192">
-        <f t="shared" si="48"/>
-        <v>4.5886282159520006E-6</v>
+        <f t="shared" si="44"/>
+        <v>4.7364748159520008E-6</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -15706,7 +15707,7 @@
         <v>0.90249999999999997</v>
       </c>
       <c r="H46" s="88">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.8050000000000002E-5</v>
       </c>
       <c r="I46" s="175">
@@ -15720,15 +15721,15 @@
         <v>4</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>С63</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>Емкость Е-24</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>Полное-ликвидация</v>
       </c>
       <c r="O46" t="s">
@@ -15777,7 +15778,7 @@
         <v>0.15</v>
       </c>
       <c r="AD46" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="AE46" s="9">
         <v>15</v>
@@ -15789,15 +15790,15 @@
         <v>0.15</v>
       </c>
       <c r="AI46" s="191">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AJ46" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AK46" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>1.5</v>
       </c>
       <c r="AL46" s="191">
@@ -15805,15 +15806,15 @@
         <v>3.8390399999999991E-5</v>
       </c>
       <c r="AM46" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>1.6650383903999999</v>
       </c>
-      <c r="AN46" s="9">
-        <f t="shared" si="47"/>
-        <v>6.9294671999999994E-10</v>
+      <c r="AN46" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO46" s="192">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>3.0053942946720003E-5</v>
       </c>
     </row>
@@ -15840,7 +15841,7 @@
         <v>0.05</v>
       </c>
       <c r="H47" s="88">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="I47" s="175">
@@ -15856,15 +15857,15 @@
         <v>8</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>С64</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>Емкость Е-24</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>Частичное-пожар</v>
       </c>
       <c r="O47">
@@ -15914,7 +15915,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AD47" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="AE47" s="9">
         <v>5</v>
@@ -15923,11 +15924,11 @@
       <c r="AG47" s="9"/>
       <c r="AH47" s="29">
         <f>AD47*I47+AC47</f>
-        <v>2.0895E-2</v>
+        <v>3.5042999999999998E-2</v>
       </c>
       <c r="AI47" s="191">
         <f>AH47*0.1</f>
-        <v>2.0895000000000002E-3</v>
+        <v>3.5043000000000001E-3</v>
       </c>
       <c r="AJ47" s="9">
         <f>AA47*1.72+115*0.012*AB47</f>
@@ -15942,16 +15943,16 @@
         <v>3.9568025999999999E-3</v>
       </c>
       <c r="AM47" s="29">
-        <f t="shared" si="46"/>
-        <v>1.9069413026000004</v>
-      </c>
-      <c r="AN47" s="9">
-        <f t="shared" si="47"/>
-        <v>3.9568026000000002E-8</v>
+        <f t="shared" si="43"/>
+        <v>1.9225041026</v>
+      </c>
+      <c r="AN47" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO47" s="192">
-        <f t="shared" si="48"/>
-        <v>1.9069413026000005E-5</v>
+        <f t="shared" si="44"/>
+        <v>1.9225041026000004E-5</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -15977,7 +15978,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H48" s="88">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>9.5000000000000005E-6</v>
       </c>
       <c r="I48" s="175">
@@ -15993,15 +15994,15 @@
         <v>2.8799999999999997E-3</v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>С65</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>Емкость Е-24</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>Частичное-вспышка</v>
       </c>
       <c r="O48" t="s">
@@ -16051,7 +16052,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AD48" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="AE48" s="9">
         <v>5</v>
@@ -16060,11 +16061,11 @@
       <c r="AG48" s="9"/>
       <c r="AH48" s="29">
         <f>AD48*I48+AC48</f>
-        <v>2.0895E-2</v>
+        <v>3.5042999999999998E-2</v>
       </c>
       <c r="AI48" s="191">
         <f>AH48*0.1</f>
-        <v>2.0895000000000002E-3</v>
+        <v>3.5043000000000001E-3</v>
       </c>
       <c r="AJ48" s="9">
         <f>AA48*1.72+115*0.012*AB48</f>
@@ -16079,16 +16080,16 @@
         <v>2.8996415999999999E-5</v>
       </c>
       <c r="AM48" s="29">
-        <f t="shared" si="46"/>
-        <v>1.9030134964160004</v>
-      </c>
-      <c r="AN48" s="9">
-        <f t="shared" si="47"/>
-        <v>2.7546595200000002E-10</v>
+        <f t="shared" si="43"/>
+        <v>1.918576296416</v>
+      </c>
+      <c r="AN48" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO48" s="192">
-        <f t="shared" si="48"/>
-        <v>1.8078628215952005E-5</v>
+        <f t="shared" si="44"/>
+        <v>1.8226474815952003E-5</v>
       </c>
     </row>
     <row r="49" spans="1:41">
@@ -16114,7 +16115,7 @@
         <v>0.90249999999999997</v>
       </c>
       <c r="H49" s="88">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.805E-4</v>
       </c>
       <c r="I49" s="175">
@@ -16128,15 +16129,15 @@
         <v>0</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>С66</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>Емкость Е-24</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>Частичное-ликвидация</v>
       </c>
       <c r="O49" t="s">
@@ -16186,7 +16187,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AD49" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="AE49" s="9">
         <v>5</v>
@@ -16195,11 +16196,11 @@
       <c r="AG49" s="9"/>
       <c r="AH49" s="29">
         <f>AD49*I49+AC49</f>
-        <v>2.0895E-2</v>
+        <v>3.5042999999999998E-2</v>
       </c>
       <c r="AI49" s="191">
         <f>AH49*0.1</f>
-        <v>2.0895000000000002E-3</v>
+        <v>3.5043000000000001E-3</v>
       </c>
       <c r="AJ49" s="9">
         <f>AA49*1.72+115*0.012*AB49</f>
@@ -16214,16 +16215,16 @@
         <v>3.8390399999999994E-6</v>
       </c>
       <c r="AM49" s="29">
-        <f t="shared" si="46"/>
-        <v>0.52298833903999997</v>
-      </c>
-      <c r="AN49" s="9">
-        <f t="shared" si="47"/>
-        <v>6.9294671999999983E-10</v>
+        <f t="shared" si="43"/>
+        <v>0.53855113904000007</v>
+      </c>
+      <c r="AN49" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO49" s="192">
-        <f t="shared" si="48"/>
-        <v>9.4399395196719996E-5</v>
+        <f t="shared" si="44"/>
+        <v>9.7208480596720008E-5</v>
       </c>
     </row>
     <row r="50" spans="1:41">
@@ -16264,15 +16265,15 @@
         <v>150</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" ref="L50:L61" si="53">A50</f>
+        <f t="shared" ref="L50:L61" si="49">A50</f>
         <v>С67</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" ref="M50:M61" si="54">B50</f>
+        <f t="shared" ref="M50:M61" si="50">B50</f>
         <v>Технологический трубопровод транспортировки спиртового растворителя от емкости Н14/4 до всех емкостей площадки ТСЕ, пл. ИКН-4, ПК ИКН, ПК ИКАР</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" ref="N50:N61" si="55">D50</f>
+        <f t="shared" ref="N50:N61" si="51">D50</f>
         <v>Полное-пожар</v>
       </c>
       <c r="O50">
@@ -16321,7 +16322,7 @@
         <v>0.12</v>
       </c>
       <c r="AD50" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE50" s="3">
         <v>15</v>
@@ -16330,11 +16331,11 @@
       <c r="AG50" s="3"/>
       <c r="AH50" s="152">
         <f>AD50*I50+AC50</f>
-        <v>0.14699999999999999</v>
+        <v>0.24060000000000001</v>
       </c>
       <c r="AI50" s="196">
         <f>AH50*0.1</f>
-        <v>1.47E-2</v>
+        <v>2.4060000000000002E-2</v>
       </c>
       <c r="AJ50" s="153">
         <f>AA50*1.72+115*0.012*AB50</f>
@@ -16349,16 +16350,16 @@
         <v>5.052276E-2</v>
       </c>
       <c r="AM50" s="153">
-        <f t="shared" ref="AM50:AM61" si="56">AL50+AK50+AJ50+AI50+AH50</f>
-        <v>3.0922227599999998</v>
-      </c>
-      <c r="AN50" s="163">
-        <f t="shared" ref="AN50:AN61" si="57">AL50*H50</f>
-        <v>1.0852288848000001E-6</v>
+        <f t="shared" ref="AM50:AM61" si="52">AL50+AK50+AJ50+AI50+AH50</f>
+        <v>3.1951827600000002</v>
+      </c>
+      <c r="AN50" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO50" s="163">
-        <f t="shared" ref="AO50:AO61" si="58">H50*AM50</f>
-        <v>6.6420944884800005E-5</v>
+        <f t="shared" ref="AO50:AO61" si="53">H50*AM50</f>
+        <v>6.8632525684800014E-5</v>
       </c>
     </row>
     <row r="51" spans="1:41">
@@ -16384,7 +16385,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="H51" s="81">
-        <f t="shared" ref="H51:H55" si="59">E51*F51*G51</f>
+        <f t="shared" ref="H51:H55" si="54">E51*F51*G51</f>
         <v>4.2960000000000009E-6</v>
       </c>
       <c r="I51" s="79">
@@ -16400,15 +16401,15 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>С68</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>Технологический трубопровод транспортировки спиртового растворителя от емкости Н14/4 до всех емкостей площадки ТСЕ, пл. ИКН-4, ПК ИКН, ПК ИКАР</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>Полное-взрыв</v>
       </c>
       <c r="O51" t="s">
@@ -16457,7 +16458,7 @@
         <v>0.12</v>
       </c>
       <c r="AD51" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE51" s="3">
         <v>15</v>
@@ -16466,18 +16467,18 @@
       <c r="AG51" s="3"/>
       <c r="AH51" s="152">
         <f>AD51*I51+AC51</f>
-        <v>0.14699999999999999</v>
+        <v>0.24060000000000001</v>
       </c>
       <c r="AI51" s="196">
-        <f t="shared" ref="AI51:AI52" si="60">AH51*0.1</f>
-        <v>1.47E-2</v>
+        <f t="shared" ref="AI51:AI52" si="55">AH51*0.1</f>
+        <v>2.4060000000000002E-2</v>
       </c>
       <c r="AJ51" s="153">
-        <f t="shared" ref="AJ51:AJ52" si="61">AA51*1.72+115*0.012*AB51</f>
+        <f t="shared" ref="AJ51:AJ52" si="56">AA51*1.72+115*0.012*AB51</f>
         <v>1.3800000000000001</v>
       </c>
       <c r="AK51" s="153">
-        <f t="shared" ref="AK51:AK52" si="62">AE51*0.1</f>
+        <f t="shared" ref="AK51:AK52" si="57">AE51*0.1</f>
         <v>1.5</v>
       </c>
       <c r="AL51" s="152">
@@ -16485,16 +16486,16 @@
         <v>3.2943682799999999E-2</v>
       </c>
       <c r="AM51" s="153">
-        <f t="shared" si="56"/>
-        <v>3.0746436827999997</v>
-      </c>
-      <c r="AN51" s="163">
-        <f t="shared" si="57"/>
-        <v>1.4152606130880002E-7</v>
+        <f t="shared" si="52"/>
+        <v>3.1776036828000001</v>
+      </c>
+      <c r="AN51" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO51" s="163">
-        <f t="shared" si="58"/>
-        <v>1.3208669261308802E-5</v>
+        <f t="shared" si="53"/>
+        <v>1.3650985421308803E-5</v>
       </c>
     </row>
     <row r="52" spans="1:41">
@@ -16520,7 +16521,7 @@
         <v>0.76</v>
       </c>
       <c r="H52" s="81">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>8.1624000000000003E-5</v>
       </c>
       <c r="I52" s="79">
@@ -16534,15 +16535,15 @@
         <v>1</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>С69</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>Технологический трубопровод транспортировки спиртового растворителя от емкости Н14/4 до всех емкостей площадки ТСЕ, пл. ИКН-4, ПК ИКН, ПК ИКАР</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>Полное-ликвидация</v>
       </c>
       <c r="O52" t="s">
@@ -16591,7 +16592,7 @@
         <v>0.12</v>
       </c>
       <c r="AD52" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE52" s="3">
         <v>15</v>
@@ -16603,15 +16604,15 @@
         <v>0.12</v>
       </c>
       <c r="AI52" s="196">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>1.2E-2</v>
       </c>
       <c r="AJ52" s="153">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AK52" s="153">
-        <f t="shared" si="62"/>
+        <f t="shared" si="57"/>
         <v>1.5</v>
       </c>
       <c r="AL52" s="152">
@@ -16619,15 +16620,15 @@
         <v>3.2471981999999996E-2</v>
       </c>
       <c r="AM52" s="153">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>1.6644719819999998</v>
       </c>
-      <c r="AN52" s="163">
-        <f t="shared" si="57"/>
-        <v>2.650493058768E-6</v>
+      <c r="AN52" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO52" s="163">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>1.3586086105876798E-4</v>
       </c>
     </row>
@@ -16654,7 +16655,7 @@
         <v>0.2</v>
       </c>
       <c r="H53" s="81">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>1.4319999999999998E-4</v>
       </c>
       <c r="I53" s="79">
@@ -16670,15 +16671,15 @@
         <v>27</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>С70</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>Технологический трубопровод транспортировки спиртового растворителя от емкости Н14/4 до всех емкостей площадки ТСЕ, пл. ИКН-4, ПК ИКН, ПК ИКАР</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>Частичное-пожар</v>
       </c>
       <c r="O53">
@@ -16728,7 +16729,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="AD53" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE53" s="3">
         <v>5</v>
@@ -16737,11 +16738,11 @@
       <c r="AG53" s="3"/>
       <c r="AH53" s="152">
         <f>AD53*I53+AC53</f>
-        <v>1.4700000000000001E-2</v>
+        <v>2.4060000000000002E-2</v>
       </c>
       <c r="AI53" s="196">
         <f>AH53*0.1</f>
-        <v>1.4700000000000002E-3</v>
+        <v>2.4060000000000002E-3</v>
       </c>
       <c r="AJ53" s="153">
         <f>AA53*1.72+115*0.012*AB53</f>
@@ -16756,16 +16757,16 @@
         <v>3.4212276E-2</v>
       </c>
       <c r="AM53" s="153">
-        <f t="shared" si="56"/>
-        <v>1.9303822760000002</v>
-      </c>
-      <c r="AN53" s="163">
-        <f t="shared" si="57"/>
-        <v>4.8991979231999995E-6</v>
+        <f t="shared" si="52"/>
+        <v>1.9406782760000001</v>
+      </c>
+      <c r="AN53" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO53" s="163">
-        <f t="shared" si="58"/>
-        <v>2.7643074192319999E-4</v>
+        <f t="shared" si="53"/>
+        <v>2.7790512912319998E-4</v>
       </c>
     </row>
     <row r="54" spans="1:41">
@@ -16791,7 +16792,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="H54" s="81">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>2.8640000000000004E-5</v>
       </c>
       <c r="I54" s="79">
@@ -16807,15 +16808,15 @@
         <v>9.7199999999999995E-3</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>С71</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>Технологический трубопровод транспортировки спиртового растворителя от емкости Н14/4 до всех емкостей площадки ТСЕ, пл. ИКН-4, ПК ИКН, ПК ИКАР</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>Частичное-вспышка</v>
       </c>
       <c r="O54" t="s">
@@ -16865,7 +16866,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="AD54" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE54" s="3">
         <v>5</v>
@@ -16874,11 +16875,11 @@
       <c r="AG54" s="3"/>
       <c r="AH54" s="152">
         <f>AD54*I54+AC54</f>
-        <v>1.4700000000000001E-2</v>
+        <v>2.4060000000000002E-2</v>
       </c>
       <c r="AI54" s="196">
         <f>AH54*0.1</f>
-        <v>1.4700000000000002E-3</v>
+        <v>2.4060000000000002E-3</v>
       </c>
       <c r="AJ54" s="153">
         <f>AA54*1.72+115*0.012*AB54</f>
@@ -16893,16 +16894,16 @@
         <v>3.2497862903999995E-2</v>
       </c>
       <c r="AM54" s="153">
-        <f t="shared" si="56"/>
-        <v>1.9286678629040002</v>
-      </c>
-      <c r="AN54" s="163">
-        <f t="shared" si="57"/>
-        <v>9.3073879357055996E-7</v>
+        <f t="shared" si="52"/>
+        <v>1.938963862904</v>
+      </c>
+      <c r="AN54" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO54" s="163">
-        <f t="shared" si="58"/>
-        <v>5.5237047593570571E-5</v>
+        <f t="shared" si="53"/>
+        <v>5.553192503357057E-5</v>
       </c>
     </row>
     <row r="55" spans="1:41">
@@ -16928,7 +16929,7 @@
         <v>0.76</v>
       </c>
       <c r="H55" s="81">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>5.4415999999999991E-4</v>
       </c>
       <c r="I55" s="79">
@@ -16942,15 +16943,15 @@
         <v>0</v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>С72</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>Технологический трубопровод транспортировки спиртового растворителя от емкости Н14/4 до всех емкостей площадки ТСЕ, пл. ИКН-4, ПК ИКН, ПК ИКАР</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>Частичное-ликвидация</v>
       </c>
       <c r="O55" t="s">
@@ -17000,7 +17001,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="AD55" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE55" s="3">
         <v>5</v>
@@ -17009,11 +17010,11 @@
       <c r="AG55" s="3"/>
       <c r="AH55" s="152">
         <f>AD55*I55+AC55</f>
-        <v>1.4700000000000001E-2</v>
+        <v>2.4060000000000002E-2</v>
       </c>
       <c r="AI55" s="196">
         <f>AH55*0.1</f>
-        <v>1.4700000000000002E-3</v>
+        <v>2.4060000000000002E-3</v>
       </c>
       <c r="AJ55" s="153">
         <f>AA55*1.72+115*0.012*AB55</f>
@@ -17028,16 +17029,16 @@
         <v>3.241295676E-2</v>
       </c>
       <c r="AM55" s="153">
-        <f t="shared" si="56"/>
-        <v>0.54858295676000002</v>
-      </c>
-      <c r="AN55" s="163">
-        <f t="shared" si="57"/>
-        <v>1.7637834550521599E-5</v>
+        <f t="shared" si="52"/>
+        <v>0.55887895675999999</v>
+      </c>
+      <c r="AN55" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO55" s="163">
-        <f t="shared" si="58"/>
-        <v>2.9851690175052156E-4</v>
+        <f t="shared" si="53"/>
+        <v>3.0411957311052154E-4</v>
       </c>
     </row>
     <row r="56" spans="1:41">
@@ -17078,15 +17079,15 @@
         <v>180</v>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>С73</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>Автоцистерна</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>Полное-пожар</v>
       </c>
       <c r="O56">
@@ -17135,7 +17136,7 @@
         <v>0.36</v>
       </c>
       <c r="AD56" s="154">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AE56" s="154">
         <v>5</v>
@@ -17144,11 +17145,11 @@
       <c r="AG56" s="154"/>
       <c r="AH56" s="188">
         <f>AD56*I56+AC56</f>
-        <v>0.46199999999999997</v>
+        <v>1.38</v>
       </c>
       <c r="AI56" s="189">
         <f>AH56*0.1</f>
-        <v>4.6199999999999998E-2</v>
+        <v>0.13799999999999998</v>
       </c>
       <c r="AJ56" s="154">
         <f>AA56*1.72+115*0.012*AB56</f>
@@ -17163,16 +17164,16 @@
         <v>6.8463760000000012E-2</v>
       </c>
       <c r="AM56" s="188">
-        <f t="shared" si="56"/>
-        <v>4.1766637599999994</v>
-      </c>
-      <c r="AN56" s="154">
-        <f t="shared" si="57"/>
-        <v>1.3692752000000005E-7</v>
+        <f t="shared" si="52"/>
+        <v>5.1864637599999996</v>
+      </c>
+      <c r="AN56" s="157">
+        <f t="shared" si="9"/>
+        <v>2.0000000000000003E-6</v>
       </c>
       <c r="AO56" s="190">
-        <f t="shared" si="58"/>
-        <v>8.35332752E-6</v>
+        <f t="shared" si="53"/>
+        <v>1.0372927520000002E-5</v>
       </c>
     </row>
     <row r="57" spans="1:41">
@@ -17198,7 +17199,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H57" s="100">
-        <f t="shared" ref="H57:H61" si="63">E57*F57*G57</f>
+        <f t="shared" ref="H57:H61" si="58">E57*F57*G57</f>
         <v>1.9000000000000002E-6</v>
       </c>
       <c r="I57" s="97">
@@ -17214,15 +17215,15 @@
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>С74</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>Автоцистерна</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>Полное-взрыв</v>
       </c>
       <c r="O57" t="s">
@@ -17271,7 +17272,7 @@
         <v>0.36</v>
       </c>
       <c r="AD57" s="154">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AE57" s="154">
         <v>5</v>
@@ -17280,18 +17281,18 @@
       <c r="AG57" s="154"/>
       <c r="AH57" s="188">
         <f>AD57*I57+AC57</f>
-        <v>0.46199999999999997</v>
+        <v>1.38</v>
       </c>
       <c r="AI57" s="189">
-        <f t="shared" ref="AI57:AI58" si="64">AH57*0.1</f>
-        <v>4.6199999999999998E-2</v>
+        <f t="shared" ref="AI57:AI58" si="59">AH57*0.1</f>
+        <v>0.13799999999999998</v>
       </c>
       <c r="AJ57" s="154">
-        <f t="shared" ref="AJ57:AJ58" si="65">AA57*1.72+115*0.012*AB57</f>
+        <f t="shared" ref="AJ57:AJ58" si="60">AA57*1.72+115*0.012*AB57</f>
         <v>3.1</v>
       </c>
       <c r="AK57" s="154">
-        <f t="shared" ref="AK57:AK58" si="66">AE57*0.1</f>
+        <f t="shared" ref="AK57:AK58" si="61">AE57*0.1</f>
         <v>0.5</v>
       </c>
       <c r="AL57" s="189">
@@ -17299,16 +17300,16 @@
         <v>6.5241935999999997E-4</v>
       </c>
       <c r="AM57" s="188">
-        <f t="shared" si="56"/>
-        <v>4.1088524193599998</v>
-      </c>
-      <c r="AN57" s="154">
-        <f t="shared" si="57"/>
-        <v>1.239596784E-9</v>
+        <f t="shared" si="52"/>
+        <v>5.11865241936</v>
+      </c>
+      <c r="AN57" s="157">
+        <f t="shared" si="9"/>
+        <v>1.9000000000000002E-6</v>
       </c>
       <c r="AO57" s="190">
-        <f t="shared" si="58"/>
-        <v>7.806819596784E-6</v>
+        <f t="shared" si="53"/>
+        <v>9.725439596784002E-6</v>
       </c>
     </row>
     <row r="58" spans="1:41">
@@ -17334,7 +17335,7 @@
         <v>0.90249999999999997</v>
       </c>
       <c r="H58" s="100">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>3.6100000000000003E-5</v>
       </c>
       <c r="I58" s="97">
@@ -17346,15 +17347,15 @@
       </c>
       <c r="K58" s="126"/>
       <c r="L58" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>С75</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>Автоцистерна</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>Полное-ликвидация</v>
       </c>
       <c r="O58" t="s">
@@ -17403,7 +17404,7 @@
         <v>0.36</v>
       </c>
       <c r="AD58" s="154">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AE58" s="154">
         <v>5</v>
@@ -17415,15 +17416,15 @@
         <v>0.36</v>
       </c>
       <c r="AI58" s="189">
-        <f t="shared" si="64"/>
+        <f t="shared" si="59"/>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="AJ58" s="154">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AK58" s="154">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
       <c r="AL58" s="189">
@@ -17431,15 +17432,15 @@
         <v>8.6378399999999979E-5</v>
       </c>
       <c r="AM58" s="188">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>0.89608637840000005</v>
       </c>
-      <c r="AN58" s="154">
-        <f t="shared" si="57"/>
-        <v>3.1182602399999994E-9</v>
+      <c r="AN58" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO58" s="190">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>3.2348718260240004E-5</v>
       </c>
     </row>
@@ -17466,7 +17467,7 @@
         <v>0.05</v>
       </c>
       <c r="H59" s="100">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="I59" s="97">
@@ -17482,15 +17483,15 @@
         <v>14</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>С76</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>Автоцистерна</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>Частичное-пожар</v>
       </c>
       <c r="O59">
@@ -17540,7 +17541,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="AD59" s="154">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AE59" s="154">
         <v>3</v>
@@ -17549,11 +17550,11 @@
       <c r="AG59" s="154"/>
       <c r="AH59" s="188">
         <f>AD59*I59+AC59</f>
-        <v>4.6199999999999998E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="AI59" s="189">
         <f>AH59*0.1</f>
-        <v>4.62E-3</v>
+        <v>1.3800000000000002E-2</v>
       </c>
       <c r="AJ59" s="154">
         <f>AA59*1.72+115*0.012*AB59</f>
@@ -17568,16 +17569,16 @@
         <v>6.8463760000000004E-3</v>
       </c>
       <c r="AM59" s="188">
-        <f t="shared" si="56"/>
-        <v>1.7376663760000002</v>
-      </c>
-      <c r="AN59" s="154">
-        <f t="shared" si="57"/>
-        <v>6.8463759999999999E-10</v>
+        <f t="shared" si="52"/>
+        <v>1.8386463760000002</v>
+      </c>
+      <c r="AN59" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO59" s="190">
-        <f t="shared" si="58"/>
-        <v>1.737666376E-7</v>
+        <f t="shared" si="53"/>
+        <v>1.8386463760000002E-7</v>
       </c>
     </row>
     <row r="60" spans="1:41">
@@ -17603,7 +17604,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H60" s="100">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>9.499999999999999E-8</v>
       </c>
       <c r="I60" s="97">
@@ -17619,15 +17620,15 @@
         <v>5.0400000000000002E-3</v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>С77</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>Автоцистерна</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>Частичное-вспышка</v>
       </c>
       <c r="O60" t="s">
@@ -17677,7 +17678,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="AD60" s="154">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AE60" s="154">
         <v>3</v>
@@ -17686,11 +17687,11 @@
       <c r="AG60" s="154"/>
       <c r="AH60" s="188">
         <f>AD60*I60+AC60</f>
-        <v>4.6199999999999998E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="AI60" s="189">
         <f>AH60*0.1</f>
-        <v>4.62E-3</v>
+        <v>1.3800000000000002E-2</v>
       </c>
       <c r="AJ60" s="154">
         <f>AA60*1.72+115*0.012*AB60</f>
@@ -17705,16 +17706,16 @@
         <v>5.0743728000000003E-5</v>
       </c>
       <c r="AM60" s="188">
-        <f t="shared" si="56"/>
-        <v>1.7308707437280002</v>
-      </c>
-      <c r="AN60" s="154">
-        <f t="shared" si="57"/>
-        <v>4.8206541600000001E-12</v>
+        <f t="shared" si="52"/>
+        <v>1.8318507437280003</v>
+      </c>
+      <c r="AN60" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO60" s="190">
-        <f t="shared" si="58"/>
-        <v>1.6443272065416002E-7</v>
+        <f t="shared" si="53"/>
+        <v>1.7402582065416001E-7</v>
       </c>
     </row>
     <row r="61" spans="1:41">
@@ -17740,7 +17741,7 @@
         <v>0.90249999999999997</v>
       </c>
       <c r="H61" s="100">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>1.8049999999999999E-6</v>
       </c>
       <c r="I61" s="97">
@@ -17754,15 +17755,15 @@
         <v>0</v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>С78</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>Автоцистерна</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>Частичное-ликвидация</v>
       </c>
       <c r="O61" t="s">
@@ -17812,7 +17813,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="AD61" s="154">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AE61" s="154">
         <v>3</v>
@@ -17821,11 +17822,11 @@
       <c r="AG61" s="154"/>
       <c r="AH61" s="188">
         <f>AD61*I61+AC61</f>
-        <v>4.6199999999999998E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="AI61" s="189">
         <f>AH61*0.1</f>
-        <v>4.62E-3</v>
+        <v>1.3800000000000002E-2</v>
       </c>
       <c r="AJ61" s="154">
         <f>AA61*1.72+115*0.012*AB61</f>
@@ -17840,16 +17841,22 @@
         <v>6.7183200000000002E-6</v>
       </c>
       <c r="AM61" s="188">
-        <f t="shared" si="56"/>
-        <v>0.35082671832000006</v>
-      </c>
-      <c r="AN61" s="154">
-        <f t="shared" si="57"/>
-        <v>1.21265676E-11</v>
+        <f t="shared" si="52"/>
+        <v>0.45180671832000002</v>
+      </c>
+      <c r="AN61" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO61" s="190">
-        <f t="shared" si="58"/>
-        <v>6.3324222656760006E-7</v>
+        <f t="shared" si="53"/>
+        <v>8.1551112656759994E-7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:41" hidden="1">
+      <c r="AN62" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:41">
@@ -17891,15 +17898,15 @@
         <v>150</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" ref="L63:M68" si="67">A63</f>
+        <f t="shared" ref="L63:M68" si="62">A63</f>
         <v>С79</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>Насос Н-14/1</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" ref="N63:N68" si="68">D63</f>
+        <f t="shared" ref="N63:N68" si="63">D63</f>
         <v>Полное-жидкостной факел</v>
       </c>
       <c r="O63" t="s">
@@ -17948,7 +17955,7 @@
         <v>0.15</v>
       </c>
       <c r="AD63" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="AE63" s="4">
         <v>3</v>
@@ -17957,18 +17964,18 @@
       <c r="AG63" s="4"/>
       <c r="AH63" s="160">
         <f>AD63*I63+AC63</f>
-        <v>0.26249999999999996</v>
+        <v>0.53249999999999997</v>
       </c>
       <c r="AI63" s="160">
         <f>AH63*0.1</f>
-        <v>2.6249999999999996E-2</v>
+        <v>5.3249999999999999E-2</v>
       </c>
       <c r="AJ63" s="161">
         <f>AA63*1.72+115*0.012*AB63</f>
         <v>1.3800000000000001</v>
       </c>
       <c r="AK63" s="161">
-        <f t="shared" ref="AK63:AK68" si="69">AE63*0.1</f>
+        <f t="shared" ref="AK63:AK68" si="64">AE63*0.1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL63" s="160">
@@ -17976,16 +17983,16 @@
         <v>0.2555115</v>
       </c>
       <c r="AM63" s="161">
-        <f t="shared" ref="AM63:AM80" si="70">AL63+AK63+AJ63+AI63+AH63</f>
-        <v>2.2242614999999999</v>
+        <f t="shared" ref="AM63:AM80" si="65">AL63+AK63+AJ63+AI63+AH63</f>
+        <v>2.5212615</v>
       </c>
       <c r="AN63" s="157">
-        <f t="shared" ref="AN63:AN80" si="71">AL63*H63</f>
-        <v>5.7490087499999999E-7</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO63" s="157">
-        <f t="shared" ref="AO63:AO80" si="72">H63*AM63</f>
-        <v>5.0045883750000002E-6</v>
+        <f t="shared" ref="AO63:AO80" si="66">H63*AM63</f>
+        <v>5.6728383750000001E-6</v>
       </c>
     </row>
     <row r="64" spans="1:41">
@@ -18011,7 +18018,7 @@
         <v>1.4249999999999999E-2</v>
       </c>
       <c r="H64" s="94">
-        <f t="shared" ref="H64:H68" si="73">E64*F64*G64</f>
+        <f t="shared" ref="H64:H68" si="67">E64*F64*G64</f>
         <v>2.1374999999999999E-6</v>
       </c>
       <c r="I64" s="91">
@@ -18027,15 +18034,15 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>С80</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>Насос Н-14/1</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>Полное-взрыв</v>
       </c>
       <c r="O64" t="s">
@@ -18084,7 +18091,7 @@
         <v>0.15</v>
       </c>
       <c r="AD64" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="AE64" s="4">
         <v>3</v>
@@ -18093,18 +18100,18 @@
       <c r="AG64" s="4"/>
       <c r="AH64" s="160">
         <f>AD64*I64+AC64</f>
-        <v>0.26249999999999996</v>
+        <v>0.53249999999999997</v>
       </c>
       <c r="AI64" s="160">
-        <f t="shared" ref="AI64:AI68" si="74">AH64*0.1</f>
-        <v>2.6249999999999996E-2</v>
+        <f t="shared" ref="AI64:AI68" si="68">AH64*0.1</f>
+        <v>5.3249999999999999E-2</v>
       </c>
       <c r="AJ64" s="161">
-        <f t="shared" ref="AJ64:AJ68" si="75">AA64*1.72+115*0.012*AB64</f>
+        <f t="shared" ref="AJ64:AJ68" si="69">AA64*1.72+115*0.012*AB64</f>
         <v>1.3800000000000001</v>
       </c>
       <c r="AK64" s="161">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL64" s="160">
@@ -18112,16 +18119,16 @@
         <v>0.18054368279999999</v>
       </c>
       <c r="AM64" s="161">
-        <f t="shared" si="70"/>
-        <v>2.1492936827999998</v>
+        <f t="shared" si="65"/>
+        <v>2.4462936828000004</v>
       </c>
       <c r="AN64" s="157">
-        <f t="shared" si="71"/>
-        <v>3.8591212198499996E-7</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO64" s="157">
-        <f t="shared" si="72"/>
-        <v>4.5941152469849996E-6</v>
+        <f t="shared" si="66"/>
+        <v>5.2289527469850008E-6</v>
       </c>
     </row>
     <row r="65" spans="1:41">
@@ -18147,7 +18154,7 @@
         <v>0.27074999999999999</v>
       </c>
       <c r="H65" s="94">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>4.0612500000000005E-5</v>
       </c>
       <c r="I65" s="91">
@@ -18162,15 +18169,15 @@
         <v>7.5</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>С81</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>Насос Н-14/1</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>Полное-ликвидация</v>
       </c>
       <c r="O65" t="s">
@@ -18219,7 +18226,7 @@
         <v>0.15</v>
       </c>
       <c r="AD65" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="AE65" s="4">
         <v>3</v>
@@ -18231,15 +18238,15 @@
         <v>0.15</v>
       </c>
       <c r="AI65" s="160">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AJ65" s="161">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AK65" s="161">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL65" s="160">
@@ -18247,15 +18254,15 @@
         <v>0.18007198199999999</v>
       </c>
       <c r="AM65" s="161">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>0.64507198200000004</v>
       </c>
       <c r="AN65" s="157">
-        <f t="shared" si="71"/>
-        <v>7.3131733689750007E-6</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO65" s="157">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>2.6197985868975005E-5</v>
       </c>
     </row>
@@ -18282,7 +18289,7 @@
         <v>3.4999999999999996E-2</v>
       </c>
       <c r="H66" s="94">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>5.2499999999999997E-6</v>
       </c>
       <c r="I66" s="91">
@@ -18298,15 +18305,15 @@
         <v>150</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>С82</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>Насос Н-14/1</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>Полное пожар</v>
       </c>
       <c r="O66">
@@ -18355,7 +18362,7 @@
         <v>0.15</v>
       </c>
       <c r="AD66" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="AE66" s="4">
         <v>3</v>
@@ -18364,18 +18371,18 @@
       <c r="AG66" s="4"/>
       <c r="AH66" s="160">
         <f>AD66*I66+AC66</f>
-        <v>0.26249999999999996</v>
+        <v>0.53249999999999997</v>
       </c>
       <c r="AI66" s="160">
-        <f t="shared" si="74"/>
-        <v>2.6249999999999996E-2</v>
+        <f t="shared" si="68"/>
+        <v>5.3249999999999999E-2</v>
       </c>
       <c r="AJ66" s="161">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>1.3800000000000001</v>
       </c>
       <c r="AK66" s="161">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL66" s="160">
@@ -18383,16 +18390,16 @@
         <v>0.2555115</v>
       </c>
       <c r="AM66" s="161">
-        <f t="shared" si="70"/>
-        <v>2.2242614999999999</v>
+        <f t="shared" si="65"/>
+        <v>2.5212615</v>
       </c>
       <c r="AN66" s="157">
-        <f t="shared" si="71"/>
-        <v>1.3414353749999999E-6</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AO66" s="157">
-        <f t="shared" si="72"/>
-        <v>1.1677372874999999E-5</v>
+        <f t="shared" si="66"/>
+        <v>1.3236622875E-5</v>
       </c>
     </row>
     <row r="67" spans="1:41">
@@ -18418,11 +18425,11 @@
         <v>3.3249999999999995E-2</v>
       </c>
       <c r="H67" s="94">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>4.9875000000000001E-6</v>
       </c>
       <c r="I67" s="91">
-        <f t="shared" ref="I67:I68" si="76">I64</f>
+        <f t="shared" ref="I67:I68" si="70">I64</f>
         <v>7.5</v>
       </c>
       <c r="J67" s="91">
@@ -18434,15 +18441,15 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>С83</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>Насос Н-14/1</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>Полное-вспышка</v>
       </c>
       <c r="O67" t="s">
@@ -18491,7 +18498,7 @@
         <v>0.15</v>
       </c>
       <c r="AD67" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="AE67" s="4">
         <v>3</v>
@@ -18500,18 +18507,18 @@
       <c r="AG67" s="4"/>
       <c r="AH67" s="160">
         <f>AD67*I67+AC67</f>
-        <v>0.26249999999999996</v>
+        <v>0.53249999999999997</v>
       </c>
       <c r="AI67" s="160">
-        <f t="shared" si="74"/>
-        <v>2.6249999999999996E-2</v>
+        <f t="shared" si="68"/>
+        <v>5.3249999999999999E-2</v>
       </c>
       <c r="AJ67" s="161">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>1.3800000000000001</v>
       </c>
       <c r="AK67" s="161">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL67" s="160">
@@ -18519,16 +18526,16 @@
         <v>0.18054368279999999</v>
       </c>
       <c r="AM67" s="161">
-        <f t="shared" si="70"/>
-        <v>2.1492936827999998</v>
+        <f t="shared" si="65"/>
+        <v>2.4462936828000004</v>
       </c>
       <c r="AN67" s="157">
-        <f t="shared" si="71"/>
-        <v>9.0046161796499996E-7</v>
+        <f t="shared" ref="AN67:AN80" si="71">AA67*H67</f>
+        <v>0</v>
       </c>
       <c r="AO67" s="157">
-        <f t="shared" si="72"/>
-        <v>1.0719602242964999E-5</v>
+        <f t="shared" si="66"/>
+        <v>1.2200889742965002E-5</v>
       </c>
     </row>
     <row r="68" spans="1:41">
@@ -18554,11 +18561,11 @@
         <v>0.63174999999999992</v>
       </c>
       <c r="H68" s="94">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>9.4762499999999993E-5</v>
       </c>
       <c r="I68" s="91">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>7.5</v>
       </c>
       <c r="J68" s="91">
@@ -18568,15 +18575,15 @@
         <v>0</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>С84</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>Насос Н-14/1</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>Полное-ликвидация</v>
       </c>
       <c r="O68" t="s">
@@ -18625,7 +18632,7 @@
         <v>0.15</v>
       </c>
       <c r="AD68" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="AE68" s="4">
         <v>3</v>
@@ -18637,15 +18644,15 @@
         <v>0.15</v>
       </c>
       <c r="AI68" s="160">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AJ68" s="161">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AK68" s="161">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL68" s="160">
@@ -18653,15 +18660,15 @@
         <v>0.18007198199999999</v>
       </c>
       <c r="AM68" s="161">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>0.64507198200000004</v>
       </c>
       <c r="AN68" s="157">
         <f t="shared" si="71"/>
-        <v>1.7064071194274998E-5</v>
+        <v>0</v>
       </c>
       <c r="AO68" s="157">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>6.1128633694274993E-5</v>
       </c>
     </row>
@@ -18704,15 +18711,15 @@
         <v>111</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" ref="L69:L74" si="77">A69</f>
+        <f t="shared" ref="L69:L74" si="72">A69</f>
         <v>С85</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" ref="M69:M74" si="78">B69</f>
+        <f t="shared" ref="M69:M74" si="73">B69</f>
         <v>Насос Н-14/2</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" ref="N69:N74" si="79">D69</f>
+        <f t="shared" ref="N69:N74" si="74">D69</f>
         <v>Полное-жидкостной факел</v>
       </c>
       <c r="O69" t="s">
@@ -18761,7 +18768,7 @@
         <v>0.17</v>
       </c>
       <c r="AD69" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AE69" s="9">
         <v>3</v>
@@ -18770,18 +18777,18 @@
       <c r="AG69" s="9"/>
       <c r="AH69" s="158">
         <f>AD69*I69+AC69</f>
-        <v>0.25324999999999998</v>
+        <v>0.38090000000000002</v>
       </c>
       <c r="AI69" s="158">
         <f>AH69*0.1</f>
-        <v>2.5325E-2</v>
+        <v>3.8090000000000006E-2</v>
       </c>
       <c r="AJ69" s="159">
         <f>AA69*1.72+115*0.012*AB69</f>
         <v>1.3800000000000001</v>
       </c>
       <c r="AK69" s="159">
-        <f t="shared" ref="AK69:AK74" si="80">AE69*0.1</f>
+        <f t="shared" ref="AK69:AK74" si="75">AE69*0.1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL69" s="158">
@@ -18789,16 +18796,16 @@
         <v>0.18907850999999998</v>
       </c>
       <c r="AM69" s="159">
-        <f t="shared" si="70"/>
-        <v>2.14765351</v>
-      </c>
-      <c r="AN69" s="162">
+        <f t="shared" si="65"/>
+        <v>2.28806851</v>
+      </c>
+      <c r="AN69" s="157">
         <f t="shared" si="71"/>
-        <v>1.13447106E-7</v>
+        <v>0</v>
       </c>
       <c r="AO69" s="162">
-        <f t="shared" si="72"/>
-        <v>1.2885921060000002E-6</v>
+        <f t="shared" si="66"/>
+        <v>1.3728411060000003E-6</v>
       </c>
     </row>
     <row r="70" spans="1:41">
@@ -18824,7 +18831,7 @@
         <v>1.4249999999999999E-2</v>
       </c>
       <c r="H70" s="88">
-        <f t="shared" ref="H70:H74" si="81">E70*F70*G70</f>
+        <f t="shared" ref="H70:H74" si="76">E70*F70*G70</f>
         <v>5.7000000000000005E-7</v>
       </c>
       <c r="I70" s="85">
@@ -18840,15 +18847,15 @@
         <v>3.9960000000000002E-2</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>С86</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>Насос Н-14/2</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>Полное-взрыв</v>
       </c>
       <c r="O70" t="s">
@@ -18897,7 +18904,7 @@
         <v>0.17</v>
       </c>
       <c r="AD70" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AE70" s="9">
         <v>3</v>
@@ -18906,18 +18913,18 @@
       <c r="AG70" s="9"/>
       <c r="AH70" s="158">
         <f>AD70*I70+AC70</f>
-        <v>0.25324999999999998</v>
+        <v>0.38090000000000002</v>
       </c>
       <c r="AI70" s="158">
-        <f t="shared" ref="AI70:AI74" si="82">AH70*0.1</f>
-        <v>2.5325E-2</v>
+        <f t="shared" ref="AI70:AI74" si="77">AH70*0.1</f>
+        <v>3.8090000000000006E-2</v>
       </c>
       <c r="AJ70" s="159">
-        <f t="shared" ref="AJ70:AJ74" si="83">AA70*1.72+115*0.012*AB70</f>
+        <f t="shared" ref="AJ70:AJ74" si="78">AA70*1.72+115*0.012*AB70</f>
         <v>1.3800000000000001</v>
       </c>
       <c r="AK70" s="159">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL70" s="158">
@@ -18925,16 +18932,16 @@
         <v>0.13360232527199997</v>
       </c>
       <c r="AM70" s="159">
-        <f t="shared" si="70"/>
-        <v>2.092177325272</v>
-      </c>
-      <c r="AN70" s="162">
+        <f t="shared" si="65"/>
+        <v>2.2325923252719999</v>
+      </c>
+      <c r="AN70" s="157">
         <f t="shared" si="71"/>
-        <v>7.6153325405039993E-8</v>
+        <v>0</v>
       </c>
       <c r="AO70" s="162">
-        <f t="shared" si="72"/>
-        <v>1.19254107540504E-6</v>
+        <f t="shared" si="66"/>
+        <v>1.2725776254050401E-6</v>
       </c>
     </row>
     <row r="71" spans="1:41">
@@ -18960,7 +18967,7 @@
         <v>0.27074999999999999</v>
       </c>
       <c r="H71" s="88">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>1.0830000000000001E-5</v>
       </c>
       <c r="I71" s="85">
@@ -18975,15 +18982,15 @@
         <v>5.55</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>С87</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>Насос Н-14/2</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>Полное-ликвидация</v>
       </c>
       <c r="O71" t="s">
@@ -19032,7 +19039,7 @@
         <v>0.17</v>
       </c>
       <c r="AD71" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AE71" s="9">
         <v>3</v>
@@ -19044,15 +19051,15 @@
         <v>0.17</v>
       </c>
       <c r="AI71" s="158">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="AJ71" s="159">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AK71" s="159">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL71" s="158">
@@ -19060,15 +19067,15 @@
         <v>0.13325326667999998</v>
       </c>
       <c r="AM71" s="159">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>0.62025326668000003</v>
       </c>
-      <c r="AN71" s="162">
+      <c r="AN71" s="157">
         <f t="shared" si="71"/>
-        <v>1.4431328781443999E-6</v>
+        <v>0</v>
       </c>
       <c r="AO71" s="162">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>6.7173428781444013E-6</v>
       </c>
     </row>
@@ -19095,7 +19102,7 @@
         <v>3.4999999999999996E-2</v>
       </c>
       <c r="H72" s="88">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>1.3999999999999999E-6</v>
       </c>
       <c r="I72" s="85">
@@ -19111,15 +19118,15 @@
         <v>111</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>С88</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>Насос Н-14/2</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>Полное пожар</v>
       </c>
       <c r="O72">
@@ -19168,7 +19175,7 @@
         <v>0.17</v>
       </c>
       <c r="AD72" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AE72" s="9">
         <v>3</v>
@@ -19177,18 +19184,18 @@
       <c r="AG72" s="9"/>
       <c r="AH72" s="158">
         <f>AD72*I72+AC72</f>
-        <v>0.25324999999999998</v>
+        <v>0.38090000000000002</v>
       </c>
       <c r="AI72" s="158">
-        <f t="shared" si="82"/>
-        <v>2.5325E-2</v>
+        <f t="shared" si="77"/>
+        <v>3.8090000000000006E-2</v>
       </c>
       <c r="AJ72" s="159">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>1.3800000000000001</v>
       </c>
       <c r="AK72" s="159">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL72" s="158">
@@ -19196,16 +19203,16 @@
         <v>0.18907850999999998</v>
       </c>
       <c r="AM72" s="159">
-        <f t="shared" si="70"/>
-        <v>2.14765351</v>
-      </c>
-      <c r="AN72" s="162">
+        <f t="shared" si="65"/>
+        <v>2.28806851</v>
+      </c>
+      <c r="AN72" s="157">
         <f t="shared" si="71"/>
-        <v>2.6470991399999995E-7</v>
+        <v>0</v>
       </c>
       <c r="AO72" s="162">
-        <f t="shared" si="72"/>
-        <v>3.006714914E-6</v>
+        <f t="shared" si="66"/>
+        <v>3.2032959139999997E-6</v>
       </c>
     </row>
     <row r="73" spans="1:41">
@@ -19231,11 +19238,11 @@
         <v>3.3249999999999995E-2</v>
       </c>
       <c r="H73" s="88">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>1.33E-6</v>
       </c>
       <c r="I73" s="85">
-        <f t="shared" ref="I73:I74" si="84">I70</f>
+        <f t="shared" ref="I73:I74" si="79">I70</f>
         <v>5.55</v>
       </c>
       <c r="J73" s="85">
@@ -19247,15 +19254,15 @@
         <v>3.9960000000000002E-2</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>С89</v>
       </c>
       <c r="M73" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>Насос Н-14/2</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>Полное-вспышка</v>
       </c>
       <c r="O73" t="s">
@@ -19304,7 +19311,7 @@
         <v>0.17</v>
       </c>
       <c r="AD73" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AE73" s="9">
         <v>3</v>
@@ -19313,18 +19320,18 @@
       <c r="AG73" s="9"/>
       <c r="AH73" s="158">
         <f>AD73*I73+AC73</f>
-        <v>0.25324999999999998</v>
+        <v>0.38090000000000002</v>
       </c>
       <c r="AI73" s="158">
-        <f t="shared" si="82"/>
-        <v>2.5325E-2</v>
+        <f t="shared" si="77"/>
+        <v>3.8090000000000006E-2</v>
       </c>
       <c r="AJ73" s="159">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>1.3800000000000001</v>
       </c>
       <c r="AK73" s="159">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL73" s="158">
@@ -19332,16 +19339,16 @@
         <v>0.13360232527199997</v>
       </c>
       <c r="AM73" s="159">
-        <f t="shared" si="70"/>
-        <v>2.092177325272</v>
-      </c>
-      <c r="AN73" s="162">
+        <f t="shared" si="65"/>
+        <v>2.2325923252719999</v>
+      </c>
+      <c r="AN73" s="157">
         <f t="shared" si="71"/>
-        <v>1.7769109261175995E-7</v>
+        <v>0</v>
       </c>
       <c r="AO73" s="162">
-        <f t="shared" si="72"/>
-        <v>2.78259584261176E-6</v>
+        <f t="shared" si="66"/>
+        <v>2.9693477926117596E-6</v>
       </c>
     </row>
     <row r="74" spans="1:41">
@@ -19367,11 +19374,11 @@
         <v>0.63174999999999992</v>
       </c>
       <c r="H74" s="88">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>2.527E-5</v>
       </c>
       <c r="I74" s="85">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>5.55</v>
       </c>
       <c r="J74" s="85">
@@ -19381,15 +19388,15 @@
         <v>0</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>С90</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>Насос Н-14/2</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>Полное-ликвидация</v>
       </c>
       <c r="O74" t="s">
@@ -19438,7 +19445,7 @@
         <v>0.17</v>
       </c>
       <c r="AD74" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AE74" s="9">
         <v>3</v>
@@ -19450,15 +19457,15 @@
         <v>0.17</v>
       </c>
       <c r="AI74" s="158">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="AJ74" s="159">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AK74" s="159">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL74" s="158">
@@ -19466,15 +19473,15 @@
         <v>0.13325326667999998</v>
       </c>
       <c r="AM74" s="159">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>0.62025326668000003</v>
       </c>
-      <c r="AN74" s="162">
+      <c r="AN74" s="157">
         <f t="shared" si="71"/>
-        <v>3.3673100490035997E-6</v>
+        <v>0</v>
       </c>
       <c r="AO74" s="162">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>1.5673800049003599E-5</v>
       </c>
     </row>
@@ -19517,15 +19524,15 @@
         <v>75</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" ref="L75:L80" si="85">A75</f>
+        <f t="shared" ref="L75:L80" si="80">A75</f>
         <v>С91</v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" ref="M75:M80" si="86">B75</f>
+        <f t="shared" ref="M75:M80" si="81">B75</f>
         <v>Насос Н-6/1</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" ref="N75:N80" si="87">D75</f>
+        <f t="shared" ref="N75:N80" si="82">D75</f>
         <v>Полное-жидкостной факел</v>
       </c>
       <c r="O75" t="s">
@@ -19574,7 +19581,7 @@
         <v>0.17</v>
       </c>
       <c r="AD75" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE75" s="3">
         <v>3</v>
@@ -19583,18 +19590,18 @@
       <c r="AG75" s="3"/>
       <c r="AH75" s="152">
         <f>AD75*I75+AC75</f>
-        <v>0.22625000000000001</v>
+        <v>0.42125000000000001</v>
       </c>
       <c r="AI75" s="152">
         <f>AH75*0.1</f>
-        <v>2.2625000000000003E-2</v>
+        <v>4.2125000000000003E-2</v>
       </c>
       <c r="AJ75" s="153">
         <f>AA75*1.72+115*0.012*AB75</f>
         <v>1.3800000000000001</v>
       </c>
       <c r="AK75" s="153">
-        <f t="shared" ref="AK75:AK80" si="88">AE75*0.1</f>
+        <f t="shared" ref="AK75:AK80" si="83">AE75*0.1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL75" s="152">
@@ -19602,16 +19609,16 @@
         <v>0.12775575</v>
       </c>
       <c r="AM75" s="153">
-        <f t="shared" si="70"/>
-        <v>2.0566307500000001</v>
-      </c>
-      <c r="AN75" s="163">
+        <f t="shared" si="65"/>
+        <v>2.2711307500000002</v>
+      </c>
+      <c r="AN75" s="157">
         <f t="shared" si="71"/>
-        <v>2.2996035000000003E-7</v>
+        <v>0</v>
       </c>
       <c r="AO75" s="163">
-        <f t="shared" si="72"/>
-        <v>3.7019353500000002E-6</v>
+        <f t="shared" si="66"/>
+        <v>4.088035350000001E-6</v>
       </c>
     </row>
     <row r="76" spans="1:41">
@@ -19637,7 +19644,7 @@
         <v>1.4249999999999999E-2</v>
       </c>
       <c r="H76" s="81">
-        <f t="shared" ref="H76:H80" si="89">E76*F76*G76</f>
+        <f t="shared" ref="H76:H80" si="84">E76*F76*G76</f>
         <v>1.7100000000000001E-6</v>
       </c>
       <c r="I76" s="79">
@@ -19653,15 +19660,15 @@
         <v>2.7E-2</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>С92</v>
       </c>
       <c r="M76" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>Насос Н-6/1</v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="82"/>
         <v>Полное-взрыв</v>
       </c>
       <c r="O76" t="s">
@@ -19710,7 +19717,7 @@
         <v>0.17</v>
       </c>
       <c r="AD76" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE76" s="3">
         <v>3</v>
@@ -19719,18 +19726,18 @@
       <c r="AG76" s="3"/>
       <c r="AH76" s="152">
         <f>AD76*I76+AC76</f>
-        <v>0.22625000000000001</v>
+        <v>0.42125000000000001</v>
       </c>
       <c r="AI76" s="152">
-        <f t="shared" ref="AI76:AI80" si="90">AH76*0.1</f>
-        <v>2.2625000000000003E-2</v>
+        <f t="shared" ref="AI76:AI80" si="85">AH76*0.1</f>
+        <v>4.2125000000000003E-2</v>
       </c>
       <c r="AJ76" s="153">
-        <f t="shared" ref="AJ76:AJ80" si="91">AA76*1.72+115*0.012*AB76</f>
+        <f t="shared" ref="AJ76:AJ80" si="86">AA76*1.72+115*0.012*AB76</f>
         <v>1.3800000000000001</v>
       </c>
       <c r="AK76" s="153">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL76" s="152">
@@ -19738,16 +19745,16 @@
         <v>9.0271841399999997E-2</v>
       </c>
       <c r="AM76" s="153">
-        <f t="shared" si="70"/>
-        <v>2.0191468414</v>
-      </c>
-      <c r="AN76" s="163">
+        <f t="shared" si="65"/>
+        <v>2.2336468414000001</v>
+      </c>
+      <c r="AN76" s="157">
         <f t="shared" si="71"/>
-        <v>1.54364848794E-7</v>
+        <v>0</v>
       </c>
       <c r="AO76" s="163">
-        <f t="shared" si="72"/>
-        <v>3.4527410987940004E-6</v>
+        <f t="shared" si="66"/>
+        <v>3.819536098794001E-6</v>
       </c>
     </row>
     <row r="77" spans="1:41">
@@ -19773,7 +19780,7 @@
         <v>0.27074999999999999</v>
       </c>
       <c r="H77" s="81">
-        <f t="shared" si="89"/>
+        <f t="shared" si="84"/>
         <v>3.2490000000000002E-5</v>
       </c>
       <c r="I77" s="79">
@@ -19788,15 +19795,15 @@
         <v>3.75</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>С93</v>
       </c>
       <c r="M77" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>Насос Н-6/1</v>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="82"/>
         <v>Полное-ликвидация</v>
       </c>
       <c r="O77" t="s">
@@ -19845,7 +19852,7 @@
         <v>0.17</v>
       </c>
       <c r="AD77" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE77" s="3">
         <v>3</v>
@@ -19857,15 +19864,15 @@
         <v>0.17</v>
       </c>
       <c r="AI77" s="152">
-        <f t="shared" si="90"/>
+        <f t="shared" si="85"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="AJ77" s="153">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AK77" s="153">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL77" s="152">
@@ -19873,15 +19880,15 @@
         <v>9.0035990999999996E-2</v>
       </c>
       <c r="AM77" s="153">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>0.57703599100000003</v>
       </c>
-      <c r="AN77" s="163">
+      <c r="AN77" s="157">
         <f t="shared" si="71"/>
-        <v>2.92526934759E-6</v>
+        <v>0</v>
       </c>
       <c r="AO77" s="163">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>1.8747899347590003E-5</v>
       </c>
     </row>
@@ -19908,7 +19915,7 @@
         <v>3.4999999999999996E-2</v>
       </c>
       <c r="H78" s="81">
-        <f t="shared" si="89"/>
+        <f t="shared" si="84"/>
         <v>4.2000000000000004E-6</v>
       </c>
       <c r="I78" s="79">
@@ -19924,15 +19931,15 @@
         <v>75</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>С94</v>
       </c>
       <c r="M78" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>Насос Н-6/1</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="82"/>
         <v>Полное пожар</v>
       </c>
       <c r="O78">
@@ -19981,7 +19988,7 @@
         <v>0.17</v>
       </c>
       <c r="AD78" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE78" s="3">
         <v>3</v>
@@ -19990,18 +19997,18 @@
       <c r="AG78" s="3"/>
       <c r="AH78" s="152">
         <f>AD78*I78+AC78</f>
-        <v>0.22625000000000001</v>
+        <v>0.42125000000000001</v>
       </c>
       <c r="AI78" s="152">
-        <f t="shared" si="90"/>
-        <v>2.2625000000000003E-2</v>
+        <f t="shared" si="85"/>
+        <v>4.2125000000000003E-2</v>
       </c>
       <c r="AJ78" s="153">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>1.3800000000000001</v>
       </c>
       <c r="AK78" s="153">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL78" s="152">
@@ -20009,16 +20016,16 @@
         <v>0.12775575</v>
       </c>
       <c r="AM78" s="153">
-        <f t="shared" si="70"/>
-        <v>2.0566307500000001</v>
-      </c>
-      <c r="AN78" s="163">
+        <f t="shared" si="65"/>
+        <v>2.2711307500000002</v>
+      </c>
+      <c r="AN78" s="157">
         <f t="shared" si="71"/>
-        <v>5.3657415000000001E-7</v>
+        <v>0</v>
       </c>
       <c r="AO78" s="163">
-        <f t="shared" si="72"/>
-        <v>8.637849150000002E-6</v>
+        <f t="shared" si="66"/>
+        <v>9.5387491500000022E-6</v>
       </c>
     </row>
     <row r="79" spans="1:41">
@@ -20044,11 +20051,11 @@
         <v>3.3249999999999995E-2</v>
       </c>
       <c r="H79" s="81">
-        <f t="shared" si="89"/>
+        <f t="shared" si="84"/>
         <v>3.9899999999999999E-6</v>
       </c>
       <c r="I79" s="79">
-        <f t="shared" ref="I79:I80" si="92">I76</f>
+        <f t="shared" ref="I79:I80" si="87">I76</f>
         <v>3.75</v>
       </c>
       <c r="J79" s="79">
@@ -20060,15 +20067,15 @@
         <v>2.7E-2</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>С95</v>
       </c>
       <c r="M79" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>Насос Н-6/1</v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="82"/>
         <v>Полное-вспышка</v>
       </c>
       <c r="O79" t="s">
@@ -20117,7 +20124,7 @@
         <v>0.17</v>
       </c>
       <c r="AD79" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE79" s="3">
         <v>3</v>
@@ -20126,18 +20133,18 @@
       <c r="AG79" s="3"/>
       <c r="AH79" s="152">
         <f>AD79*I79+AC79</f>
-        <v>0.22625000000000001</v>
+        <v>0.42125000000000001</v>
       </c>
       <c r="AI79" s="152">
-        <f t="shared" si="90"/>
-        <v>2.2625000000000003E-2</v>
+        <f t="shared" si="85"/>
+        <v>4.2125000000000003E-2</v>
       </c>
       <c r="AJ79" s="153">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>1.3800000000000001</v>
       </c>
       <c r="AK79" s="153">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL79" s="152">
@@ -20145,16 +20152,16 @@
         <v>9.0271841399999997E-2</v>
       </c>
       <c r="AM79" s="153">
-        <f t="shared" si="70"/>
-        <v>2.0191468414</v>
-      </c>
-      <c r="AN79" s="163">
+        <f t="shared" si="65"/>
+        <v>2.2336468414000001</v>
+      </c>
+      <c r="AN79" s="157">
         <f t="shared" si="71"/>
-        <v>3.6018464718599997E-7</v>
+        <v>0</v>
       </c>
       <c r="AO79" s="163">
-        <f t="shared" si="72"/>
-        <v>8.0563958971859994E-6</v>
+        <f t="shared" si="66"/>
+        <v>8.9122508971860011E-6</v>
       </c>
     </row>
     <row r="80" spans="1:41">
@@ -20180,11 +20187,11 @@
         <v>0.63174999999999992</v>
       </c>
       <c r="H80" s="81">
-        <f t="shared" si="89"/>
+        <f t="shared" si="84"/>
         <v>7.5810000000000008E-5</v>
       </c>
       <c r="I80" s="79">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>3.75</v>
       </c>
       <c r="J80" s="79">
@@ -20194,15 +20201,15 @@
         <v>0</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>С96</v>
       </c>
       <c r="M80" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>Насос Н-6/1</v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="82"/>
         <v>Полное-ликвидация</v>
       </c>
       <c r="O80" t="s">
@@ -20251,7 +20258,7 @@
         <v>0.17</v>
       </c>
       <c r="AD80" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE80" s="3">
         <v>3</v>
@@ -20263,15 +20270,15 @@
         <v>0.17</v>
       </c>
       <c r="AI80" s="152">
-        <f t="shared" si="90"/>
+        <f t="shared" si="85"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="AJ80" s="153">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AK80" s="153">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL80" s="152">
@@ -20279,21 +20286,21 @@
         <v>9.0035990999999996E-2</v>
       </c>
       <c r="AM80" s="153">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>0.57703599100000003</v>
       </c>
-      <c r="AN80" s="163">
+      <c r="AN80" s="157">
         <f t="shared" si="71"/>
-        <v>6.8256284777100002E-6</v>
+        <v>0</v>
       </c>
       <c r="AO80" s="163">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>4.3745098477710004E-5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="N63:N1048576 N1:N61">
+  <conditionalFormatting sqref="N1:N61 N63:N1048576">
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="взрыв">
       <formula>NOT(ISERROR(SEARCH("взрыв",N1)))</formula>
     </cfRule>
